--- a/Data_file/import_product.xlsx
+++ b/Data_file/import_product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>categ_id</t>
   </si>
@@ -44,9 +44,6 @@
     <t>name_eng</t>
   </si>
   <si>
-    <t>uom_id</t>
-  </si>
-  <si>
     <t>warehouse_id/name</t>
   </si>
   <si>
@@ -68,30 +65,9 @@
     <t>active</t>
   </si>
   <si>
-    <t>gross width</t>
-  </si>
-  <si>
-    <t>gross depth</t>
-  </si>
-  <si>
-    <t>gross height</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>box width</t>
-  </si>
-  <si>
-    <t>box depth</t>
-  </si>
-  <si>
-    <t>box height</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -101,14 +77,68 @@
     <t>Image</t>
   </si>
   <si>
-    <t>box weight </t>
+    <t>cost_method</t>
+  </si>
+  <si>
+    <t>uom_name</t>
+  </si>
+  <si>
+    <t>weight_uom_name</t>
+  </si>
+  <si>
+    <t>กิโลกรัม</t>
+  </si>
+  <si>
+    <t>taxes_id</t>
+  </si>
+  <si>
+    <t>fifo</t>
+  </si>
+  <si>
+    <t>Basin with Furniture</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์</t>
+  </si>
+  <si>
+    <t>All / 0-FG SET / ชุดโปรโมชั่น / ชุดขายปกติ</t>
+  </si>
+  <si>
+    <t>LF001N316</t>
+  </si>
+  <si>
+    <t>gross_depth</t>
+  </si>
+  <si>
+    <t>gross_height</t>
+  </si>
+  <si>
+    <t>gross_width</t>
+  </si>
+  <si>
+    <t>box_depth</t>
+  </si>
+  <si>
+    <t>box_height</t>
+  </si>
+  <si>
+    <t>box_weight</t>
+  </si>
+  <si>
+    <t>box_width</t>
+  </si>
+  <si>
+    <t>qty_available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,10 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Var(--font-monospace)"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,9 +179,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -428,92 +469,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="14.5546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="3" customWidth="1"/>
+    <col min="13" max="23" width="8.88671875" style="3"/>
+    <col min="24" max="25" width="11.77734375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="17.77734375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8858417009947</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
+      <c r="AA2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data_file/import_product.xlsx
+++ b/Data_file/import_product.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
   <si>
     <t>categ_id</t>
   </si>
@@ -109,9 +117,6 @@
     <t>FG10</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF4052F.jpg</t>
-  </si>
-  <si>
     <t>LF0006GR1400</t>
   </si>
   <si>
@@ -119,9 +124,6 @@
   </si>
   <si>
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 70 ซม.</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF6070K8(R).jpg</t>
   </si>
   <si>
     <t>LF0006RC19B</t>
@@ -133,16 +135,10 @@
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 180 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF6180S (SP2).jpg</t>
-  </si>
-  <si>
     <t>LF0009E2C1400</t>
   </si>
   <si>
     <t>LF9052K8(L2)</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF9052K8(L2).jpg</t>
   </si>
   <si>
     <t>LF0015363</t>
@@ -151,16 +147,10 @@
     <t>LF15070F (SP2)</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF15070F (SP2).jpg</t>
-  </si>
-  <si>
     <t>LF0015EC020</t>
   </si>
   <si>
     <t>LF15070C (SP2)</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF15070C (SP2).jpg</t>
   </si>
   <si>
     <t>LF0018FC12</t>
@@ -172,16 +162,10 @@
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 60 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF18A60L4 (JF23).jpg</t>
-  </si>
-  <si>
     <t>LF001N316</t>
   </si>
   <si>
     <t>LF1060B-N</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF1060B-N.jpg</t>
   </si>
   <si>
     <t>LF0034AC11A</t>
@@ -193,9 +177,6 @@
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 45 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF34045K-N (SP).jpg</t>
-  </si>
-  <si>
     <t>LF0034G5L16</t>
   </si>
   <si>
@@ -203,9 +184,6 @@
   </si>
   <si>
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 75 ซม.</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF34075P (L).jpg</t>
   </si>
   <si>
     <t>LF0034HC03</t>
@@ -217,9 +195,6 @@
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 80 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/image</t>
-  </si>
-  <si>
     <t>LF0035TC22B</t>
   </si>
   <si>
@@ -229,25 +204,16 @@
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 225 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF35225Y (SP1).jpg</t>
-  </si>
-  <si>
     <t>LF0040E2C11</t>
   </si>
   <si>
     <t>LF4052K</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF4052K.jpg</t>
-  </si>
-  <si>
     <t>LF0040FC12</t>
   </si>
   <si>
     <t>LF4060L4 (JF15)</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF4060L4 (JF15).jpg</t>
   </si>
   <si>
     <t>LF0043PL330</t>
@@ -257,9 +223,6 @@
   </si>
   <si>
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 76 ซม.</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF43076KV (L).jpg</t>
   </si>
   <si>
     <t>LF0045G5C010</t>
@@ -272,9 +235,6 @@
   </si>
   <si>
     <t>Basin with Furniture Steel frame</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF45075#B.jpg</t>
   </si>
   <si>
     <t>LF0048UL18B</t>
@@ -295,9 +255,6 @@
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 140 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF48140Y (SP1).jpg</t>
-  </si>
-  <si>
     <t>LF0050E3C00</t>
   </si>
   <si>
@@ -310,9 +267,6 @@
     <t>Basin with Wall Furniture Steel frame</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF5053L4.jpg</t>
-  </si>
-  <si>
     <t>LF0052MC74</t>
   </si>
   <si>
@@ -320,9 +274,6 @@
   </si>
   <si>
     <t>อ่างล้างหน้า พร้อมตู้เฟอร์นิเจอร์ขนาด 130 ซม.</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF52130DW.jpg</t>
   </si>
   <si>
     <t>LF0053FC00</t>
@@ -334,16 +285,10 @@
     <t>อ่างล้างหน้า พร้อมโครงเหล็กแบบตั้งพื้นขนาด 60 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF5360L4.jpg</t>
-  </si>
-  <si>
     <t>LF005DC021</t>
   </si>
   <si>
     <t>LF5047L2</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF5047L2.jpg</t>
   </si>
   <si>
     <t>LF005DC023</t>
@@ -352,16 +297,10 @@
     <t>LF5047L4 (SP)</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF5047L4 (SP).jpg</t>
-  </si>
-  <si>
     <t>LF005DC024</t>
   </si>
   <si>
     <t>LF5047L4</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF5047L4.jpg</t>
   </si>
   <si>
     <t>LF0060FC12</t>
@@ -370,25 +309,16 @@
     <t>LF6060L4 (JF15)</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF6060L4 (JF15).jpg</t>
-  </si>
-  <si>
     <t>LF0060FC121</t>
   </si>
   <si>
     <t>LF6060L4 (JF15-1)</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF6060L4 (JF15-1).jpg</t>
-  </si>
-  <si>
     <t>LF0060FC12A</t>
   </si>
   <si>
     <t>LF6060L4 (JF15)-SP</t>
-  </si>
-  <si>
-    <t>/mnt/data_filestore/imageLF6060L4 (JF15)-SP.jpg</t>
   </si>
   <si>
     <t>LF006FC0000</t>
@@ -400,38 +330,100 @@
     <t>อ่างล้างหน้า พร้อมโครงเหล็กแบบแขวนขนาด 60 ซม.</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF6060#C.jpg</t>
-  </si>
-  <si>
     <t>LF0100G1150</t>
   </si>
   <si>
     <t>LF10070KS8</t>
   </si>
   <si>
-    <t>/mnt/data_filestore/imageLF10070KS8.jpg</t>
+    <t>C:\Users\Ball\Pictures\imageLF4052F.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF6070K8(R).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF6180S (SP2).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF9052K8(L2).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF15070F (SP2).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF15070C (SP2).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF18A60L4 (JF23).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF1060B-N.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF34045K-N (SP).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF34075P (L).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF35225Y (SP1).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF4052K.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF4060L4 (JF15).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF43076KV (L).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF45075#B.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF48140Y (SP1).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF5053L4.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF52130DW.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF5360L4.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF5047L2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF5047L4 (SP).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF5047L4.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF6060L4 (JF15).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF6060L4 (JF15-1).jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF6060L4 (JF15)-SP.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF6060#C.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\Ball\Pictures\imageLF10070KS8.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -480,67 +472,114 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="ธีมของ Office">
       <a:dk1>
@@ -742,7 +781,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -760,7 +799,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +828,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +853,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +878,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +903,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +928,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +953,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +978,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -964,7 +1003,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1028,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,9 +1041,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1021,7 +1066,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1039,7 +1084,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1064,7 +1109,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1159,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1184,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1209,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1234,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1259,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1284,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1309,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,9 +1322,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1293,7 +1344,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1311,7 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1391,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1416,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1390,7 +1441,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1466,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1440,7 +1491,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +1516,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1541,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1515,7 +1566,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1591,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,139 +1604,149 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y800"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.8516" style="1" customWidth="1"/>
-    <col min="13" max="23" width="8.85156" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.8516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="25.9609" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13" max="23" width="8.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:25" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="3">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="3">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:25" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="5">
@@ -1706,35 +1767,35 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y2" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>33</v>
       </c>
       <c r="C3" s="8">
         <v>8858417053162</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="5">
@@ -1763,33 +1824,33 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y3" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s" s="3">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s" s="3">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s" s="3">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="5">
@@ -1816,35 +1877,35 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y4" t="s" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s" s="3">
-        <v>41</v>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="8">
         <v>8858417053186</v>
       </c>
-      <c r="D5" t="s" s="3">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="3">
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="5">
@@ -1873,35 +1934,35 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y5" t="s" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="3">
-        <v>44</v>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="8">
         <v>8858417019618</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s" s="3">
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s" s="3">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s" s="3">
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="5">
@@ -1930,35 +1991,35 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y6" t="s" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>47</v>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="8">
         <v>8858417019625</v>
       </c>
-      <c r="D7" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s" s="3">
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="5">
@@ -1987,35 +2048,35 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y7" t="s" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>50</v>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="8">
         <v>8858417030446</v>
       </c>
-      <c r="D8" t="s" s="3">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s" s="3">
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s" s="3">
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s" s="3">
+      <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="5">
@@ -2044,35 +2105,35 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y8" t="s" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>54</v>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="8">
         <v>8858417009947</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s" s="3">
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="5">
@@ -2099,35 +2160,35 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y9" t="s" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="3">
-        <v>57</v>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="8">
         <v>8858417001347</v>
       </c>
-      <c r="D10" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s" s="3">
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="5">
@@ -2156,35 +2217,35 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y10" t="s" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="3">
-        <v>61</v>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="8">
         <v>8858417019526</v>
       </c>
-      <c r="D11" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s" s="3">
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="5">
@@ -2213,35 +2274,35 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y11" t="s" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s" s="3">
-        <v>65</v>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C12" s="8">
         <v>8858417060436</v>
       </c>
-      <c r="D12" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s" s="3">
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="5">
@@ -2270,35 +2331,33 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y12" t="s" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="3">
-        <v>69</v>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="8">
         <v>8858417027569</v>
       </c>
-      <c r="D13" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s" s="3">
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="5">
@@ -2327,33 +2386,33 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y13" t="s" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="3">
-        <v>73</v>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s" s="3">
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="5">
@@ -2374,35 +2433,35 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y14" t="s" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="3">
-        <v>76</v>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="8">
         <v>8858417030460</v>
       </c>
-      <c r="D15" t="s" s="3">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s" s="3">
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" t="s" s="3">
+      <c r="G15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H15" t="s" s="3">
+      <c r="H15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I15" s="5">
@@ -2431,35 +2490,35 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y15" t="s" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="3">
-        <v>79</v>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C16" s="8">
         <v>8858417019533</v>
       </c>
-      <c r="D16" t="s" s="3">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s" s="3">
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="5">
@@ -2488,35 +2547,35 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y16" t="s" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s" s="3">
-        <v>83</v>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C17" s="8">
         <v>8858417051168</v>
       </c>
-      <c r="D17" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s" s="3">
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I17" s="5">
@@ -2543,33 +2602,33 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y17" t="s" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s" s="3">
-        <v>88</v>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s" s="3">
+      <c r="D18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I18" s="5">
@@ -2596,35 +2655,33 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y18" t="s" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s" s="3">
-        <v>91</v>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="8">
         <v>8858417025817</v>
       </c>
-      <c r="D19" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s" s="3">
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I19" s="5">
@@ -2645,7 +2702,7 @@
         <v>452</v>
       </c>
       <c r="R19" s="5">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -2653,35 +2710,35 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y19" t="s" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s" s="3">
-        <v>95</v>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="8">
         <v>8858417053445</v>
       </c>
-      <c r="D20" t="s" s="3">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="F20" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="G20" t="s" s="3">
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I20" s="5">
@@ -2708,35 +2765,35 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y20" t="s" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s" s="3">
-        <v>100</v>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C21" s="8">
         <v>8858417030637</v>
       </c>
-      <c r="D21" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s" s="3">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s" s="3">
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I21" s="5">
@@ -2763,35 +2820,35 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y21" t="s" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s" s="3">
-        <v>104</v>
+      <c r="B22" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="8">
         <v>8858417053452</v>
       </c>
-      <c r="D22" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="E22" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="F22" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s" s="3">
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="5">
@@ -2820,35 +2877,35 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y22" t="s" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s" s="3">
-        <v>108</v>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C23" s="8">
         <v>8858417025077</v>
       </c>
-      <c r="D23" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F23" t="s" s="3">
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I23" s="5">
@@ -2877,35 +2934,35 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y23" t="s" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s" s="3">
-        <v>111</v>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C24" s="8">
         <v>8858417025091</v>
       </c>
-      <c r="D24" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s" s="3">
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="6"/>
@@ -2932,35 +2989,35 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y24" t="s" s="3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s" s="3">
-        <v>114</v>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C25" s="8">
         <v>8858417025084</v>
       </c>
-      <c r="D25" t="s" s="3">
-        <v>115</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s" s="3">
+      <c r="D25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I25" s="5">
@@ -2989,35 +3046,35 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y25" t="s" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="3">
-        <v>117</v>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C26" s="8">
         <v>8858417030453</v>
       </c>
-      <c r="D26" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s" s="3">
+      <c r="D26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I26" s="5">
@@ -3046,35 +3103,35 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y26" t="s" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s" s="3">
-        <v>120</v>
+      <c r="B27" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C27" s="8">
         <v>8858417030989</v>
       </c>
-      <c r="D27" t="s" s="3">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s" s="3">
+      <c r="D27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="5">
@@ -3103,33 +3160,33 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y27" t="s" s="3">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s" s="3">
-        <v>123</v>
+      <c r="B28" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" t="s" s="3">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="F28" t="s" s="3">
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="5">
@@ -3158,35 +3215,35 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y28" t="s" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s" s="3">
-        <v>126</v>
+      <c r="B29" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C29" s="8">
         <v>8858417067589</v>
       </c>
-      <c r="D29" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>128</v>
-      </c>
-      <c r="F29" t="s" s="3">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s" s="3">
+      <c r="D29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I29" s="5">
@@ -3207,33 +3264,33 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y29" t="s" s="3">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B30" t="s" s="3">
-        <v>130</v>
+      <c r="B30" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" t="s" s="3">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s" s="3">
+      <c r="D30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I30" s="6"/>
@@ -3258,13 +3315,13 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="7">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y30" t="s" s="3">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3291,7 +3348,7 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="6"/>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
@@ -3318,7 +3375,7 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="6"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:25" ht="13.5" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
@@ -3345,7 +3402,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="6"/>
     </row>
-    <row r="34" ht="13.55" customHeight="1">
+    <row r="34" spans="1:25" ht="13.5" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
@@ -3372,7 +3429,7 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="6"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:25" ht="13.5" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
@@ -3399,7 +3456,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="6"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:25" ht="13.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3426,7 +3483,7 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="6"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
+    <row r="37" spans="1:25" ht="13.5" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
@@ -3453,7 +3510,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="6"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
+    <row r="38" spans="1:25" ht="13.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
@@ -3480,7 +3537,7 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="6"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" spans="1:25" ht="13.5" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
@@ -3507,7 +3564,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="6"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" spans="1:25" ht="13.5" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
@@ -3534,7 +3591,7 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="6"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" spans="1:25" ht="13.5" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
@@ -3561,7 +3618,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="6"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" spans="1:25" ht="13.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
@@ -3588,7 +3645,7 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="6"/>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
+    <row r="43" spans="1:25" ht="13.5" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
@@ -3615,7 +3672,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="6"/>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" spans="1:25" ht="13.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
@@ -3642,7 +3699,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="6"/>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
+    <row r="45" spans="1:25" ht="13.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
@@ -3669,7 +3726,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="6"/>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
+    <row r="46" spans="1:25" ht="13.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
@@ -3696,7 +3753,7 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="6"/>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
+    <row r="47" spans="1:25" ht="13.5" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
@@ -3723,7 +3780,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="6"/>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
+    <row r="48" spans="1:25" ht="13.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
@@ -3750,7 +3807,7 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="6"/>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
+    <row r="49" spans="1:25" ht="13.5" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
@@ -3777,7 +3834,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
+    <row r="50" spans="1:25" ht="13.5" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -3804,7 +3861,7 @@
       <c r="X50" s="7"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
+    <row r="51" spans="1:25" ht="13.5" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
@@ -3831,7 +3888,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="6"/>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
+    <row r="52" spans="1:25" ht="13.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
@@ -3858,7 +3915,7 @@
       <c r="X52" s="7"/>
       <c r="Y52" s="6"/>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
+    <row r="53" spans="1:25" ht="13.5" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
@@ -3885,7 +3942,7 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="6"/>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
+    <row r="54" spans="1:25" ht="13.5" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
@@ -3912,7 +3969,7 @@
       <c r="X54" s="7"/>
       <c r="Y54" s="6"/>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
+    <row r="55" spans="1:25" ht="13.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
@@ -3939,7 +3996,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="6"/>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
+    <row r="56" spans="1:25" ht="13.5" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
@@ -3966,7 +4023,7 @@
       <c r="X56" s="7"/>
       <c r="Y56" s="6"/>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
+    <row r="57" spans="1:25" ht="13.5" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
@@ -3993,7 +4050,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="6"/>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
+    <row r="58" spans="1:25" ht="13.5" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
@@ -4020,7 +4077,7 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="6"/>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
+    <row r="59" spans="1:25" ht="13.5" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
@@ -4047,7 +4104,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="6"/>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
+    <row r="60" spans="1:25" ht="13.5" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
@@ -4074,7 +4131,7 @@
       <c r="X60" s="7"/>
       <c r="Y60" s="6"/>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
+    <row r="61" spans="1:25" ht="13.5" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
@@ -4101,7 +4158,7 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="6"/>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
+    <row r="62" spans="1:25" ht="13.5" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
@@ -4128,7 +4185,7 @@
       <c r="X62" s="7"/>
       <c r="Y62" s="6"/>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
+    <row r="63" spans="1:25" ht="13.5" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
@@ -4155,7 +4212,7 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="6"/>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
+    <row r="64" spans="1:25" ht="13.5" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4182,7 +4239,7 @@
       <c r="X64" s="7"/>
       <c r="Y64" s="6"/>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
+    <row r="65" spans="1:25" ht="13.5" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4209,7 +4266,7 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="6"/>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
+    <row r="66" spans="1:25" ht="13.5" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4236,7 +4293,7 @@
       <c r="X66" s="7"/>
       <c r="Y66" s="6"/>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
+    <row r="67" spans="1:25" ht="13.5" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
@@ -4263,7 +4320,7 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="6"/>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
+    <row r="68" spans="1:25" ht="13.5" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
@@ -4290,7 +4347,7 @@
       <c r="X68" s="7"/>
       <c r="Y68" s="6"/>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
+    <row r="69" spans="1:25" ht="13.5" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -4317,7 +4374,7 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="6"/>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
+    <row r="70" spans="1:25" ht="13.5" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -4344,7 +4401,7 @@
       <c r="X70" s="7"/>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
+    <row r="71" spans="1:25" ht="13.5" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -4371,7 +4428,7 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="6"/>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
+    <row r="72" spans="1:25" ht="13.5" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -4398,7 +4455,7 @@
       <c r="X72" s="7"/>
       <c r="Y72" s="6"/>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
+    <row r="73" spans="1:25" ht="13.5" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -4425,7 +4482,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
+    <row r="74" spans="1:25" ht="13.5" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -4452,7 +4509,7 @@
       <c r="X74" s="7"/>
       <c r="Y74" s="6"/>
     </row>
-    <row r="75" ht="13.55" customHeight="1">
+    <row r="75" spans="1:25" ht="13.5" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -4479,7 +4536,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
+    <row r="76" spans="1:25" ht="13.5" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -4506,7 +4563,7 @@
       <c r="X76" s="7"/>
       <c r="Y76" s="6"/>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
+    <row r="77" spans="1:25" ht="13.5" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
@@ -4533,7 +4590,7 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="6"/>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
+    <row r="78" spans="1:25" ht="13.5" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
@@ -4560,7 +4617,7 @@
       <c r="X78" s="7"/>
       <c r="Y78" s="6"/>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
+    <row r="79" spans="1:25" ht="13.5" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
@@ -4587,7 +4644,7 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
+    <row r="80" spans="1:25" ht="13.5" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
@@ -4614,7 +4671,7 @@
       <c r="X80" s="7"/>
       <c r="Y80" s="6"/>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
+    <row r="81" spans="1:25" ht="13.5" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
@@ -4641,7 +4698,7 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="6"/>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
+    <row r="82" spans="1:25" ht="13.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
@@ -4668,7 +4725,7 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="6"/>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
+    <row r="83" spans="1:25" ht="13.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -4695,7 +4752,7 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
+    <row r="84" spans="1:25" ht="13.5" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
@@ -4722,7 +4779,7 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="6"/>
     </row>
-    <row r="85" ht="13.55" customHeight="1">
+    <row r="85" spans="1:25" ht="13.5" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -4749,7 +4806,7 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="6"/>
     </row>
-    <row r="86" ht="13.55" customHeight="1">
+    <row r="86" spans="1:25" ht="13.5" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
@@ -4776,7 +4833,7 @@
       <c r="X86" s="7"/>
       <c r="Y86" s="6"/>
     </row>
-    <row r="87" ht="13.55" customHeight="1">
+    <row r="87" spans="1:25" ht="13.5" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
@@ -4803,7 +4860,7 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88" ht="13.55" customHeight="1">
+    <row r="88" spans="1:25" ht="13.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4830,7 +4887,7 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="6"/>
     </row>
-    <row r="89" ht="13.55" customHeight="1">
+    <row r="89" spans="1:25" ht="13.5" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
@@ -4857,7 +4914,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="6"/>
     </row>
-    <row r="90" ht="13.55" customHeight="1">
+    <row r="90" spans="1:25" ht="13.5" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
@@ -4884,7 +4941,7 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="6"/>
     </row>
-    <row r="91" ht="13.55" customHeight="1">
+    <row r="91" spans="1:25" ht="13.5" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
@@ -4911,7 +4968,7 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="6"/>
     </row>
-    <row r="92" ht="13.55" customHeight="1">
+    <row r="92" spans="1:25" ht="13.5" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
@@ -4938,7 +4995,7 @@
       <c r="X92" s="7"/>
       <c r="Y92" s="6"/>
     </row>
-    <row r="93" ht="13.55" customHeight="1">
+    <row r="93" spans="1:25" ht="13.5" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
@@ -4965,7 +5022,7 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94" ht="13.55" customHeight="1">
+    <row r="94" spans="1:25" ht="13.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
@@ -4992,7 +5049,7 @@
       <c r="X94" s="7"/>
       <c r="Y94" s="6"/>
     </row>
-    <row r="95" ht="13.55" customHeight="1">
+    <row r="95" spans="1:25" ht="13.5" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -5019,7 +5076,7 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="6"/>
     </row>
-    <row r="96" ht="13.55" customHeight="1">
+    <row r="96" spans="1:25" ht="13.5" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
@@ -5046,7 +5103,7 @@
       <c r="X96" s="7"/>
       <c r="Y96" s="6"/>
     </row>
-    <row r="97" ht="13.55" customHeight="1">
+    <row r="97" spans="1:25" ht="13.5" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
@@ -5073,7 +5130,7 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98" ht="13.55" customHeight="1">
+    <row r="98" spans="1:25" ht="13.5" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
@@ -5100,7 +5157,7 @@
       <c r="X98" s="7"/>
       <c r="Y98" s="6"/>
     </row>
-    <row r="99" ht="13.55" customHeight="1">
+    <row r="99" spans="1:25" ht="13.5" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
@@ -5127,7 +5184,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="6"/>
     </row>
-    <row r="100" ht="13.55" customHeight="1">
+    <row r="100" spans="1:25" ht="13.5" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
@@ -5154,7 +5211,7 @@
       <c r="X100" s="7"/>
       <c r="Y100" s="6"/>
     </row>
-    <row r="101" ht="13.55" customHeight="1">
+    <row r="101" spans="1:25" ht="13.5" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
@@ -5181,7 +5238,7 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="6"/>
     </row>
-    <row r="102" ht="13.55" customHeight="1">
+    <row r="102" spans="1:25" ht="13.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
@@ -5208,7 +5265,7 @@
       <c r="X102" s="7"/>
       <c r="Y102" s="6"/>
     </row>
-    <row r="103" ht="13.55" customHeight="1">
+    <row r="103" spans="1:25" ht="13.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
@@ -5235,7 +5292,7 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" ht="13.55" customHeight="1">
+    <row r="104" spans="1:25" ht="13.5" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -5262,7 +5319,7 @@
       <c r="X104" s="7"/>
       <c r="Y104" s="6"/>
     </row>
-    <row r="105" ht="13.55" customHeight="1">
+    <row r="105" spans="1:25" ht="13.5" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
@@ -5289,7 +5346,7 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="6"/>
     </row>
-    <row r="106" ht="13.55" customHeight="1">
+    <row r="106" spans="1:25" ht="13.5" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
@@ -5316,7 +5373,7 @@
       <c r="X106" s="7"/>
       <c r="Y106" s="6"/>
     </row>
-    <row r="107" ht="13.55" customHeight="1">
+    <row r="107" spans="1:25" ht="13.5" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
@@ -5343,7 +5400,7 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="6"/>
     </row>
-    <row r="108" ht="13.55" customHeight="1">
+    <row r="108" spans="1:25" ht="13.5" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
@@ -5370,7 +5427,7 @@
       <c r="X108" s="7"/>
       <c r="Y108" s="6"/>
     </row>
-    <row r="109" ht="13.55" customHeight="1">
+    <row r="109" spans="1:25" ht="13.5" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
@@ -5397,7 +5454,7 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="6"/>
     </row>
-    <row r="110" ht="13.55" customHeight="1">
+    <row r="110" spans="1:25" ht="13.5" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
@@ -5424,7 +5481,7 @@
       <c r="X110" s="7"/>
       <c r="Y110" s="6"/>
     </row>
-    <row r="111" ht="13.55" customHeight="1">
+    <row r="111" spans="1:25" ht="13.5" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -5451,7 +5508,7 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="6"/>
     </row>
-    <row r="112" ht="13.55" customHeight="1">
+    <row r="112" spans="1:25" ht="13.5" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -5478,7 +5535,7 @@
       <c r="X112" s="7"/>
       <c r="Y112" s="6"/>
     </row>
-    <row r="113" ht="13.55" customHeight="1">
+    <row r="113" spans="1:25" ht="13.5" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
@@ -5505,7 +5562,7 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="6"/>
     </row>
-    <row r="114" ht="13.55" customHeight="1">
+    <row r="114" spans="1:25" ht="13.5" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
@@ -5532,7 +5589,7 @@
       <c r="X114" s="7"/>
       <c r="Y114" s="6"/>
     </row>
-    <row r="115" ht="13.55" customHeight="1">
+    <row r="115" spans="1:25" ht="13.5" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
@@ -5559,7 +5616,7 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="6"/>
     </row>
-    <row r="116" ht="13.55" customHeight="1">
+    <row r="116" spans="1:25" ht="13.5" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
@@ -5586,7 +5643,7 @@
       <c r="X116" s="7"/>
       <c r="Y116" s="6"/>
     </row>
-    <row r="117" ht="13.55" customHeight="1">
+    <row r="117" spans="1:25" ht="13.5" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -5613,7 +5670,7 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="6"/>
     </row>
-    <row r="118" ht="13.55" customHeight="1">
+    <row r="118" spans="1:25" ht="13.5" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
@@ -5640,7 +5697,7 @@
       <c r="X118" s="7"/>
       <c r="Y118" s="6"/>
     </row>
-    <row r="119" ht="13.55" customHeight="1">
+    <row r="119" spans="1:25" ht="13.5" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -5667,7 +5724,7 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="6"/>
     </row>
-    <row r="120" ht="13.55" customHeight="1">
+    <row r="120" spans="1:25" ht="13.5" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
@@ -5694,7 +5751,7 @@
       <c r="X120" s="7"/>
       <c r="Y120" s="6"/>
     </row>
-    <row r="121" ht="13.55" customHeight="1">
+    <row r="121" spans="1:25" ht="13.5" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
@@ -5721,7 +5778,7 @@
       <c r="X121" s="7"/>
       <c r="Y121" s="6"/>
     </row>
-    <row r="122" ht="13.55" customHeight="1">
+    <row r="122" spans="1:25" ht="13.5" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
@@ -5748,7 +5805,7 @@
       <c r="X122" s="7"/>
       <c r="Y122" s="6"/>
     </row>
-    <row r="123" ht="13.55" customHeight="1">
+    <row r="123" spans="1:25" ht="13.5" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
@@ -5775,7 +5832,7 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="6"/>
     </row>
-    <row r="124" ht="13.55" customHeight="1">
+    <row r="124" spans="1:25" ht="13.5" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -5802,7 +5859,7 @@
       <c r="X124" s="7"/>
       <c r="Y124" s="6"/>
     </row>
-    <row r="125" ht="13.55" customHeight="1">
+    <row r="125" spans="1:25" ht="13.5" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
@@ -5829,7 +5886,7 @@
       <c r="X125" s="7"/>
       <c r="Y125" s="6"/>
     </row>
-    <row r="126" ht="13.55" customHeight="1">
+    <row r="126" spans="1:25" ht="13.5" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
@@ -5856,7 +5913,7 @@
       <c r="X126" s="7"/>
       <c r="Y126" s="6"/>
     </row>
-    <row r="127" ht="13.55" customHeight="1">
+    <row r="127" spans="1:25" ht="13.5" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
@@ -5883,7 +5940,7 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="6"/>
     </row>
-    <row r="128" ht="13.55" customHeight="1">
+    <row r="128" spans="1:25" ht="13.5" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
@@ -5910,7 +5967,7 @@
       <c r="X128" s="7"/>
       <c r="Y128" s="6"/>
     </row>
-    <row r="129" ht="13.55" customHeight="1">
+    <row r="129" spans="1:25" ht="13.5" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
@@ -5937,7 +5994,7 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="6"/>
     </row>
-    <row r="130" ht="13.55" customHeight="1">
+    <row r="130" spans="1:25" ht="13.5" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
@@ -5964,7 +6021,7 @@
       <c r="X130" s="7"/>
       <c r="Y130" s="6"/>
     </row>
-    <row r="131" ht="13.55" customHeight="1">
+    <row r="131" spans="1:25" ht="13.5" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -5991,7 +6048,7 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="6"/>
     </row>
-    <row r="132" ht="13.55" customHeight="1">
+    <row r="132" spans="1:25" ht="13.5" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
@@ -6018,7 +6075,7 @@
       <c r="X132" s="7"/>
       <c r="Y132" s="6"/>
     </row>
-    <row r="133" ht="13.55" customHeight="1">
+    <row r="133" spans="1:25" ht="13.5" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
@@ -6045,7 +6102,7 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="6"/>
     </row>
-    <row r="134" ht="13.55" customHeight="1">
+    <row r="134" spans="1:25" ht="13.5" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
@@ -6072,7 +6129,7 @@
       <c r="X134" s="7"/>
       <c r="Y134" s="6"/>
     </row>
-    <row r="135" ht="13.55" customHeight="1">
+    <row r="135" spans="1:25" ht="13.5" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
@@ -6099,7 +6156,7 @@
       <c r="X135" s="7"/>
       <c r="Y135" s="6"/>
     </row>
-    <row r="136" ht="13.55" customHeight="1">
+    <row r="136" spans="1:25" ht="13.5" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -6126,7 +6183,7 @@
       <c r="X136" s="7"/>
       <c r="Y136" s="6"/>
     </row>
-    <row r="137" ht="13.55" customHeight="1">
+    <row r="137" spans="1:25" ht="13.5" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -6153,7 +6210,7 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="6"/>
     </row>
-    <row r="138" ht="13.55" customHeight="1">
+    <row r="138" spans="1:25" ht="13.5" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
@@ -6180,7 +6237,7 @@
       <c r="X138" s="7"/>
       <c r="Y138" s="6"/>
     </row>
-    <row r="139" ht="13.55" customHeight="1">
+    <row r="139" spans="1:25" ht="13.5" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
@@ -6207,7 +6264,7 @@
       <c r="X139" s="7"/>
       <c r="Y139" s="6"/>
     </row>
-    <row r="140" ht="13.55" customHeight="1">
+    <row r="140" spans="1:25" ht="13.5" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
@@ -6234,7 +6291,7 @@
       <c r="X140" s="7"/>
       <c r="Y140" s="6"/>
     </row>
-    <row r="141" ht="13.55" customHeight="1">
+    <row r="141" spans="1:25" ht="13.5" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
@@ -6261,7 +6318,7 @@
       <c r="X141" s="7"/>
       <c r="Y141" s="6"/>
     </row>
-    <row r="142" ht="13.55" customHeight="1">
+    <row r="142" spans="1:25" ht="13.5" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
@@ -6288,7 +6345,7 @@
       <c r="X142" s="7"/>
       <c r="Y142" s="6"/>
     </row>
-    <row r="143" ht="13.55" customHeight="1">
+    <row r="143" spans="1:25" ht="13.5" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
@@ -6315,7 +6372,7 @@
       <c r="X143" s="7"/>
       <c r="Y143" s="6"/>
     </row>
-    <row r="144" ht="13.55" customHeight="1">
+    <row r="144" spans="1:25" ht="13.5" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
@@ -6342,7 +6399,7 @@
       <c r="X144" s="7"/>
       <c r="Y144" s="6"/>
     </row>
-    <row r="145" ht="13.55" customHeight="1">
+    <row r="145" spans="1:25" ht="13.5" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
@@ -6369,7 +6426,7 @@
       <c r="X145" s="7"/>
       <c r="Y145" s="6"/>
     </row>
-    <row r="146" ht="13.55" customHeight="1">
+    <row r="146" spans="1:25" ht="13.5" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
@@ -6396,7 +6453,7 @@
       <c r="X146" s="7"/>
       <c r="Y146" s="6"/>
     </row>
-    <row r="147" ht="13.55" customHeight="1">
+    <row r="147" spans="1:25" ht="13.5" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
@@ -6423,7 +6480,7 @@
       <c r="X147" s="7"/>
       <c r="Y147" s="6"/>
     </row>
-    <row r="148" ht="13.55" customHeight="1">
+    <row r="148" spans="1:25" ht="13.5" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
@@ -6450,7 +6507,7 @@
       <c r="X148" s="7"/>
       <c r="Y148" s="6"/>
     </row>
-    <row r="149" ht="13.55" customHeight="1">
+    <row r="149" spans="1:25" ht="13.5" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
@@ -6477,7 +6534,7 @@
       <c r="X149" s="7"/>
       <c r="Y149" s="6"/>
     </row>
-    <row r="150" ht="13.55" customHeight="1">
+    <row r="150" spans="1:25" ht="13.5" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -6504,7 +6561,7 @@
       <c r="X150" s="7"/>
       <c r="Y150" s="6"/>
     </row>
-    <row r="151" ht="13.55" customHeight="1">
+    <row r="151" spans="1:25" ht="13.5" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -6531,7 +6588,7 @@
       <c r="X151" s="7"/>
       <c r="Y151" s="6"/>
     </row>
-    <row r="152" ht="13.55" customHeight="1">
+    <row r="152" spans="1:25" ht="13.5" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -6558,7 +6615,7 @@
       <c r="X152" s="7"/>
       <c r="Y152" s="6"/>
     </row>
-    <row r="153" ht="13.55" customHeight="1">
+    <row r="153" spans="1:25" ht="13.5" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
@@ -6585,7 +6642,7 @@
       <c r="X153" s="7"/>
       <c r="Y153" s="6"/>
     </row>
-    <row r="154" ht="13.55" customHeight="1">
+    <row r="154" spans="1:25" ht="13.5" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
@@ -6612,7 +6669,7 @@
       <c r="X154" s="7"/>
       <c r="Y154" s="6"/>
     </row>
-    <row r="155" ht="13.55" customHeight="1">
+    <row r="155" spans="1:25" ht="13.5" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
@@ -6639,7 +6696,7 @@
       <c r="X155" s="7"/>
       <c r="Y155" s="6"/>
     </row>
-    <row r="156" ht="13.55" customHeight="1">
+    <row r="156" spans="1:25" ht="13.5" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
@@ -6666,7 +6723,7 @@
       <c r="X156" s="7"/>
       <c r="Y156" s="6"/>
     </row>
-    <row r="157" ht="13.55" customHeight="1">
+    <row r="157" spans="1:25" ht="13.5" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
@@ -6693,7 +6750,7 @@
       <c r="X157" s="7"/>
       <c r="Y157" s="6"/>
     </row>
-    <row r="158" ht="13.55" customHeight="1">
+    <row r="158" spans="1:25" ht="13.5" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
@@ -6720,7 +6777,7 @@
       <c r="X158" s="7"/>
       <c r="Y158" s="6"/>
     </row>
-    <row r="159" ht="13.55" customHeight="1">
+    <row r="159" spans="1:25" ht="13.5" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
@@ -6747,7 +6804,7 @@
       <c r="X159" s="7"/>
       <c r="Y159" s="6"/>
     </row>
-    <row r="160" ht="13.55" customHeight="1">
+    <row r="160" spans="1:25" ht="13.5" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
@@ -6774,7 +6831,7 @@
       <c r="X160" s="7"/>
       <c r="Y160" s="6"/>
     </row>
-    <row r="161" ht="13.55" customHeight="1">
+    <row r="161" spans="1:25" ht="13.5" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
@@ -6801,7 +6858,7 @@
       <c r="X161" s="7"/>
       <c r="Y161" s="6"/>
     </row>
-    <row r="162" ht="13.55" customHeight="1">
+    <row r="162" spans="1:25" ht="13.5" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -6828,7 +6885,7 @@
       <c r="X162" s="7"/>
       <c r="Y162" s="6"/>
     </row>
-    <row r="163" ht="13.55" customHeight="1">
+    <row r="163" spans="1:25" ht="13.5" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -6855,7 +6912,7 @@
       <c r="X163" s="7"/>
       <c r="Y163" s="6"/>
     </row>
-    <row r="164" ht="13.55" customHeight="1">
+    <row r="164" spans="1:25" ht="13.5" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -6882,7 +6939,7 @@
       <c r="X164" s="7"/>
       <c r="Y164" s="6"/>
     </row>
-    <row r="165" ht="13.55" customHeight="1">
+    <row r="165" spans="1:25" ht="13.5" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
@@ -6909,7 +6966,7 @@
       <c r="X165" s="7"/>
       <c r="Y165" s="6"/>
     </row>
-    <row r="166" ht="13.55" customHeight="1">
+    <row r="166" spans="1:25" ht="13.5" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
@@ -6936,7 +6993,7 @@
       <c r="X166" s="7"/>
       <c r="Y166" s="6"/>
     </row>
-    <row r="167" ht="13.55" customHeight="1">
+    <row r="167" spans="1:25" ht="13.5" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
@@ -6963,7 +7020,7 @@
       <c r="X167" s="7"/>
       <c r="Y167" s="6"/>
     </row>
-    <row r="168" ht="13.55" customHeight="1">
+    <row r="168" spans="1:25" ht="13.5" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
@@ -6990,7 +7047,7 @@
       <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
     </row>
-    <row r="169" ht="13.55" customHeight="1">
+    <row r="169" spans="1:25" ht="13.5" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -7017,7 +7074,7 @@
       <c r="X169" s="7"/>
       <c r="Y169" s="6"/>
     </row>
-    <row r="170" ht="13.55" customHeight="1">
+    <row r="170" spans="1:25" ht="13.5" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -7044,7 +7101,7 @@
       <c r="X170" s="7"/>
       <c r="Y170" s="6"/>
     </row>
-    <row r="171" ht="13.55" customHeight="1">
+    <row r="171" spans="1:25" ht="13.5" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -7071,7 +7128,7 @@
       <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
     </row>
-    <row r="172" ht="13.55" customHeight="1">
+    <row r="172" spans="1:25" ht="13.5" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -7098,7 +7155,7 @@
       <c r="X172" s="7"/>
       <c r="Y172" s="6"/>
     </row>
-    <row r="173" ht="13.55" customHeight="1">
+    <row r="173" spans="1:25" ht="13.5" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -7125,7 +7182,7 @@
       <c r="X173" s="7"/>
       <c r="Y173" s="6"/>
     </row>
-    <row r="174" ht="13.55" customHeight="1">
+    <row r="174" spans="1:25" ht="13.5" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -7152,7 +7209,7 @@
       <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
     </row>
-    <row r="175" ht="13.55" customHeight="1">
+    <row r="175" spans="1:25" ht="13.5" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7179,7 +7236,7 @@
       <c r="X175" s="7"/>
       <c r="Y175" s="6"/>
     </row>
-    <row r="176" ht="13.55" customHeight="1">
+    <row r="176" spans="1:25" ht="13.5" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7206,7 +7263,7 @@
       <c r="X176" s="7"/>
       <c r="Y176" s="6"/>
     </row>
-    <row r="177" ht="13.55" customHeight="1">
+    <row r="177" spans="1:25" ht="13.5" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7233,7 +7290,7 @@
       <c r="X177" s="7"/>
       <c r="Y177" s="6"/>
     </row>
-    <row r="178" ht="13.55" customHeight="1">
+    <row r="178" spans="1:25" ht="13.5" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7260,7 +7317,7 @@
       <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
     </row>
-    <row r="179" ht="13.55" customHeight="1">
+    <row r="179" spans="1:25" ht="13.5" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7287,7 +7344,7 @@
       <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
     </row>
-    <row r="180" ht="13.55" customHeight="1">
+    <row r="180" spans="1:25" ht="13.5" customHeight="1">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
@@ -7314,7 +7371,7 @@
       <c r="X180" s="7"/>
       <c r="Y180" s="6"/>
     </row>
-    <row r="181" ht="13.55" customHeight="1">
+    <row r="181" spans="1:25" ht="13.5" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
@@ -7341,7 +7398,7 @@
       <c r="X181" s="7"/>
       <c r="Y181" s="6"/>
     </row>
-    <row r="182" ht="13.55" customHeight="1">
+    <row r="182" spans="1:25" ht="13.5" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7368,7 +7425,7 @@
       <c r="X182" s="7"/>
       <c r="Y182" s="6"/>
     </row>
-    <row r="183" ht="13.55" customHeight="1">
+    <row r="183" spans="1:25" ht="13.5" customHeight="1">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7395,7 +7452,7 @@
       <c r="X183" s="7"/>
       <c r="Y183" s="6"/>
     </row>
-    <row r="184" ht="13.55" customHeight="1">
+    <row r="184" spans="1:25" ht="13.5" customHeight="1">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -7422,7 +7479,7 @@
       <c r="X184" s="7"/>
       <c r="Y184" s="6"/>
     </row>
-    <row r="185" ht="13.55" customHeight="1">
+    <row r="185" spans="1:25" ht="13.5" customHeight="1">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -7449,7 +7506,7 @@
       <c r="X185" s="7"/>
       <c r="Y185" s="6"/>
     </row>
-    <row r="186" ht="13.55" customHeight="1">
+    <row r="186" spans="1:25" ht="13.5" customHeight="1">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
@@ -7476,7 +7533,7 @@
       <c r="X186" s="7"/>
       <c r="Y186" s="6"/>
     </row>
-    <row r="187" ht="13.55" customHeight="1">
+    <row r="187" spans="1:25" ht="13.5" customHeight="1">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -7503,7 +7560,7 @@
       <c r="X187" s="7"/>
       <c r="Y187" s="6"/>
     </row>
-    <row r="188" ht="13.55" customHeight="1">
+    <row r="188" spans="1:25" ht="13.5" customHeight="1">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -7530,7 +7587,7 @@
       <c r="X188" s="7"/>
       <c r="Y188" s="6"/>
     </row>
-    <row r="189" ht="13.55" customHeight="1">
+    <row r="189" spans="1:25" ht="13.5" customHeight="1">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
@@ -7557,7 +7614,7 @@
       <c r="X189" s="7"/>
       <c r="Y189" s="6"/>
     </row>
-    <row r="190" ht="13.55" customHeight="1">
+    <row r="190" spans="1:25" ht="13.5" customHeight="1">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -7584,7 +7641,7 @@
       <c r="X190" s="7"/>
       <c r="Y190" s="6"/>
     </row>
-    <row r="191" ht="13.55" customHeight="1">
+    <row r="191" spans="1:25" ht="13.5" customHeight="1">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -7611,7 +7668,7 @@
       <c r="X191" s="7"/>
       <c r="Y191" s="6"/>
     </row>
-    <row r="192" ht="13.55" customHeight="1">
+    <row r="192" spans="1:25" ht="13.5" customHeight="1">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
@@ -7638,7 +7695,7 @@
       <c r="X192" s="7"/>
       <c r="Y192" s="6"/>
     </row>
-    <row r="193" ht="13.55" customHeight="1">
+    <row r="193" spans="1:25" ht="13.5" customHeight="1">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
@@ -7665,7 +7722,7 @@
       <c r="X193" s="7"/>
       <c r="Y193" s="6"/>
     </row>
-    <row r="194" ht="13.55" customHeight="1">
+    <row r="194" spans="1:25" ht="13.5" customHeight="1">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
@@ -7692,7 +7749,7 @@
       <c r="X194" s="7"/>
       <c r="Y194" s="6"/>
     </row>
-    <row r="195" ht="13.55" customHeight="1">
+    <row r="195" spans="1:25" ht="13.5" customHeight="1">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -7719,7 +7776,7 @@
       <c r="X195" s="7"/>
       <c r="Y195" s="6"/>
     </row>
-    <row r="196" ht="13.55" customHeight="1">
+    <row r="196" spans="1:25" ht="13.5" customHeight="1">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
@@ -7746,7 +7803,7 @@
       <c r="X196" s="7"/>
       <c r="Y196" s="6"/>
     </row>
-    <row r="197" ht="13.55" customHeight="1">
+    <row r="197" spans="1:25" ht="13.5" customHeight="1">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
@@ -7773,7 +7830,7 @@
       <c r="X197" s="7"/>
       <c r="Y197" s="6"/>
     </row>
-    <row r="198" ht="13.55" customHeight="1">
+    <row r="198" spans="1:25" ht="13.5" customHeight="1">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
@@ -7800,7 +7857,7 @@
       <c r="X198" s="7"/>
       <c r="Y198" s="6"/>
     </row>
-    <row r="199" ht="13.55" customHeight="1">
+    <row r="199" spans="1:25" ht="13.5" customHeight="1">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
@@ -7827,7 +7884,7 @@
       <c r="X199" s="7"/>
       <c r="Y199" s="6"/>
     </row>
-    <row r="200" ht="13.55" customHeight="1">
+    <row r="200" spans="1:25" ht="13.5" customHeight="1">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -7854,7 +7911,7 @@
       <c r="X200" s="7"/>
       <c r="Y200" s="6"/>
     </row>
-    <row r="201" ht="13.55" customHeight="1">
+    <row r="201" spans="1:25" ht="13.5" customHeight="1">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="8"/>
@@ -7881,7 +7938,7 @@
       <c r="X201" s="7"/>
       <c r="Y201" s="6"/>
     </row>
-    <row r="202" ht="13.55" customHeight="1">
+    <row r="202" spans="1:25" ht="13.5" customHeight="1">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -7908,7 +7965,7 @@
       <c r="X202" s="7"/>
       <c r="Y202" s="6"/>
     </row>
-    <row r="203" ht="13.55" customHeight="1">
+    <row r="203" spans="1:25" ht="13.5" customHeight="1">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="8"/>
@@ -7935,7 +7992,7 @@
       <c r="X203" s="7"/>
       <c r="Y203" s="6"/>
     </row>
-    <row r="204" ht="13.55" customHeight="1">
+    <row r="204" spans="1:25" ht="13.5" customHeight="1">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="8"/>
@@ -7962,7 +8019,7 @@
       <c r="X204" s="7"/>
       <c r="Y204" s="6"/>
     </row>
-    <row r="205" ht="13.55" customHeight="1">
+    <row r="205" spans="1:25" ht="13.5" customHeight="1">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="8"/>
@@ -7989,7 +8046,7 @@
       <c r="X205" s="7"/>
       <c r="Y205" s="6"/>
     </row>
-    <row r="206" ht="13.55" customHeight="1">
+    <row r="206" spans="1:25" ht="13.5" customHeight="1">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -8016,7 +8073,7 @@
       <c r="X206" s="7"/>
       <c r="Y206" s="6"/>
     </row>
-    <row r="207" ht="13.55" customHeight="1">
+    <row r="207" spans="1:25" ht="13.5" customHeight="1">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -8043,7 +8100,7 @@
       <c r="X207" s="7"/>
       <c r="Y207" s="6"/>
     </row>
-    <row r="208" ht="13.55" customHeight="1">
+    <row r="208" spans="1:25" ht="13.5" customHeight="1">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="8"/>
@@ -8070,7 +8127,7 @@
       <c r="X208" s="7"/>
       <c r="Y208" s="6"/>
     </row>
-    <row r="209" ht="13.55" customHeight="1">
+    <row r="209" spans="1:25" ht="13.5" customHeight="1">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="8"/>
@@ -8097,7 +8154,7 @@
       <c r="X209" s="7"/>
       <c r="Y209" s="6"/>
     </row>
-    <row r="210" ht="13.55" customHeight="1">
+    <row r="210" spans="1:25" ht="13.5" customHeight="1">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="8"/>
@@ -8124,7 +8181,7 @@
       <c r="X210" s="7"/>
       <c r="Y210" s="6"/>
     </row>
-    <row r="211" ht="13.55" customHeight="1">
+    <row r="211" spans="1:25" ht="13.5" customHeight="1">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -8151,7 +8208,7 @@
       <c r="X211" s="7"/>
       <c r="Y211" s="6"/>
     </row>
-    <row r="212" ht="13.55" customHeight="1">
+    <row r="212" spans="1:25" ht="13.5" customHeight="1">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
@@ -8178,7 +8235,7 @@
       <c r="X212" s="7"/>
       <c r="Y212" s="6"/>
     </row>
-    <row r="213" ht="13.55" customHeight="1">
+    <row r="213" spans="1:25" ht="13.5" customHeight="1">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
@@ -8205,7 +8262,7 @@
       <c r="X213" s="7"/>
       <c r="Y213" s="6"/>
     </row>
-    <row r="214" ht="13.55" customHeight="1">
+    <row r="214" spans="1:25" ht="13.5" customHeight="1">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="8"/>
@@ -8232,7 +8289,7 @@
       <c r="X214" s="7"/>
       <c r="Y214" s="6"/>
     </row>
-    <row r="215" ht="13.55" customHeight="1">
+    <row r="215" spans="1:25" ht="13.5" customHeight="1">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="8"/>
@@ -8259,7 +8316,7 @@
       <c r="X215" s="7"/>
       <c r="Y215" s="6"/>
     </row>
-    <row r="216" ht="13.55" customHeight="1">
+    <row r="216" spans="1:25" ht="13.5" customHeight="1">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="8"/>
@@ -8286,7 +8343,7 @@
       <c r="X216" s="7"/>
       <c r="Y216" s="6"/>
     </row>
-    <row r="217" ht="13.55" customHeight="1">
+    <row r="217" spans="1:25" ht="13.5" customHeight="1">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="8"/>
@@ -8313,7 +8370,7 @@
       <c r="X217" s="7"/>
       <c r="Y217" s="6"/>
     </row>
-    <row r="218" ht="13.55" customHeight="1">
+    <row r="218" spans="1:25" ht="13.5" customHeight="1">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -8340,7 +8397,7 @@
       <c r="X218" s="7"/>
       <c r="Y218" s="6"/>
     </row>
-    <row r="219" ht="13.55" customHeight="1">
+    <row r="219" spans="1:25" ht="13.5" customHeight="1">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="8"/>
@@ -8367,7 +8424,7 @@
       <c r="X219" s="7"/>
       <c r="Y219" s="6"/>
     </row>
-    <row r="220" ht="13.55" customHeight="1">
+    <row r="220" spans="1:25" ht="13.5" customHeight="1">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="8"/>
@@ -8394,7 +8451,7 @@
       <c r="X220" s="7"/>
       <c r="Y220" s="6"/>
     </row>
-    <row r="221" ht="13.55" customHeight="1">
+    <row r="221" spans="1:25" ht="13.5" customHeight="1">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="8"/>
@@ -8421,7 +8478,7 @@
       <c r="X221" s="7"/>
       <c r="Y221" s="6"/>
     </row>
-    <row r="222" ht="13.55" customHeight="1">
+    <row r="222" spans="1:25" ht="13.5" customHeight="1">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="8"/>
@@ -8448,7 +8505,7 @@
       <c r="X222" s="7"/>
       <c r="Y222" s="6"/>
     </row>
-    <row r="223" ht="13.55" customHeight="1">
+    <row r="223" spans="1:25" ht="13.5" customHeight="1">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="8"/>
@@ -8475,7 +8532,7 @@
       <c r="X223" s="7"/>
       <c r="Y223" s="6"/>
     </row>
-    <row r="224" ht="13.55" customHeight="1">
+    <row r="224" spans="1:25" ht="13.5" customHeight="1">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="8"/>
@@ -8502,7 +8559,7 @@
       <c r="X224" s="7"/>
       <c r="Y224" s="6"/>
     </row>
-    <row r="225" ht="13.55" customHeight="1">
+    <row r="225" spans="1:25" ht="13.5" customHeight="1">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="8"/>
@@ -8529,7 +8586,7 @@
       <c r="X225" s="7"/>
       <c r="Y225" s="6"/>
     </row>
-    <row r="226" ht="13.55" customHeight="1">
+    <row r="226" spans="1:25" ht="13.5" customHeight="1">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="8"/>
@@ -8556,7 +8613,7 @@
       <c r="X226" s="7"/>
       <c r="Y226" s="6"/>
     </row>
-    <row r="227" ht="13.55" customHeight="1">
+    <row r="227" spans="1:25" ht="13.5" customHeight="1">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="8"/>
@@ -8583,7 +8640,7 @@
       <c r="X227" s="7"/>
       <c r="Y227" s="6"/>
     </row>
-    <row r="228" ht="13.55" customHeight="1">
+    <row r="228" spans="1:25" ht="13.5" customHeight="1">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="8"/>
@@ -8610,7 +8667,7 @@
       <c r="X228" s="7"/>
       <c r="Y228" s="6"/>
     </row>
-    <row r="229" ht="13.55" customHeight="1">
+    <row r="229" spans="1:25" ht="13.5" customHeight="1">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="8"/>
@@ -8637,7 +8694,7 @@
       <c r="X229" s="7"/>
       <c r="Y229" s="6"/>
     </row>
-    <row r="230" ht="13.55" customHeight="1">
+    <row r="230" spans="1:25" ht="13.5" customHeight="1">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="8"/>
@@ -8664,7 +8721,7 @@
       <c r="X230" s="7"/>
       <c r="Y230" s="6"/>
     </row>
-    <row r="231" ht="13.55" customHeight="1">
+    <row r="231" spans="1:25" ht="13.5" customHeight="1">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="8"/>
@@ -8691,7 +8748,7 @@
       <c r="X231" s="7"/>
       <c r="Y231" s="6"/>
     </row>
-    <row r="232" ht="13.55" customHeight="1">
+    <row r="232" spans="1:25" ht="13.5" customHeight="1">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="8"/>
@@ -8718,7 +8775,7 @@
       <c r="X232" s="7"/>
       <c r="Y232" s="6"/>
     </row>
-    <row r="233" ht="13.55" customHeight="1">
+    <row r="233" spans="1:25" ht="13.5" customHeight="1">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="8"/>
@@ -8745,7 +8802,7 @@
       <c r="X233" s="7"/>
       <c r="Y233" s="6"/>
     </row>
-    <row r="234" ht="13.55" customHeight="1">
+    <row r="234" spans="1:25" ht="13.5" customHeight="1">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="8"/>
@@ -8772,7 +8829,7 @@
       <c r="X234" s="7"/>
       <c r="Y234" s="6"/>
     </row>
-    <row r="235" ht="13.55" customHeight="1">
+    <row r="235" spans="1:25" ht="13.5" customHeight="1">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="8"/>
@@ -8799,7 +8856,7 @@
       <c r="X235" s="7"/>
       <c r="Y235" s="6"/>
     </row>
-    <row r="236" ht="13.55" customHeight="1">
+    <row r="236" spans="1:25" ht="13.5" customHeight="1">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="8"/>
@@ -8826,7 +8883,7 @@
       <c r="X236" s="7"/>
       <c r="Y236" s="6"/>
     </row>
-    <row r="237" ht="13.55" customHeight="1">
+    <row r="237" spans="1:25" ht="13.5" customHeight="1">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="8"/>
@@ -8853,7 +8910,7 @@
       <c r="X237" s="7"/>
       <c r="Y237" s="6"/>
     </row>
-    <row r="238" ht="13.55" customHeight="1">
+    <row r="238" spans="1:25" ht="13.5" customHeight="1">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="8"/>
@@ -8880,7 +8937,7 @@
       <c r="X238" s="7"/>
       <c r="Y238" s="6"/>
     </row>
-    <row r="239" ht="13.55" customHeight="1">
+    <row r="239" spans="1:25" ht="13.5" customHeight="1">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="8"/>
@@ -8907,7 +8964,7 @@
       <c r="X239" s="7"/>
       <c r="Y239" s="6"/>
     </row>
-    <row r="240" ht="13.55" customHeight="1">
+    <row r="240" spans="1:25" ht="13.5" customHeight="1">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="8"/>
@@ -8934,7 +8991,7 @@
       <c r="X240" s="7"/>
       <c r="Y240" s="6"/>
     </row>
-    <row r="241" ht="13.55" customHeight="1">
+    <row r="241" spans="1:25" ht="13.5" customHeight="1">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="8"/>
@@ -8961,7 +9018,7 @@
       <c r="X241" s="7"/>
       <c r="Y241" s="6"/>
     </row>
-    <row r="242" ht="13.55" customHeight="1">
+    <row r="242" spans="1:25" ht="13.5" customHeight="1">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="8"/>
@@ -8988,7 +9045,7 @@
       <c r="X242" s="7"/>
       <c r="Y242" s="6"/>
     </row>
-    <row r="243" ht="13.55" customHeight="1">
+    <row r="243" spans="1:25" ht="13.5" customHeight="1">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="8"/>
@@ -9015,7 +9072,7 @@
       <c r="X243" s="7"/>
       <c r="Y243" s="6"/>
     </row>
-    <row r="244" ht="13.55" customHeight="1">
+    <row r="244" spans="1:25" ht="13.5" customHeight="1">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="8"/>
@@ -9042,7 +9099,7 @@
       <c r="X244" s="7"/>
       <c r="Y244" s="6"/>
     </row>
-    <row r="245" ht="13.55" customHeight="1">
+    <row r="245" spans="1:25" ht="13.5" customHeight="1">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="8"/>
@@ -9069,7 +9126,7 @@
       <c r="X245" s="7"/>
       <c r="Y245" s="6"/>
     </row>
-    <row r="246" ht="13.55" customHeight="1">
+    <row r="246" spans="1:25" ht="13.5" customHeight="1">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="8"/>
@@ -9096,7 +9153,7 @@
       <c r="X246" s="7"/>
       <c r="Y246" s="6"/>
     </row>
-    <row r="247" ht="13.55" customHeight="1">
+    <row r="247" spans="1:25" ht="13.5" customHeight="1">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="8"/>
@@ -9123,7 +9180,7 @@
       <c r="X247" s="7"/>
       <c r="Y247" s="6"/>
     </row>
-    <row r="248" ht="13.55" customHeight="1">
+    <row r="248" spans="1:25" ht="13.5" customHeight="1">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="8"/>
@@ -9150,7 +9207,7 @@
       <c r="X248" s="7"/>
       <c r="Y248" s="6"/>
     </row>
-    <row r="249" ht="13.55" customHeight="1">
+    <row r="249" spans="1:25" ht="13.5" customHeight="1">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="8"/>
@@ -9177,7 +9234,7 @@
       <c r="X249" s="7"/>
       <c r="Y249" s="6"/>
     </row>
-    <row r="250" ht="13.55" customHeight="1">
+    <row r="250" spans="1:25" ht="13.5" customHeight="1">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="8"/>
@@ -9204,7 +9261,7 @@
       <c r="X250" s="7"/>
       <c r="Y250" s="6"/>
     </row>
-    <row r="251" ht="13.55" customHeight="1">
+    <row r="251" spans="1:25" ht="13.5" customHeight="1">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="8"/>
@@ -9231,7 +9288,7 @@
       <c r="X251" s="7"/>
       <c r="Y251" s="6"/>
     </row>
-    <row r="252" ht="13.55" customHeight="1">
+    <row r="252" spans="1:25" ht="13.5" customHeight="1">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="8"/>
@@ -9258,7 +9315,7 @@
       <c r="X252" s="7"/>
       <c r="Y252" s="6"/>
     </row>
-    <row r="253" ht="13.55" customHeight="1">
+    <row r="253" spans="1:25" ht="13.5" customHeight="1">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="8"/>
@@ -9285,7 +9342,7 @@
       <c r="X253" s="7"/>
       <c r="Y253" s="6"/>
     </row>
-    <row r="254" ht="13.55" customHeight="1">
+    <row r="254" spans="1:25" ht="13.5" customHeight="1">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="8"/>
@@ -9312,7 +9369,7 @@
       <c r="X254" s="7"/>
       <c r="Y254" s="6"/>
     </row>
-    <row r="255" ht="13.55" customHeight="1">
+    <row r="255" spans="1:25" ht="13.5" customHeight="1">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="8"/>
@@ -9339,7 +9396,7 @@
       <c r="X255" s="7"/>
       <c r="Y255" s="6"/>
     </row>
-    <row r="256" ht="13.55" customHeight="1">
+    <row r="256" spans="1:25" ht="13.5" customHeight="1">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="8"/>
@@ -9366,7 +9423,7 @@
       <c r="X256" s="7"/>
       <c r="Y256" s="6"/>
     </row>
-    <row r="257" ht="13.55" customHeight="1">
+    <row r="257" spans="1:25" ht="13.5" customHeight="1">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="8"/>
@@ -9393,7 +9450,7 @@
       <c r="X257" s="7"/>
       <c r="Y257" s="6"/>
     </row>
-    <row r="258" ht="13.55" customHeight="1">
+    <row r="258" spans="1:25" ht="13.5" customHeight="1">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="8"/>
@@ -9420,7 +9477,7 @@
       <c r="X258" s="7"/>
       <c r="Y258" s="6"/>
     </row>
-    <row r="259" ht="13.55" customHeight="1">
+    <row r="259" spans="1:25" ht="13.5" customHeight="1">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="8"/>
@@ -9447,7 +9504,7 @@
       <c r="X259" s="7"/>
       <c r="Y259" s="6"/>
     </row>
-    <row r="260" ht="13.55" customHeight="1">
+    <row r="260" spans="1:25" ht="13.5" customHeight="1">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="8"/>
@@ -9474,7 +9531,7 @@
       <c r="X260" s="7"/>
       <c r="Y260" s="6"/>
     </row>
-    <row r="261" ht="13.55" customHeight="1">
+    <row r="261" spans="1:25" ht="13.5" customHeight="1">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="8"/>
@@ -9501,7 +9558,7 @@
       <c r="X261" s="7"/>
       <c r="Y261" s="6"/>
     </row>
-    <row r="262" ht="13.55" customHeight="1">
+    <row r="262" spans="1:25" ht="13.5" customHeight="1">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="8"/>
@@ -9528,7 +9585,7 @@
       <c r="X262" s="7"/>
       <c r="Y262" s="6"/>
     </row>
-    <row r="263" ht="13.55" customHeight="1">
+    <row r="263" spans="1:25" ht="13.5" customHeight="1">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="8"/>
@@ -9555,7 +9612,7 @@
       <c r="X263" s="7"/>
       <c r="Y263" s="6"/>
     </row>
-    <row r="264" ht="13.55" customHeight="1">
+    <row r="264" spans="1:25" ht="13.5" customHeight="1">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="8"/>
@@ -9582,7 +9639,7 @@
       <c r="X264" s="7"/>
       <c r="Y264" s="6"/>
     </row>
-    <row r="265" ht="13.55" customHeight="1">
+    <row r="265" spans="1:25" ht="13.5" customHeight="1">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="8"/>
@@ -9609,7 +9666,7 @@
       <c r="X265" s="7"/>
       <c r="Y265" s="6"/>
     </row>
-    <row r="266" ht="13.55" customHeight="1">
+    <row r="266" spans="1:25" ht="13.5" customHeight="1">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="8"/>
@@ -9636,7 +9693,7 @@
       <c r="X266" s="7"/>
       <c r="Y266" s="6"/>
     </row>
-    <row r="267" ht="13.55" customHeight="1">
+    <row r="267" spans="1:25" ht="13.5" customHeight="1">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="8"/>
@@ -9663,7 +9720,7 @@
       <c r="X267" s="7"/>
       <c r="Y267" s="6"/>
     </row>
-    <row r="268" ht="13.55" customHeight="1">
+    <row r="268" spans="1:25" ht="13.5" customHeight="1">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="8"/>
@@ -9690,7 +9747,7 @@
       <c r="X268" s="7"/>
       <c r="Y268" s="6"/>
     </row>
-    <row r="269" ht="13.55" customHeight="1">
+    <row r="269" spans="1:25" ht="13.5" customHeight="1">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="8"/>
@@ -9717,7 +9774,7 @@
       <c r="X269" s="7"/>
       <c r="Y269" s="6"/>
     </row>
-    <row r="270" ht="13.55" customHeight="1">
+    <row r="270" spans="1:25" ht="13.5" customHeight="1">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="8"/>
@@ -9744,7 +9801,7 @@
       <c r="X270" s="7"/>
       <c r="Y270" s="6"/>
     </row>
-    <row r="271" ht="13.55" customHeight="1">
+    <row r="271" spans="1:25" ht="13.5" customHeight="1">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="8"/>
@@ -9771,7 +9828,7 @@
       <c r="X271" s="7"/>
       <c r="Y271" s="6"/>
     </row>
-    <row r="272" ht="13.55" customHeight="1">
+    <row r="272" spans="1:25" ht="13.5" customHeight="1">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="8"/>
@@ -9798,7 +9855,7 @@
       <c r="X272" s="7"/>
       <c r="Y272" s="6"/>
     </row>
-    <row r="273" ht="13.55" customHeight="1">
+    <row r="273" spans="1:25" ht="13.5" customHeight="1">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="8"/>
@@ -9825,7 +9882,7 @@
       <c r="X273" s="7"/>
       <c r="Y273" s="6"/>
     </row>
-    <row r="274" ht="13.55" customHeight="1">
+    <row r="274" spans="1:25" ht="13.5" customHeight="1">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -9852,7 +9909,7 @@
       <c r="X274" s="7"/>
       <c r="Y274" s="6"/>
     </row>
-    <row r="275" ht="13.55" customHeight="1">
+    <row r="275" spans="1:25" ht="13.5" customHeight="1">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -9879,7 +9936,7 @@
       <c r="X275" s="7"/>
       <c r="Y275" s="6"/>
     </row>
-    <row r="276" ht="13.55" customHeight="1">
+    <row r="276" spans="1:25" ht="13.5" customHeight="1">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -9906,7 +9963,7 @@
       <c r="X276" s="7"/>
       <c r="Y276" s="6"/>
     </row>
-    <row r="277" ht="13.55" customHeight="1">
+    <row r="277" spans="1:25" ht="13.5" customHeight="1">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="8"/>
@@ -9933,7 +9990,7 @@
       <c r="X277" s="7"/>
       <c r="Y277" s="6"/>
     </row>
-    <row r="278" ht="13.55" customHeight="1">
+    <row r="278" spans="1:25" ht="13.5" customHeight="1">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="8"/>
@@ -9960,7 +10017,7 @@
       <c r="X278" s="7"/>
       <c r="Y278" s="6"/>
     </row>
-    <row r="279" ht="13.55" customHeight="1">
+    <row r="279" spans="1:25" ht="13.5" customHeight="1">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="8"/>
@@ -9987,7 +10044,7 @@
       <c r="X279" s="7"/>
       <c r="Y279" s="6"/>
     </row>
-    <row r="280" ht="13.55" customHeight="1">
+    <row r="280" spans="1:25" ht="13.5" customHeight="1">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="8"/>
@@ -10014,7 +10071,7 @@
       <c r="X280" s="7"/>
       <c r="Y280" s="6"/>
     </row>
-    <row r="281" ht="13.55" customHeight="1">
+    <row r="281" spans="1:25" ht="13.5" customHeight="1">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="8"/>
@@ -10041,7 +10098,7 @@
       <c r="X281" s="7"/>
       <c r="Y281" s="6"/>
     </row>
-    <row r="282" ht="13.55" customHeight="1">
+    <row r="282" spans="1:25" ht="13.5" customHeight="1">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="8"/>
@@ -10068,7 +10125,7 @@
       <c r="X282" s="7"/>
       <c r="Y282" s="6"/>
     </row>
-    <row r="283" ht="13.55" customHeight="1">
+    <row r="283" spans="1:25" ht="13.5" customHeight="1">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="8"/>
@@ -10095,7 +10152,7 @@
       <c r="X283" s="7"/>
       <c r="Y283" s="6"/>
     </row>
-    <row r="284" ht="13.55" customHeight="1">
+    <row r="284" spans="1:25" ht="13.5" customHeight="1">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="8"/>
@@ -10122,7 +10179,7 @@
       <c r="X284" s="7"/>
       <c r="Y284" s="6"/>
     </row>
-    <row r="285" ht="13.55" customHeight="1">
+    <row r="285" spans="1:25" ht="13.5" customHeight="1">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="8"/>
@@ -10149,7 +10206,7 @@
       <c r="X285" s="7"/>
       <c r="Y285" s="6"/>
     </row>
-    <row r="286" ht="13.55" customHeight="1">
+    <row r="286" spans="1:25" ht="13.5" customHeight="1">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="8"/>
@@ -10176,7 +10233,7 @@
       <c r="X286" s="7"/>
       <c r="Y286" s="6"/>
     </row>
-    <row r="287" ht="13.55" customHeight="1">
+    <row r="287" spans="1:25" ht="13.5" customHeight="1">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="8"/>
@@ -10203,7 +10260,7 @@
       <c r="X287" s="7"/>
       <c r="Y287" s="6"/>
     </row>
-    <row r="288" ht="13.55" customHeight="1">
+    <row r="288" spans="1:25" ht="13.5" customHeight="1">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="8"/>
@@ -10230,7 +10287,7 @@
       <c r="X288" s="7"/>
       <c r="Y288" s="6"/>
     </row>
-    <row r="289" ht="13.55" customHeight="1">
+    <row r="289" spans="1:25" ht="13.5" customHeight="1">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="8"/>
@@ -10257,7 +10314,7 @@
       <c r="X289" s="7"/>
       <c r="Y289" s="6"/>
     </row>
-    <row r="290" ht="13.55" customHeight="1">
+    <row r="290" spans="1:25" ht="13.5" customHeight="1">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="8"/>
@@ -10284,7 +10341,7 @@
       <c r="X290" s="7"/>
       <c r="Y290" s="6"/>
     </row>
-    <row r="291" ht="13.55" customHeight="1">
+    <row r="291" spans="1:25" ht="13.5" customHeight="1">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="8"/>
@@ -10311,7 +10368,7 @@
       <c r="X291" s="7"/>
       <c r="Y291" s="6"/>
     </row>
-    <row r="292" ht="13.55" customHeight="1">
+    <row r="292" spans="1:25" ht="13.5" customHeight="1">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="8"/>
@@ -10338,7 +10395,7 @@
       <c r="X292" s="7"/>
       <c r="Y292" s="6"/>
     </row>
-    <row r="293" ht="13.55" customHeight="1">
+    <row r="293" spans="1:25" ht="13.5" customHeight="1">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="8"/>
@@ -10365,7 +10422,7 @@
       <c r="X293" s="7"/>
       <c r="Y293" s="6"/>
     </row>
-    <row r="294" ht="13.55" customHeight="1">
+    <row r="294" spans="1:25" ht="13.5" customHeight="1">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="8"/>
@@ -10392,7 +10449,7 @@
       <c r="X294" s="7"/>
       <c r="Y294" s="6"/>
     </row>
-    <row r="295" ht="13.55" customHeight="1">
+    <row r="295" spans="1:25" ht="13.5" customHeight="1">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="8"/>
@@ -10419,7 +10476,7 @@
       <c r="X295" s="7"/>
       <c r="Y295" s="6"/>
     </row>
-    <row r="296" ht="13.55" customHeight="1">
+    <row r="296" spans="1:25" ht="13.5" customHeight="1">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="8"/>
@@ -10446,7 +10503,7 @@
       <c r="X296" s="7"/>
       <c r="Y296" s="6"/>
     </row>
-    <row r="297" ht="13.55" customHeight="1">
+    <row r="297" spans="1:25" ht="13.5" customHeight="1">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="8"/>
@@ -10473,7 +10530,7 @@
       <c r="X297" s="7"/>
       <c r="Y297" s="6"/>
     </row>
-    <row r="298" ht="13.55" customHeight="1">
+    <row r="298" spans="1:25" ht="13.5" customHeight="1">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="8"/>
@@ -10500,7 +10557,7 @@
       <c r="X298" s="7"/>
       <c r="Y298" s="6"/>
     </row>
-    <row r="299" ht="13.55" customHeight="1">
+    <row r="299" spans="1:25" ht="13.5" customHeight="1">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="8"/>
@@ -10527,7 +10584,7 @@
       <c r="X299" s="7"/>
       <c r="Y299" s="6"/>
     </row>
-    <row r="300" ht="13.55" customHeight="1">
+    <row r="300" spans="1:25" ht="13.5" customHeight="1">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="8"/>
@@ -10554,7 +10611,7 @@
       <c r="X300" s="7"/>
       <c r="Y300" s="6"/>
     </row>
-    <row r="301" ht="13.55" customHeight="1">
+    <row r="301" spans="1:25" ht="13.5" customHeight="1">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="8"/>
@@ -10581,7 +10638,7 @@
       <c r="X301" s="7"/>
       <c r="Y301" s="6"/>
     </row>
-    <row r="302" ht="13.55" customHeight="1">
+    <row r="302" spans="1:25" ht="13.5" customHeight="1">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="8"/>
@@ -10608,7 +10665,7 @@
       <c r="X302" s="7"/>
       <c r="Y302" s="6"/>
     </row>
-    <row r="303" ht="13.55" customHeight="1">
+    <row r="303" spans="1:25" ht="13.5" customHeight="1">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="8"/>
@@ -10635,7 +10692,7 @@
       <c r="X303" s="7"/>
       <c r="Y303" s="6"/>
     </row>
-    <row r="304" ht="13.55" customHeight="1">
+    <row r="304" spans="1:25" ht="13.5" customHeight="1">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="8"/>
@@ -10662,7 +10719,7 @@
       <c r="X304" s="7"/>
       <c r="Y304" s="6"/>
     </row>
-    <row r="305" ht="13.55" customHeight="1">
+    <row r="305" spans="1:25" ht="13.5" customHeight="1">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="8"/>
@@ -10689,7 +10746,7 @@
       <c r="X305" s="7"/>
       <c r="Y305" s="6"/>
     </row>
-    <row r="306" ht="13.55" customHeight="1">
+    <row r="306" spans="1:25" ht="13.5" customHeight="1">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="8"/>
@@ -10716,7 +10773,7 @@
       <c r="X306" s="7"/>
       <c r="Y306" s="6"/>
     </row>
-    <row r="307" ht="13.55" customHeight="1">
+    <row r="307" spans="1:25" ht="13.5" customHeight="1">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="8"/>
@@ -10743,7 +10800,7 @@
       <c r="X307" s="7"/>
       <c r="Y307" s="6"/>
     </row>
-    <row r="308" ht="13.55" customHeight="1">
+    <row r="308" spans="1:25" ht="13.5" customHeight="1">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="8"/>
@@ -10770,7 +10827,7 @@
       <c r="X308" s="7"/>
       <c r="Y308" s="6"/>
     </row>
-    <row r="309" ht="13.55" customHeight="1">
+    <row r="309" spans="1:25" ht="13.5" customHeight="1">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="8"/>
@@ -10797,7 +10854,7 @@
       <c r="X309" s="7"/>
       <c r="Y309" s="6"/>
     </row>
-    <row r="310" ht="13.55" customHeight="1">
+    <row r="310" spans="1:25" ht="13.5" customHeight="1">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="8"/>
@@ -10824,7 +10881,7 @@
       <c r="X310" s="7"/>
       <c r="Y310" s="6"/>
     </row>
-    <row r="311" ht="13.55" customHeight="1">
+    <row r="311" spans="1:25" ht="13.5" customHeight="1">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="8"/>
@@ -10851,7 +10908,7 @@
       <c r="X311" s="7"/>
       <c r="Y311" s="6"/>
     </row>
-    <row r="312" ht="13.55" customHeight="1">
+    <row r="312" spans="1:25" ht="13.5" customHeight="1">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="8"/>
@@ -10878,7 +10935,7 @@
       <c r="X312" s="7"/>
       <c r="Y312" s="6"/>
     </row>
-    <row r="313" ht="13.55" customHeight="1">
+    <row r="313" spans="1:25" ht="13.5" customHeight="1">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="8"/>
@@ -10905,7 +10962,7 @@
       <c r="X313" s="7"/>
       <c r="Y313" s="6"/>
     </row>
-    <row r="314" ht="13.55" customHeight="1">
+    <row r="314" spans="1:25" ht="13.5" customHeight="1">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="8"/>
@@ -10932,7 +10989,7 @@
       <c r="X314" s="7"/>
       <c r="Y314" s="6"/>
     </row>
-    <row r="315" ht="13.55" customHeight="1">
+    <row r="315" spans="1:25" ht="13.5" customHeight="1">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="8"/>
@@ -10959,7 +11016,7 @@
       <c r="X315" s="7"/>
       <c r="Y315" s="6"/>
     </row>
-    <row r="316" ht="13.55" customHeight="1">
+    <row r="316" spans="1:25" ht="13.5" customHeight="1">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="8"/>
@@ -10986,7 +11043,7 @@
       <c r="X316" s="7"/>
       <c r="Y316" s="6"/>
     </row>
-    <row r="317" ht="13.55" customHeight="1">
+    <row r="317" spans="1:25" ht="13.5" customHeight="1">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -11013,7 +11070,7 @@
       <c r="X317" s="7"/>
       <c r="Y317" s="6"/>
     </row>
-    <row r="318" ht="13.55" customHeight="1">
+    <row r="318" spans="1:25" ht="13.5" customHeight="1">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="8"/>
@@ -11040,7 +11097,7 @@
       <c r="X318" s="7"/>
       <c r="Y318" s="6"/>
     </row>
-    <row r="319" ht="13.55" customHeight="1">
+    <row r="319" spans="1:25" ht="13.5" customHeight="1">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="8"/>
@@ -11067,7 +11124,7 @@
       <c r="X319" s="7"/>
       <c r="Y319" s="6"/>
     </row>
-    <row r="320" ht="13.55" customHeight="1">
+    <row r="320" spans="1:25" ht="13.5" customHeight="1">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -11094,7 +11151,7 @@
       <c r="X320" s="7"/>
       <c r="Y320" s="6"/>
     </row>
-    <row r="321" ht="13.55" customHeight="1">
+    <row r="321" spans="1:25" ht="13.5" customHeight="1">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -11121,7 +11178,7 @@
       <c r="X321" s="7"/>
       <c r="Y321" s="6"/>
     </row>
-    <row r="322" ht="13.55" customHeight="1">
+    <row r="322" spans="1:25" ht="13.5" customHeight="1">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -11148,7 +11205,7 @@
       <c r="X322" s="7"/>
       <c r="Y322" s="6"/>
     </row>
-    <row r="323" ht="13.55" customHeight="1">
+    <row r="323" spans="1:25" ht="13.5" customHeight="1">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="8"/>
@@ -11175,7 +11232,7 @@
       <c r="X323" s="7"/>
       <c r="Y323" s="6"/>
     </row>
-    <row r="324" ht="13.55" customHeight="1">
+    <row r="324" spans="1:25" ht="13.5" customHeight="1">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="8"/>
@@ -11202,7 +11259,7 @@
       <c r="X324" s="7"/>
       <c r="Y324" s="6"/>
     </row>
-    <row r="325" ht="13.55" customHeight="1">
+    <row r="325" spans="1:25" ht="13.5" customHeight="1">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="8"/>
@@ -11229,7 +11286,7 @@
       <c r="X325" s="7"/>
       <c r="Y325" s="6"/>
     </row>
-    <row r="326" ht="13.55" customHeight="1">
+    <row r="326" spans="1:25" ht="13.5" customHeight="1">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="8"/>
@@ -11256,7 +11313,7 @@
       <c r="X326" s="7"/>
       <c r="Y326" s="6"/>
     </row>
-    <row r="327" ht="13.55" customHeight="1">
+    <row r="327" spans="1:25" ht="13.5" customHeight="1">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="8"/>
@@ -11283,7 +11340,7 @@
       <c r="X327" s="7"/>
       <c r="Y327" s="6"/>
     </row>
-    <row r="328" ht="13.55" customHeight="1">
+    <row r="328" spans="1:25" ht="13.5" customHeight="1">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="8"/>
@@ -11310,7 +11367,7 @@
       <c r="X328" s="7"/>
       <c r="Y328" s="6"/>
     </row>
-    <row r="329" ht="13.55" customHeight="1">
+    <row r="329" spans="1:25" ht="13.5" customHeight="1">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="8"/>
@@ -11337,7 +11394,7 @@
       <c r="X329" s="7"/>
       <c r="Y329" s="6"/>
     </row>
-    <row r="330" ht="13.55" customHeight="1">
+    <row r="330" spans="1:25" ht="13.5" customHeight="1">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -11364,7 +11421,7 @@
       <c r="X330" s="7"/>
       <c r="Y330" s="6"/>
     </row>
-    <row r="331" ht="13.55" customHeight="1">
+    <row r="331" spans="1:25" ht="13.5" customHeight="1">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -11391,7 +11448,7 @@
       <c r="X331" s="7"/>
       <c r="Y331" s="6"/>
     </row>
-    <row r="332" ht="13.55" customHeight="1">
+    <row r="332" spans="1:25" ht="13.5" customHeight="1">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="8"/>
@@ -11418,7 +11475,7 @@
       <c r="X332" s="7"/>
       <c r="Y332" s="6"/>
     </row>
-    <row r="333" ht="13.55" customHeight="1">
+    <row r="333" spans="1:25" ht="13.5" customHeight="1">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="8"/>
@@ -11445,7 +11502,7 @@
       <c r="X333" s="7"/>
       <c r="Y333" s="6"/>
     </row>
-    <row r="334" ht="13.55" customHeight="1">
+    <row r="334" spans="1:25" ht="13.5" customHeight="1">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="8"/>
@@ -11472,7 +11529,7 @@
       <c r="X334" s="7"/>
       <c r="Y334" s="6"/>
     </row>
-    <row r="335" ht="13.55" customHeight="1">
+    <row r="335" spans="1:25" ht="13.5" customHeight="1">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="8"/>
@@ -11499,7 +11556,7 @@
       <c r="X335" s="7"/>
       <c r="Y335" s="6"/>
     </row>
-    <row r="336" ht="13.55" customHeight="1">
+    <row r="336" spans="1:25" ht="13.5" customHeight="1">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="8"/>
@@ -11526,7 +11583,7 @@
       <c r="X336" s="7"/>
       <c r="Y336" s="6"/>
     </row>
-    <row r="337" ht="13.55" customHeight="1">
+    <row r="337" spans="1:25" ht="13.5" customHeight="1">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="8"/>
@@ -11553,7 +11610,7 @@
       <c r="X337" s="7"/>
       <c r="Y337" s="6"/>
     </row>
-    <row r="338" ht="13.55" customHeight="1">
+    <row r="338" spans="1:25" ht="13.5" customHeight="1">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="8"/>
@@ -11580,7 +11637,7 @@
       <c r="X338" s="7"/>
       <c r="Y338" s="6"/>
     </row>
-    <row r="339" ht="13.55" customHeight="1">
+    <row r="339" spans="1:25" ht="13.5" customHeight="1">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="8"/>
@@ -11607,7 +11664,7 @@
       <c r="X339" s="7"/>
       <c r="Y339" s="6"/>
     </row>
-    <row r="340" ht="13.55" customHeight="1">
+    <row r="340" spans="1:25" ht="13.5" customHeight="1">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="8"/>
@@ -11634,7 +11691,7 @@
       <c r="X340" s="7"/>
       <c r="Y340" s="6"/>
     </row>
-    <row r="341" ht="13.55" customHeight="1">
+    <row r="341" spans="1:25" ht="13.5" customHeight="1">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="8"/>
@@ -11661,7 +11718,7 @@
       <c r="X341" s="7"/>
       <c r="Y341" s="6"/>
     </row>
-    <row r="342" ht="13.55" customHeight="1">
+    <row r="342" spans="1:25" ht="13.5" customHeight="1">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="8"/>
@@ -11688,7 +11745,7 @@
       <c r="X342" s="7"/>
       <c r="Y342" s="6"/>
     </row>
-    <row r="343" ht="13.55" customHeight="1">
+    <row r="343" spans="1:25" ht="13.5" customHeight="1">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="8"/>
@@ -11715,7 +11772,7 @@
       <c r="X343" s="7"/>
       <c r="Y343" s="6"/>
     </row>
-    <row r="344" ht="13.55" customHeight="1">
+    <row r="344" spans="1:25" ht="13.5" customHeight="1">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="8"/>
@@ -11742,7 +11799,7 @@
       <c r="X344" s="7"/>
       <c r="Y344" s="6"/>
     </row>
-    <row r="345" ht="13.55" customHeight="1">
+    <row r="345" spans="1:25" ht="13.5" customHeight="1">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="8"/>
@@ -11769,7 +11826,7 @@
       <c r="X345" s="7"/>
       <c r="Y345" s="6"/>
     </row>
-    <row r="346" ht="13.55" customHeight="1">
+    <row r="346" spans="1:25" ht="13.5" customHeight="1">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="8"/>
@@ -11796,7 +11853,7 @@
       <c r="X346" s="7"/>
       <c r="Y346" s="6"/>
     </row>
-    <row r="347" ht="13.55" customHeight="1">
+    <row r="347" spans="1:25" ht="13.5" customHeight="1">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="8"/>
@@ -11823,7 +11880,7 @@
       <c r="X347" s="7"/>
       <c r="Y347" s="6"/>
     </row>
-    <row r="348" ht="13.55" customHeight="1">
+    <row r="348" spans="1:25" ht="13.5" customHeight="1">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="8"/>
@@ -11850,7 +11907,7 @@
       <c r="X348" s="7"/>
       <c r="Y348" s="6"/>
     </row>
-    <row r="349" ht="13.55" customHeight="1">
+    <row r="349" spans="1:25" ht="13.5" customHeight="1">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -11877,7 +11934,7 @@
       <c r="X349" s="7"/>
       <c r="Y349" s="6"/>
     </row>
-    <row r="350" ht="13.55" customHeight="1">
+    <row r="350" spans="1:25" ht="13.5" customHeight="1">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="8"/>
@@ -11904,7 +11961,7 @@
       <c r="X350" s="7"/>
       <c r="Y350" s="6"/>
     </row>
-    <row r="351" ht="13.55" customHeight="1">
+    <row r="351" spans="1:25" ht="13.5" customHeight="1">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="8"/>
@@ -11931,7 +11988,7 @@
       <c r="X351" s="7"/>
       <c r="Y351" s="6"/>
     </row>
-    <row r="352" ht="13.55" customHeight="1">
+    <row r="352" spans="1:25" ht="13.5" customHeight="1">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="8"/>
@@ -11958,7 +12015,7 @@
       <c r="X352" s="7"/>
       <c r="Y352" s="6"/>
     </row>
-    <row r="353" ht="13.55" customHeight="1">
+    <row r="353" spans="1:25" ht="13.5" customHeight="1">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="8"/>
@@ -11985,7 +12042,7 @@
       <c r="X353" s="7"/>
       <c r="Y353" s="6"/>
     </row>
-    <row r="354" ht="13.55" customHeight="1">
+    <row r="354" spans="1:25" ht="13.5" customHeight="1">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="8"/>
@@ -12012,7 +12069,7 @@
       <c r="X354" s="7"/>
       <c r="Y354" s="6"/>
     </row>
-    <row r="355" ht="13.55" customHeight="1">
+    <row r="355" spans="1:25" ht="13.5" customHeight="1">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="8"/>
@@ -12039,7 +12096,7 @@
       <c r="X355" s="7"/>
       <c r="Y355" s="6"/>
     </row>
-    <row r="356" ht="13.55" customHeight="1">
+    <row r="356" spans="1:25" ht="13.5" customHeight="1">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="8"/>
@@ -12066,7 +12123,7 @@
       <c r="X356" s="7"/>
       <c r="Y356" s="6"/>
     </row>
-    <row r="357" ht="13.55" customHeight="1">
+    <row r="357" spans="1:25" ht="13.5" customHeight="1">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="8"/>
@@ -12093,7 +12150,7 @@
       <c r="X357" s="7"/>
       <c r="Y357" s="6"/>
     </row>
-    <row r="358" ht="13.55" customHeight="1">
+    <row r="358" spans="1:25" ht="13.5" customHeight="1">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="8"/>
@@ -12120,7 +12177,7 @@
       <c r="X358" s="7"/>
       <c r="Y358" s="6"/>
     </row>
-    <row r="359" ht="13.55" customHeight="1">
+    <row r="359" spans="1:25" ht="13.5" customHeight="1">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="8"/>
@@ -12147,7 +12204,7 @@
       <c r="X359" s="7"/>
       <c r="Y359" s="6"/>
     </row>
-    <row r="360" ht="13.55" customHeight="1">
+    <row r="360" spans="1:25" ht="13.5" customHeight="1">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="8"/>
@@ -12174,7 +12231,7 @@
       <c r="X360" s="7"/>
       <c r="Y360" s="6"/>
     </row>
-    <row r="361" ht="13.55" customHeight="1">
+    <row r="361" spans="1:25" ht="13.5" customHeight="1">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="8"/>
@@ -12201,7 +12258,7 @@
       <c r="X361" s="7"/>
       <c r="Y361" s="6"/>
     </row>
-    <row r="362" ht="13.55" customHeight="1">
+    <row r="362" spans="1:25" ht="13.5" customHeight="1">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="8"/>
@@ -12228,7 +12285,7 @@
       <c r="X362" s="7"/>
       <c r="Y362" s="6"/>
     </row>
-    <row r="363" ht="13.55" customHeight="1">
+    <row r="363" spans="1:25" ht="13.5" customHeight="1">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="8"/>
@@ -12255,7 +12312,7 @@
       <c r="X363" s="7"/>
       <c r="Y363" s="6"/>
     </row>
-    <row r="364" ht="13.55" customHeight="1">
+    <row r="364" spans="1:25" ht="13.5" customHeight="1">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="8"/>
@@ -12282,7 +12339,7 @@
       <c r="X364" s="7"/>
       <c r="Y364" s="6"/>
     </row>
-    <row r="365" ht="13.55" customHeight="1">
+    <row r="365" spans="1:25" ht="13.5" customHeight="1">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="8"/>
@@ -12309,7 +12366,7 @@
       <c r="X365" s="7"/>
       <c r="Y365" s="6"/>
     </row>
-    <row r="366" ht="13.55" customHeight="1">
+    <row r="366" spans="1:25" ht="13.5" customHeight="1">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="8"/>
@@ -12336,7 +12393,7 @@
       <c r="X366" s="7"/>
       <c r="Y366" s="6"/>
     </row>
-    <row r="367" ht="13.55" customHeight="1">
+    <row r="367" spans="1:25" ht="13.5" customHeight="1">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="8"/>
@@ -12363,7 +12420,7 @@
       <c r="X367" s="7"/>
       <c r="Y367" s="6"/>
     </row>
-    <row r="368" ht="13.55" customHeight="1">
+    <row r="368" spans="1:25" ht="13.5" customHeight="1">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="8"/>
@@ -12390,7 +12447,7 @@
       <c r="X368" s="7"/>
       <c r="Y368" s="6"/>
     </row>
-    <row r="369" ht="13.55" customHeight="1">
+    <row r="369" spans="1:25" ht="13.5" customHeight="1">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="8"/>
@@ -12417,7 +12474,7 @@
       <c r="X369" s="7"/>
       <c r="Y369" s="6"/>
     </row>
-    <row r="370" ht="13.55" customHeight="1">
+    <row r="370" spans="1:25" ht="13.5" customHeight="1">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="8"/>
@@ -12444,7 +12501,7 @@
       <c r="X370" s="7"/>
       <c r="Y370" s="6"/>
     </row>
-    <row r="371" ht="13.55" customHeight="1">
+    <row r="371" spans="1:25" ht="13.5" customHeight="1">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -12471,7 +12528,7 @@
       <c r="X371" s="7"/>
       <c r="Y371" s="6"/>
     </row>
-    <row r="372" ht="13.55" customHeight="1">
+    <row r="372" spans="1:25" ht="13.5" customHeight="1">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="8"/>
@@ -12498,7 +12555,7 @@
       <c r="X372" s="7"/>
       <c r="Y372" s="6"/>
     </row>
-    <row r="373" ht="13.55" customHeight="1">
+    <row r="373" spans="1:25" ht="13.5" customHeight="1">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="8"/>
@@ -12525,7 +12582,7 @@
       <c r="X373" s="7"/>
       <c r="Y373" s="6"/>
     </row>
-    <row r="374" ht="13.55" customHeight="1">
+    <row r="374" spans="1:25" ht="13.5" customHeight="1">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="8"/>
@@ -12552,7 +12609,7 @@
       <c r="X374" s="7"/>
       <c r="Y374" s="6"/>
     </row>
-    <row r="375" ht="13.55" customHeight="1">
+    <row r="375" spans="1:25" ht="13.5" customHeight="1">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="8"/>
@@ -12579,7 +12636,7 @@
       <c r="X375" s="7"/>
       <c r="Y375" s="6"/>
     </row>
-    <row r="376" ht="13.55" customHeight="1">
+    <row r="376" spans="1:25" ht="13.5" customHeight="1">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -12606,7 +12663,7 @@
       <c r="X376" s="7"/>
       <c r="Y376" s="6"/>
     </row>
-    <row r="377" ht="13.55" customHeight="1">
+    <row r="377" spans="1:25" ht="13.5" customHeight="1">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -12633,7 +12690,7 @@
       <c r="X377" s="7"/>
       <c r="Y377" s="6"/>
     </row>
-    <row r="378" ht="13.55" customHeight="1">
+    <row r="378" spans="1:25" ht="13.5" customHeight="1">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="8"/>
@@ -12660,7 +12717,7 @@
       <c r="X378" s="7"/>
       <c r="Y378" s="6"/>
     </row>
-    <row r="379" ht="13.55" customHeight="1">
+    <row r="379" spans="1:25" ht="13.5" customHeight="1">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="8"/>
@@ -12687,7 +12744,7 @@
       <c r="X379" s="7"/>
       <c r="Y379" s="6"/>
     </row>
-    <row r="380" ht="13.55" customHeight="1">
+    <row r="380" spans="1:25" ht="13.5" customHeight="1">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="8"/>
@@ -12714,7 +12771,7 @@
       <c r="X380" s="7"/>
       <c r="Y380" s="6"/>
     </row>
-    <row r="381" ht="13.55" customHeight="1">
+    <row r="381" spans="1:25" ht="13.5" customHeight="1">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="8"/>
@@ -12741,7 +12798,7 @@
       <c r="X381" s="7"/>
       <c r="Y381" s="6"/>
     </row>
-    <row r="382" ht="13.55" customHeight="1">
+    <row r="382" spans="1:25" ht="13.5" customHeight="1">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="8"/>
@@ -12768,7 +12825,7 @@
       <c r="X382" s="7"/>
       <c r="Y382" s="6"/>
     </row>
-    <row r="383" ht="13.55" customHeight="1">
+    <row r="383" spans="1:25" ht="13.5" customHeight="1">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="8"/>
@@ -12795,7 +12852,7 @@
       <c r="X383" s="7"/>
       <c r="Y383" s="6"/>
     </row>
-    <row r="384" ht="13.55" customHeight="1">
+    <row r="384" spans="1:25" ht="13.5" customHeight="1">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="8"/>
@@ -12822,7 +12879,7 @@
       <c r="X384" s="7"/>
       <c r="Y384" s="6"/>
     </row>
-    <row r="385" ht="13.55" customHeight="1">
+    <row r="385" spans="1:25" ht="13.5" customHeight="1">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -12849,7 +12906,7 @@
       <c r="X385" s="7"/>
       <c r="Y385" s="6"/>
     </row>
-    <row r="386" ht="13.55" customHeight="1">
+    <row r="386" spans="1:25" ht="13.5" customHeight="1">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="8"/>
@@ -12876,7 +12933,7 @@
       <c r="X386" s="7"/>
       <c r="Y386" s="6"/>
     </row>
-    <row r="387" ht="13.55" customHeight="1">
+    <row r="387" spans="1:25" ht="13.5" customHeight="1">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -12903,7 +12960,7 @@
       <c r="X387" s="7"/>
       <c r="Y387" s="6"/>
     </row>
-    <row r="388" ht="13.55" customHeight="1">
+    <row r="388" spans="1:25" ht="13.5" customHeight="1">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="8"/>
@@ -12930,7 +12987,7 @@
       <c r="X388" s="7"/>
       <c r="Y388" s="6"/>
     </row>
-    <row r="389" ht="13.55" customHeight="1">
+    <row r="389" spans="1:25" ht="13.5" customHeight="1">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="8"/>
@@ -12957,7 +13014,7 @@
       <c r="X389" s="7"/>
       <c r="Y389" s="6"/>
     </row>
-    <row r="390" ht="13.55" customHeight="1">
+    <row r="390" spans="1:25" ht="13.5" customHeight="1">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="8"/>
@@ -12984,7 +13041,7 @@
       <c r="X390" s="7"/>
       <c r="Y390" s="6"/>
     </row>
-    <row r="391" ht="13.55" customHeight="1">
+    <row r="391" spans="1:25" ht="13.5" customHeight="1">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -13011,7 +13068,7 @@
       <c r="X391" s="7"/>
       <c r="Y391" s="6"/>
     </row>
-    <row r="392" ht="13.55" customHeight="1">
+    <row r="392" spans="1:25" ht="13.5" customHeight="1">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="8"/>
@@ -13038,7 +13095,7 @@
       <c r="X392" s="7"/>
       <c r="Y392" s="6"/>
     </row>
-    <row r="393" ht="13.55" customHeight="1">
+    <row r="393" spans="1:25" ht="13.5" customHeight="1">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -13065,7 +13122,7 @@
       <c r="X393" s="7"/>
       <c r="Y393" s="6"/>
     </row>
-    <row r="394" ht="13.55" customHeight="1">
+    <row r="394" spans="1:25" ht="13.5" customHeight="1">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="8"/>
@@ -13092,7 +13149,7 @@
       <c r="X394" s="7"/>
       <c r="Y394" s="6"/>
     </row>
-    <row r="395" ht="13.55" customHeight="1">
+    <row r="395" spans="1:25" ht="13.5" customHeight="1">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="8"/>
@@ -13119,7 +13176,7 @@
       <c r="X395" s="7"/>
       <c r="Y395" s="6"/>
     </row>
-    <row r="396" ht="13.55" customHeight="1">
+    <row r="396" spans="1:25" ht="13.5" customHeight="1">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="8"/>
@@ -13146,7 +13203,7 @@
       <c r="X396" s="7"/>
       <c r="Y396" s="6"/>
     </row>
-    <row r="397" ht="13.55" customHeight="1">
+    <row r="397" spans="1:25" ht="13.5" customHeight="1">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="8"/>
@@ -13173,7 +13230,7 @@
       <c r="X397" s="7"/>
       <c r="Y397" s="6"/>
     </row>
-    <row r="398" ht="13.55" customHeight="1">
+    <row r="398" spans="1:25" ht="13.5" customHeight="1">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="8"/>
@@ -13200,7 +13257,7 @@
       <c r="X398" s="7"/>
       <c r="Y398" s="6"/>
     </row>
-    <row r="399" ht="13.55" customHeight="1">
+    <row r="399" spans="1:25" ht="13.5" customHeight="1">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="8"/>
@@ -13227,7 +13284,7 @@
       <c r="X399" s="7"/>
       <c r="Y399" s="6"/>
     </row>
-    <row r="400" ht="13.55" customHeight="1">
+    <row r="400" spans="1:25" ht="13.5" customHeight="1">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -13254,7 +13311,7 @@
       <c r="X400" s="7"/>
       <c r="Y400" s="6"/>
     </row>
-    <row r="401" ht="13.55" customHeight="1">
+    <row r="401" spans="1:25" ht="13.5" customHeight="1">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="8"/>
@@ -13281,7 +13338,7 @@
       <c r="X401" s="7"/>
       <c r="Y401" s="6"/>
     </row>
-    <row r="402" ht="13.55" customHeight="1">
+    <row r="402" spans="1:25" ht="13.5" customHeight="1">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="8"/>
@@ -13308,7 +13365,7 @@
       <c r="X402" s="7"/>
       <c r="Y402" s="6"/>
     </row>
-    <row r="403" ht="13.55" customHeight="1">
+    <row r="403" spans="1:25" ht="13.5" customHeight="1">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="8"/>
@@ -13335,7 +13392,7 @@
       <c r="X403" s="7"/>
       <c r="Y403" s="6"/>
     </row>
-    <row r="404" ht="13.55" customHeight="1">
+    <row r="404" spans="1:25" ht="13.5" customHeight="1">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="8"/>
@@ -13362,7 +13419,7 @@
       <c r="X404" s="7"/>
       <c r="Y404" s="6"/>
     </row>
-    <row r="405" ht="13.55" customHeight="1">
+    <row r="405" spans="1:25" ht="13.5" customHeight="1">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="8"/>
@@ -13389,7 +13446,7 @@
       <c r="X405" s="7"/>
       <c r="Y405" s="6"/>
     </row>
-    <row r="406" ht="13.55" customHeight="1">
+    <row r="406" spans="1:25" ht="13.5" customHeight="1">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="8"/>
@@ -13416,7 +13473,7 @@
       <c r="X406" s="7"/>
       <c r="Y406" s="6"/>
     </row>
-    <row r="407" ht="13.55" customHeight="1">
+    <row r="407" spans="1:25" ht="13.5" customHeight="1">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="8"/>
@@ -13443,7 +13500,7 @@
       <c r="X407" s="7"/>
       <c r="Y407" s="6"/>
     </row>
-    <row r="408" ht="13.55" customHeight="1">
+    <row r="408" spans="1:25" ht="13.5" customHeight="1">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -13470,7 +13527,7 @@
       <c r="X408" s="7"/>
       <c r="Y408" s="6"/>
     </row>
-    <row r="409" ht="13.55" customHeight="1">
+    <row r="409" spans="1:25" ht="13.5" customHeight="1">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -13497,7 +13554,7 @@
       <c r="X409" s="7"/>
       <c r="Y409" s="6"/>
     </row>
-    <row r="410" ht="13.55" customHeight="1">
+    <row r="410" spans="1:25" ht="13.5" customHeight="1">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -13524,7 +13581,7 @@
       <c r="X410" s="7"/>
       <c r="Y410" s="6"/>
     </row>
-    <row r="411" ht="13.55" customHeight="1">
+    <row r="411" spans="1:25" ht="13.5" customHeight="1">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -13551,7 +13608,7 @@
       <c r="X411" s="7"/>
       <c r="Y411" s="6"/>
     </row>
-    <row r="412" ht="13.55" customHeight="1">
+    <row r="412" spans="1:25" ht="13.5" customHeight="1">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -13578,7 +13635,7 @@
       <c r="X412" s="7"/>
       <c r="Y412" s="6"/>
     </row>
-    <row r="413" ht="13.55" customHeight="1">
+    <row r="413" spans="1:25" ht="13.5" customHeight="1">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -13605,7 +13662,7 @@
       <c r="X413" s="7"/>
       <c r="Y413" s="6"/>
     </row>
-    <row r="414" ht="13.55" customHeight="1">
+    <row r="414" spans="1:25" ht="13.5" customHeight="1">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -13632,7 +13689,7 @@
       <c r="X414" s="7"/>
       <c r="Y414" s="6"/>
     </row>
-    <row r="415" ht="13.55" customHeight="1">
+    <row r="415" spans="1:25" ht="13.5" customHeight="1">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -13659,7 +13716,7 @@
       <c r="X415" s="7"/>
       <c r="Y415" s="6"/>
     </row>
-    <row r="416" ht="13.55" customHeight="1">
+    <row r="416" spans="1:25" ht="13.5" customHeight="1">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -13686,7 +13743,7 @@
       <c r="X416" s="7"/>
       <c r="Y416" s="6"/>
     </row>
-    <row r="417" ht="13.55" customHeight="1">
+    <row r="417" spans="1:25" ht="13.5" customHeight="1">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -13713,7 +13770,7 @@
       <c r="X417" s="7"/>
       <c r="Y417" s="6"/>
     </row>
-    <row r="418" ht="13.55" customHeight="1">
+    <row r="418" spans="1:25" ht="13.5" customHeight="1">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -13740,7 +13797,7 @@
       <c r="X418" s="7"/>
       <c r="Y418" s="6"/>
     </row>
-    <row r="419" ht="13.55" customHeight="1">
+    <row r="419" spans="1:25" ht="13.5" customHeight="1">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -13767,7 +13824,7 @@
       <c r="X419" s="7"/>
       <c r="Y419" s="6"/>
     </row>
-    <row r="420" ht="13.55" customHeight="1">
+    <row r="420" spans="1:25" ht="13.5" customHeight="1">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -13794,7 +13851,7 @@
       <c r="X420" s="7"/>
       <c r="Y420" s="6"/>
     </row>
-    <row r="421" ht="13.55" customHeight="1">
+    <row r="421" spans="1:25" ht="13.5" customHeight="1">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -13821,7 +13878,7 @@
       <c r="X421" s="7"/>
       <c r="Y421" s="6"/>
     </row>
-    <row r="422" ht="13.55" customHeight="1">
+    <row r="422" spans="1:25" ht="13.5" customHeight="1">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -13848,7 +13905,7 @@
       <c r="X422" s="7"/>
       <c r="Y422" s="6"/>
     </row>
-    <row r="423" ht="13.55" customHeight="1">
+    <row r="423" spans="1:25" ht="13.5" customHeight="1">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -13875,7 +13932,7 @@
       <c r="X423" s="7"/>
       <c r="Y423" s="6"/>
     </row>
-    <row r="424" ht="13.55" customHeight="1">
+    <row r="424" spans="1:25" ht="13.5" customHeight="1">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -13902,7 +13959,7 @@
       <c r="X424" s="7"/>
       <c r="Y424" s="6"/>
     </row>
-    <row r="425" ht="13.55" customHeight="1">
+    <row r="425" spans="1:25" ht="13.5" customHeight="1">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -13929,7 +13986,7 @@
       <c r="X425" s="7"/>
       <c r="Y425" s="6"/>
     </row>
-    <row r="426" ht="13.55" customHeight="1">
+    <row r="426" spans="1:25" ht="13.5" customHeight="1">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -13956,7 +14013,7 @@
       <c r="X426" s="7"/>
       <c r="Y426" s="6"/>
     </row>
-    <row r="427" ht="13.55" customHeight="1">
+    <row r="427" spans="1:25" ht="13.5" customHeight="1">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -13983,7 +14040,7 @@
       <c r="X427" s="7"/>
       <c r="Y427" s="6"/>
     </row>
-    <row r="428" ht="13.55" customHeight="1">
+    <row r="428" spans="1:25" ht="13.5" customHeight="1">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -14010,7 +14067,7 @@
       <c r="X428" s="7"/>
       <c r="Y428" s="6"/>
     </row>
-    <row r="429" ht="13.55" customHeight="1">
+    <row r="429" spans="1:25" ht="13.5" customHeight="1">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -14037,7 +14094,7 @@
       <c r="X429" s="7"/>
       <c r="Y429" s="6"/>
     </row>
-    <row r="430" ht="13.55" customHeight="1">
+    <row r="430" spans="1:25" ht="13.5" customHeight="1">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -14064,7 +14121,7 @@
       <c r="X430" s="7"/>
       <c r="Y430" s="6"/>
     </row>
-    <row r="431" ht="13.55" customHeight="1">
+    <row r="431" spans="1:25" ht="13.5" customHeight="1">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -14091,7 +14148,7 @@
       <c r="X431" s="7"/>
       <c r="Y431" s="6"/>
     </row>
-    <row r="432" ht="13.55" customHeight="1">
+    <row r="432" spans="1:25" ht="13.5" customHeight="1">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -14118,7 +14175,7 @@
       <c r="X432" s="7"/>
       <c r="Y432" s="6"/>
     </row>
-    <row r="433" ht="13.55" customHeight="1">
+    <row r="433" spans="1:25" ht="13.5" customHeight="1">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -14145,7 +14202,7 @@
       <c r="X433" s="7"/>
       <c r="Y433" s="6"/>
     </row>
-    <row r="434" ht="13.55" customHeight="1">
+    <row r="434" spans="1:25" ht="13.5" customHeight="1">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -14172,7 +14229,7 @@
       <c r="X434" s="7"/>
       <c r="Y434" s="6"/>
     </row>
-    <row r="435" ht="13.55" customHeight="1">
+    <row r="435" spans="1:25" ht="13.5" customHeight="1">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -14199,7 +14256,7 @@
       <c r="X435" s="7"/>
       <c r="Y435" s="6"/>
     </row>
-    <row r="436" ht="13.55" customHeight="1">
+    <row r="436" spans="1:25" ht="13.5" customHeight="1">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -14226,7 +14283,7 @@
       <c r="X436" s="7"/>
       <c r="Y436" s="6"/>
     </row>
-    <row r="437" ht="13.55" customHeight="1">
+    <row r="437" spans="1:25" ht="13.5" customHeight="1">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -14253,7 +14310,7 @@
       <c r="X437" s="7"/>
       <c r="Y437" s="6"/>
     </row>
-    <row r="438" ht="13.55" customHeight="1">
+    <row r="438" spans="1:25" ht="13.5" customHeight="1">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -14280,7 +14337,7 @@
       <c r="X438" s="7"/>
       <c r="Y438" s="6"/>
     </row>
-    <row r="439" ht="13.55" customHeight="1">
+    <row r="439" spans="1:25" ht="13.5" customHeight="1">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -14307,7 +14364,7 @@
       <c r="X439" s="7"/>
       <c r="Y439" s="6"/>
     </row>
-    <row r="440" ht="13.55" customHeight="1">
+    <row r="440" spans="1:25" ht="13.5" customHeight="1">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -14334,7 +14391,7 @@
       <c r="X440" s="7"/>
       <c r="Y440" s="6"/>
     </row>
-    <row r="441" ht="13.55" customHeight="1">
+    <row r="441" spans="1:25" ht="13.5" customHeight="1">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="8"/>
@@ -14361,7 +14418,7 @@
       <c r="X441" s="7"/>
       <c r="Y441" s="6"/>
     </row>
-    <row r="442" ht="13.55" customHeight="1">
+    <row r="442" spans="1:25" ht="13.5" customHeight="1">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -14388,7 +14445,7 @@
       <c r="X442" s="7"/>
       <c r="Y442" s="6"/>
     </row>
-    <row r="443" ht="13.55" customHeight="1">
+    <row r="443" spans="1:25" ht="13.5" customHeight="1">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -14415,7 +14472,7 @@
       <c r="X443" s="7"/>
       <c r="Y443" s="6"/>
     </row>
-    <row r="444" ht="13.55" customHeight="1">
+    <row r="444" spans="1:25" ht="13.5" customHeight="1">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -14442,7 +14499,7 @@
       <c r="X444" s="7"/>
       <c r="Y444" s="6"/>
     </row>
-    <row r="445" ht="13.55" customHeight="1">
+    <row r="445" spans="1:25" ht="13.5" customHeight="1">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -14469,7 +14526,7 @@
       <c r="X445" s="7"/>
       <c r="Y445" s="6"/>
     </row>
-    <row r="446" ht="13.55" customHeight="1">
+    <row r="446" spans="1:25" ht="13.5" customHeight="1">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -14496,7 +14553,7 @@
       <c r="X446" s="7"/>
       <c r="Y446" s="6"/>
     </row>
-    <row r="447" ht="13.55" customHeight="1">
+    <row r="447" spans="1:25" ht="13.5" customHeight="1">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -14523,7 +14580,7 @@
       <c r="X447" s="7"/>
       <c r="Y447" s="6"/>
     </row>
-    <row r="448" ht="13.55" customHeight="1">
+    <row r="448" spans="1:25" ht="13.5" customHeight="1">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -14550,7 +14607,7 @@
       <c r="X448" s="7"/>
       <c r="Y448" s="6"/>
     </row>
-    <row r="449" ht="13.55" customHeight="1">
+    <row r="449" spans="1:25" ht="13.5" customHeight="1">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -14577,7 +14634,7 @@
       <c r="X449" s="7"/>
       <c r="Y449" s="6"/>
     </row>
-    <row r="450" ht="13.55" customHeight="1">
+    <row r="450" spans="1:25" ht="13.5" customHeight="1">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -14604,7 +14661,7 @@
       <c r="X450" s="7"/>
       <c r="Y450" s="6"/>
     </row>
-    <row r="451" ht="13.55" customHeight="1">
+    <row r="451" spans="1:25" ht="13.5" customHeight="1">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -14631,7 +14688,7 @@
       <c r="X451" s="7"/>
       <c r="Y451" s="6"/>
     </row>
-    <row r="452" ht="13.55" customHeight="1">
+    <row r="452" spans="1:25" ht="13.5" customHeight="1">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -14658,7 +14715,7 @@
       <c r="X452" s="7"/>
       <c r="Y452" s="6"/>
     </row>
-    <row r="453" ht="13.55" customHeight="1">
+    <row r="453" spans="1:25" ht="13.5" customHeight="1">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -14685,7 +14742,7 @@
       <c r="X453" s="7"/>
       <c r="Y453" s="6"/>
     </row>
-    <row r="454" ht="13.55" customHeight="1">
+    <row r="454" spans="1:25" ht="13.5" customHeight="1">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -14712,7 +14769,7 @@
       <c r="X454" s="7"/>
       <c r="Y454" s="6"/>
     </row>
-    <row r="455" ht="13.55" customHeight="1">
+    <row r="455" spans="1:25" ht="13.5" customHeight="1">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -14739,7 +14796,7 @@
       <c r="X455" s="7"/>
       <c r="Y455" s="6"/>
     </row>
-    <row r="456" ht="13.55" customHeight="1">
+    <row r="456" spans="1:25" ht="13.5" customHeight="1">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -14766,7 +14823,7 @@
       <c r="X456" s="7"/>
       <c r="Y456" s="6"/>
     </row>
-    <row r="457" ht="13.55" customHeight="1">
+    <row r="457" spans="1:25" ht="13.5" customHeight="1">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -14793,7 +14850,7 @@
       <c r="X457" s="7"/>
       <c r="Y457" s="6"/>
     </row>
-    <row r="458" ht="13.55" customHeight="1">
+    <row r="458" spans="1:25" ht="13.5" customHeight="1">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -14820,7 +14877,7 @@
       <c r="X458" s="7"/>
       <c r="Y458" s="6"/>
     </row>
-    <row r="459" ht="13.55" customHeight="1">
+    <row r="459" spans="1:25" ht="13.5" customHeight="1">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -14847,7 +14904,7 @@
       <c r="X459" s="7"/>
       <c r="Y459" s="6"/>
     </row>
-    <row r="460" ht="13.55" customHeight="1">
+    <row r="460" spans="1:25" ht="13.5" customHeight="1">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -14874,7 +14931,7 @@
       <c r="X460" s="7"/>
       <c r="Y460" s="6"/>
     </row>
-    <row r="461" ht="13.55" customHeight="1">
+    <row r="461" spans="1:25" ht="13.5" customHeight="1">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -14901,7 +14958,7 @@
       <c r="X461" s="7"/>
       <c r="Y461" s="6"/>
     </row>
-    <row r="462" ht="13.55" customHeight="1">
+    <row r="462" spans="1:25" ht="13.5" customHeight="1">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -14928,7 +14985,7 @@
       <c r="X462" s="7"/>
       <c r="Y462" s="6"/>
     </row>
-    <row r="463" ht="13.55" customHeight="1">
+    <row r="463" spans="1:25" ht="13.5" customHeight="1">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -14955,7 +15012,7 @@
       <c r="X463" s="7"/>
       <c r="Y463" s="6"/>
     </row>
-    <row r="464" ht="13.55" customHeight="1">
+    <row r="464" spans="1:25" ht="13.5" customHeight="1">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -14982,7 +15039,7 @@
       <c r="X464" s="7"/>
       <c r="Y464" s="6"/>
     </row>
-    <row r="465" ht="13.55" customHeight="1">
+    <row r="465" spans="1:25" ht="13.5" customHeight="1">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -15009,7 +15066,7 @@
       <c r="X465" s="7"/>
       <c r="Y465" s="6"/>
     </row>
-    <row r="466" ht="13.55" customHeight="1">
+    <row r="466" spans="1:25" ht="13.5" customHeight="1">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -15036,7 +15093,7 @@
       <c r="X466" s="7"/>
       <c r="Y466" s="6"/>
     </row>
-    <row r="467" ht="13.55" customHeight="1">
+    <row r="467" spans="1:25" ht="13.5" customHeight="1">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -15063,7 +15120,7 @@
       <c r="X467" s="7"/>
       <c r="Y467" s="6"/>
     </row>
-    <row r="468" ht="13.55" customHeight="1">
+    <row r="468" spans="1:25" ht="13.5" customHeight="1">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -15090,7 +15147,7 @@
       <c r="X468" s="7"/>
       <c r="Y468" s="6"/>
     </row>
-    <row r="469" ht="13.55" customHeight="1">
+    <row r="469" spans="1:25" ht="13.5" customHeight="1">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -15117,7 +15174,7 @@
       <c r="X469" s="7"/>
       <c r="Y469" s="6"/>
     </row>
-    <row r="470" ht="13.55" customHeight="1">
+    <row r="470" spans="1:25" ht="13.5" customHeight="1">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -15144,7 +15201,7 @@
       <c r="X470" s="7"/>
       <c r="Y470" s="6"/>
     </row>
-    <row r="471" ht="13.55" customHeight="1">
+    <row r="471" spans="1:25" ht="13.5" customHeight="1">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -15171,7 +15228,7 @@
       <c r="X471" s="7"/>
       <c r="Y471" s="6"/>
     </row>
-    <row r="472" ht="13.55" customHeight="1">
+    <row r="472" spans="1:25" ht="13.5" customHeight="1">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -15198,7 +15255,7 @@
       <c r="X472" s="7"/>
       <c r="Y472" s="6"/>
     </row>
-    <row r="473" ht="13.55" customHeight="1">
+    <row r="473" spans="1:25" ht="13.5" customHeight="1">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -15225,7 +15282,7 @@
       <c r="X473" s="7"/>
       <c r="Y473" s="6"/>
     </row>
-    <row r="474" ht="13.55" customHeight="1">
+    <row r="474" spans="1:25" ht="13.5" customHeight="1">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -15252,7 +15309,7 @@
       <c r="X474" s="7"/>
       <c r="Y474" s="6"/>
     </row>
-    <row r="475" ht="13.55" customHeight="1">
+    <row r="475" spans="1:25" ht="13.5" customHeight="1">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -15279,7 +15336,7 @@
       <c r="X475" s="7"/>
       <c r="Y475" s="6"/>
     </row>
-    <row r="476" ht="13.55" customHeight="1">
+    <row r="476" spans="1:25" ht="13.5" customHeight="1">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -15306,7 +15363,7 @@
       <c r="X476" s="7"/>
       <c r="Y476" s="6"/>
     </row>
-    <row r="477" ht="13.55" customHeight="1">
+    <row r="477" spans="1:25" ht="13.5" customHeight="1">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -15333,7 +15390,7 @@
       <c r="X477" s="7"/>
       <c r="Y477" s="6"/>
     </row>
-    <row r="478" ht="13.55" customHeight="1">
+    <row r="478" spans="1:25" ht="13.5" customHeight="1">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -15360,7 +15417,7 @@
       <c r="X478" s="7"/>
       <c r="Y478" s="6"/>
     </row>
-    <row r="479" ht="13.55" customHeight="1">
+    <row r="479" spans="1:25" ht="13.5" customHeight="1">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -15387,7 +15444,7 @@
       <c r="X479" s="7"/>
       <c r="Y479" s="6"/>
     </row>
-    <row r="480" ht="13.55" customHeight="1">
+    <row r="480" spans="1:25" ht="13.5" customHeight="1">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -15414,7 +15471,7 @@
       <c r="X480" s="7"/>
       <c r="Y480" s="6"/>
     </row>
-    <row r="481" ht="13.55" customHeight="1">
+    <row r="481" spans="1:25" ht="13.5" customHeight="1">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -15441,7 +15498,7 @@
       <c r="X481" s="7"/>
       <c r="Y481" s="6"/>
     </row>
-    <row r="482" ht="13.55" customHeight="1">
+    <row r="482" spans="1:25" ht="13.5" customHeight="1">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -15468,7 +15525,7 @@
       <c r="X482" s="7"/>
       <c r="Y482" s="6"/>
     </row>
-    <row r="483" ht="13.55" customHeight="1">
+    <row r="483" spans="1:25" ht="13.5" customHeight="1">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -15495,7 +15552,7 @@
       <c r="X483" s="7"/>
       <c r="Y483" s="6"/>
     </row>
-    <row r="484" ht="13.55" customHeight="1">
+    <row r="484" spans="1:25" ht="13.5" customHeight="1">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -15522,7 +15579,7 @@
       <c r="X484" s="7"/>
       <c r="Y484" s="6"/>
     </row>
-    <row r="485" ht="13.55" customHeight="1">
+    <row r="485" spans="1:25" ht="13.5" customHeight="1">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -15549,7 +15606,7 @@
       <c r="X485" s="7"/>
       <c r="Y485" s="6"/>
     </row>
-    <row r="486" ht="13.55" customHeight="1">
+    <row r="486" spans="1:25" ht="13.5" customHeight="1">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -15576,7 +15633,7 @@
       <c r="X486" s="7"/>
       <c r="Y486" s="6"/>
     </row>
-    <row r="487" ht="13.55" customHeight="1">
+    <row r="487" spans="1:25" ht="13.5" customHeight="1">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -15603,7 +15660,7 @@
       <c r="X487" s="7"/>
       <c r="Y487" s="6"/>
     </row>
-    <row r="488" ht="13.55" customHeight="1">
+    <row r="488" spans="1:25" ht="13.5" customHeight="1">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -15630,7 +15687,7 @@
       <c r="X488" s="7"/>
       <c r="Y488" s="6"/>
     </row>
-    <row r="489" ht="13.55" customHeight="1">
+    <row r="489" spans="1:25" ht="13.5" customHeight="1">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -15657,7 +15714,7 @@
       <c r="X489" s="7"/>
       <c r="Y489" s="6"/>
     </row>
-    <row r="490" ht="13.55" customHeight="1">
+    <row r="490" spans="1:25" ht="13.5" customHeight="1">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -15684,7 +15741,7 @@
       <c r="X490" s="7"/>
       <c r="Y490" s="6"/>
     </row>
-    <row r="491" ht="13.55" customHeight="1">
+    <row r="491" spans="1:25" ht="13.5" customHeight="1">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -15711,7 +15768,7 @@
       <c r="X491" s="7"/>
       <c r="Y491" s="6"/>
     </row>
-    <row r="492" ht="13.55" customHeight="1">
+    <row r="492" spans="1:25" ht="13.5" customHeight="1">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -15738,7 +15795,7 @@
       <c r="X492" s="7"/>
       <c r="Y492" s="6"/>
     </row>
-    <row r="493" ht="13.55" customHeight="1">
+    <row r="493" spans="1:25" ht="13.5" customHeight="1">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -15765,7 +15822,7 @@
       <c r="X493" s="7"/>
       <c r="Y493" s="6"/>
     </row>
-    <row r="494" ht="13.55" customHeight="1">
+    <row r="494" spans="1:25" ht="13.5" customHeight="1">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -15792,7 +15849,7 @@
       <c r="X494" s="7"/>
       <c r="Y494" s="6"/>
     </row>
-    <row r="495" ht="13.55" customHeight="1">
+    <row r="495" spans="1:25" ht="13.5" customHeight="1">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -15819,7 +15876,7 @@
       <c r="X495" s="7"/>
       <c r="Y495" s="6"/>
     </row>
-    <row r="496" ht="13.55" customHeight="1">
+    <row r="496" spans="1:25" ht="13.5" customHeight="1">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -15846,7 +15903,7 @@
       <c r="X496" s="7"/>
       <c r="Y496" s="6"/>
     </row>
-    <row r="497" ht="13.55" customHeight="1">
+    <row r="497" spans="1:25" ht="13.5" customHeight="1">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -15873,7 +15930,7 @@
       <c r="X497" s="7"/>
       <c r="Y497" s="6"/>
     </row>
-    <row r="498" ht="13.55" customHeight="1">
+    <row r="498" spans="1:25" ht="13.5" customHeight="1">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -15900,7 +15957,7 @@
       <c r="X498" s="7"/>
       <c r="Y498" s="6"/>
     </row>
-    <row r="499" ht="13.55" customHeight="1">
+    <row r="499" spans="1:25" ht="13.5" customHeight="1">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -15927,7 +15984,7 @@
       <c r="X499" s="7"/>
       <c r="Y499" s="6"/>
     </row>
-    <row r="500" ht="13.55" customHeight="1">
+    <row r="500" spans="1:25" ht="13.5" customHeight="1">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -15954,7 +16011,7 @@
       <c r="X500" s="7"/>
       <c r="Y500" s="6"/>
     </row>
-    <row r="501" ht="13.55" customHeight="1">
+    <row r="501" spans="1:25" ht="13.5" customHeight="1">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -15981,7 +16038,7 @@
       <c r="X501" s="7"/>
       <c r="Y501" s="6"/>
     </row>
-    <row r="502" ht="13.55" customHeight="1">
+    <row r="502" spans="1:25" ht="13.5" customHeight="1">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -16008,7 +16065,7 @@
       <c r="X502" s="7"/>
       <c r="Y502" s="6"/>
     </row>
-    <row r="503" ht="13.55" customHeight="1">
+    <row r="503" spans="1:25" ht="13.5" customHeight="1">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -16035,7 +16092,7 @@
       <c r="X503" s="7"/>
       <c r="Y503" s="6"/>
     </row>
-    <row r="504" ht="13.55" customHeight="1">
+    <row r="504" spans="1:25" ht="13.5" customHeight="1">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -16062,7 +16119,7 @@
       <c r="X504" s="7"/>
       <c r="Y504" s="6"/>
     </row>
-    <row r="505" ht="13.55" customHeight="1">
+    <row r="505" spans="1:25" ht="13.5" customHeight="1">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -16089,7 +16146,7 @@
       <c r="X505" s="7"/>
       <c r="Y505" s="6"/>
     </row>
-    <row r="506" ht="13.55" customHeight="1">
+    <row r="506" spans="1:25" ht="13.5" customHeight="1">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -16116,7 +16173,7 @@
       <c r="X506" s="7"/>
       <c r="Y506" s="6"/>
     </row>
-    <row r="507" ht="13.55" customHeight="1">
+    <row r="507" spans="1:25" ht="13.5" customHeight="1">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -16143,7 +16200,7 @@
       <c r="X507" s="7"/>
       <c r="Y507" s="6"/>
     </row>
-    <row r="508" ht="13.55" customHeight="1">
+    <row r="508" spans="1:25" ht="13.5" customHeight="1">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -16170,7 +16227,7 @@
       <c r="X508" s="7"/>
       <c r="Y508" s="6"/>
     </row>
-    <row r="509" ht="13.55" customHeight="1">
+    <row r="509" spans="1:25" ht="13.5" customHeight="1">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -16197,7 +16254,7 @@
       <c r="X509" s="7"/>
       <c r="Y509" s="6"/>
     </row>
-    <row r="510" ht="13.55" customHeight="1">
+    <row r="510" spans="1:25" ht="13.5" customHeight="1">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -16224,7 +16281,7 @@
       <c r="X510" s="7"/>
       <c r="Y510" s="6"/>
     </row>
-    <row r="511" ht="13.55" customHeight="1">
+    <row r="511" spans="1:25" ht="13.5" customHeight="1">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -16251,7 +16308,7 @@
       <c r="X511" s="7"/>
       <c r="Y511" s="6"/>
     </row>
-    <row r="512" ht="13.55" customHeight="1">
+    <row r="512" spans="1:25" ht="13.5" customHeight="1">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -16278,7 +16335,7 @@
       <c r="X512" s="7"/>
       <c r="Y512" s="6"/>
     </row>
-    <row r="513" ht="13.55" customHeight="1">
+    <row r="513" spans="1:25" ht="13.5" customHeight="1">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -16305,7 +16362,7 @@
       <c r="X513" s="7"/>
       <c r="Y513" s="6"/>
     </row>
-    <row r="514" ht="13.55" customHeight="1">
+    <row r="514" spans="1:25" ht="13.5" customHeight="1">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -16332,7 +16389,7 @@
       <c r="X514" s="7"/>
       <c r="Y514" s="6"/>
     </row>
-    <row r="515" ht="13.55" customHeight="1">
+    <row r="515" spans="1:25" ht="13.5" customHeight="1">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -16359,7 +16416,7 @@
       <c r="X515" s="7"/>
       <c r="Y515" s="6"/>
     </row>
-    <row r="516" ht="13.55" customHeight="1">
+    <row r="516" spans="1:25" ht="13.5" customHeight="1">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -16386,7 +16443,7 @@
       <c r="X516" s="7"/>
       <c r="Y516" s="6"/>
     </row>
-    <row r="517" ht="13.55" customHeight="1">
+    <row r="517" spans="1:25" ht="13.5" customHeight="1">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -16413,7 +16470,7 @@
       <c r="X517" s="7"/>
       <c r="Y517" s="6"/>
     </row>
-    <row r="518" ht="13.55" customHeight="1">
+    <row r="518" spans="1:25" ht="13.5" customHeight="1">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -16440,7 +16497,7 @@
       <c r="X518" s="7"/>
       <c r="Y518" s="6"/>
     </row>
-    <row r="519" ht="13.55" customHeight="1">
+    <row r="519" spans="1:25" ht="13.5" customHeight="1">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="8"/>
@@ -16467,7 +16524,7 @@
       <c r="X519" s="7"/>
       <c r="Y519" s="6"/>
     </row>
-    <row r="520" ht="13.55" customHeight="1">
+    <row r="520" spans="1:25" ht="13.5" customHeight="1">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -16494,7 +16551,7 @@
       <c r="X520" s="7"/>
       <c r="Y520" s="6"/>
     </row>
-    <row r="521" ht="13.55" customHeight="1">
+    <row r="521" spans="1:25" ht="13.5" customHeight="1">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -16521,7 +16578,7 @@
       <c r="X521" s="7"/>
       <c r="Y521" s="6"/>
     </row>
-    <row r="522" ht="13.55" customHeight="1">
+    <row r="522" spans="1:25" ht="13.5" customHeight="1">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -16548,7 +16605,7 @@
       <c r="X522" s="7"/>
       <c r="Y522" s="6"/>
     </row>
-    <row r="523" ht="13.55" customHeight="1">
+    <row r="523" spans="1:25" ht="13.5" customHeight="1">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -16575,7 +16632,7 @@
       <c r="X523" s="7"/>
       <c r="Y523" s="6"/>
     </row>
-    <row r="524" ht="13.55" customHeight="1">
+    <row r="524" spans="1:25" ht="13.5" customHeight="1">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -16602,7 +16659,7 @@
       <c r="X524" s="7"/>
       <c r="Y524" s="6"/>
     </row>
-    <row r="525" ht="13.55" customHeight="1">
+    <row r="525" spans="1:25" ht="13.5" customHeight="1">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="8"/>
@@ -16629,7 +16686,7 @@
       <c r="X525" s="7"/>
       <c r="Y525" s="6"/>
     </row>
-    <row r="526" ht="13.55" customHeight="1">
+    <row r="526" spans="1:25" ht="13.5" customHeight="1">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -16656,7 +16713,7 @@
       <c r="X526" s="7"/>
       <c r="Y526" s="6"/>
     </row>
-    <row r="527" ht="13.55" customHeight="1">
+    <row r="527" spans="1:25" ht="13.5" customHeight="1">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -16683,7 +16740,7 @@
       <c r="X527" s="7"/>
       <c r="Y527" s="6"/>
     </row>
-    <row r="528" ht="13.55" customHeight="1">
+    <row r="528" spans="1:25" ht="13.5" customHeight="1">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -16710,7 +16767,7 @@
       <c r="X528" s="7"/>
       <c r="Y528" s="6"/>
     </row>
-    <row r="529" ht="13.55" customHeight="1">
+    <row r="529" spans="1:25" ht="13.5" customHeight="1">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -16737,7 +16794,7 @@
       <c r="X529" s="7"/>
       <c r="Y529" s="6"/>
     </row>
-    <row r="530" ht="13.55" customHeight="1">
+    <row r="530" spans="1:25" ht="13.5" customHeight="1">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -16764,7 +16821,7 @@
       <c r="X530" s="7"/>
       <c r="Y530" s="6"/>
     </row>
-    <row r="531" ht="13.55" customHeight="1">
+    <row r="531" spans="1:25" ht="13.5" customHeight="1">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -16791,7 +16848,7 @@
       <c r="X531" s="7"/>
       <c r="Y531" s="6"/>
     </row>
-    <row r="532" ht="13.55" customHeight="1">
+    <row r="532" spans="1:25" ht="13.5" customHeight="1">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -16818,7 +16875,7 @@
       <c r="X532" s="7"/>
       <c r="Y532" s="6"/>
     </row>
-    <row r="533" ht="13.55" customHeight="1">
+    <row r="533" spans="1:25" ht="13.5" customHeight="1">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -16845,7 +16902,7 @@
       <c r="X533" s="7"/>
       <c r="Y533" s="6"/>
     </row>
-    <row r="534" ht="13.55" customHeight="1">
+    <row r="534" spans="1:25" ht="13.5" customHeight="1">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -16872,7 +16929,7 @@
       <c r="X534" s="7"/>
       <c r="Y534" s="6"/>
     </row>
-    <row r="535" ht="13.55" customHeight="1">
+    <row r="535" spans="1:25" ht="13.5" customHeight="1">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -16899,7 +16956,7 @@
       <c r="X535" s="7"/>
       <c r="Y535" s="6"/>
     </row>
-    <row r="536" ht="13.55" customHeight="1">
+    <row r="536" spans="1:25" ht="13.5" customHeight="1">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -16926,7 +16983,7 @@
       <c r="X536" s="7"/>
       <c r="Y536" s="6"/>
     </row>
-    <row r="537" ht="13.55" customHeight="1">
+    <row r="537" spans="1:25" ht="13.5" customHeight="1">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -16953,7 +17010,7 @@
       <c r="X537" s="7"/>
       <c r="Y537" s="6"/>
     </row>
-    <row r="538" ht="13.55" customHeight="1">
+    <row r="538" spans="1:25" ht="13.5" customHeight="1">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -16980,7 +17037,7 @@
       <c r="X538" s="7"/>
       <c r="Y538" s="6"/>
     </row>
-    <row r="539" ht="13.55" customHeight="1">
+    <row r="539" spans="1:25" ht="13.5" customHeight="1">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -17007,7 +17064,7 @@
       <c r="X539" s="7"/>
       <c r="Y539" s="6"/>
     </row>
-    <row r="540" ht="13.55" customHeight="1">
+    <row r="540" spans="1:25" ht="13.5" customHeight="1">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -17034,7 +17091,7 @@
       <c r="X540" s="7"/>
       <c r="Y540" s="6"/>
     </row>
-    <row r="541" ht="13.55" customHeight="1">
+    <row r="541" spans="1:25" ht="13.5" customHeight="1">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -17061,7 +17118,7 @@
       <c r="X541" s="7"/>
       <c r="Y541" s="6"/>
     </row>
-    <row r="542" ht="13.55" customHeight="1">
+    <row r="542" spans="1:25" ht="13.5" customHeight="1">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -17088,7 +17145,7 @@
       <c r="X542" s="7"/>
       <c r="Y542" s="6"/>
     </row>
-    <row r="543" ht="13.55" customHeight="1">
+    <row r="543" spans="1:25" ht="13.5" customHeight="1">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -17115,7 +17172,7 @@
       <c r="X543" s="7"/>
       <c r="Y543" s="6"/>
     </row>
-    <row r="544" ht="13.55" customHeight="1">
+    <row r="544" spans="1:25" ht="13.5" customHeight="1">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -17142,7 +17199,7 @@
       <c r="X544" s="7"/>
       <c r="Y544" s="6"/>
     </row>
-    <row r="545" ht="13.55" customHeight="1">
+    <row r="545" spans="1:25" ht="13.5" customHeight="1">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -17169,7 +17226,7 @@
       <c r="X545" s="7"/>
       <c r="Y545" s="6"/>
     </row>
-    <row r="546" ht="13.55" customHeight="1">
+    <row r="546" spans="1:25" ht="13.5" customHeight="1">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -17196,7 +17253,7 @@
       <c r="X546" s="7"/>
       <c r="Y546" s="6"/>
     </row>
-    <row r="547" ht="13.55" customHeight="1">
+    <row r="547" spans="1:25" ht="13.5" customHeight="1">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -17223,7 +17280,7 @@
       <c r="X547" s="7"/>
       <c r="Y547" s="6"/>
     </row>
-    <row r="548" ht="13.55" customHeight="1">
+    <row r="548" spans="1:25" ht="13.5" customHeight="1">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -17250,7 +17307,7 @@
       <c r="X548" s="7"/>
       <c r="Y548" s="6"/>
     </row>
-    <row r="549" ht="13.55" customHeight="1">
+    <row r="549" spans="1:25" ht="13.5" customHeight="1">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -17277,7 +17334,7 @@
       <c r="X549" s="7"/>
       <c r="Y549" s="6"/>
     </row>
-    <row r="550" ht="13.55" customHeight="1">
+    <row r="550" spans="1:25" ht="13.5" customHeight="1">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -17304,7 +17361,7 @@
       <c r="X550" s="7"/>
       <c r="Y550" s="6"/>
     </row>
-    <row r="551" ht="13.55" customHeight="1">
+    <row r="551" spans="1:25" ht="13.5" customHeight="1">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -17331,7 +17388,7 @@
       <c r="X551" s="7"/>
       <c r="Y551" s="6"/>
     </row>
-    <row r="552" ht="13.55" customHeight="1">
+    <row r="552" spans="1:25" ht="13.5" customHeight="1">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -17358,7 +17415,7 @@
       <c r="X552" s="7"/>
       <c r="Y552" s="6"/>
     </row>
-    <row r="553" ht="13.55" customHeight="1">
+    <row r="553" spans="1:25" ht="13.5" customHeight="1">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -17385,7 +17442,7 @@
       <c r="X553" s="7"/>
       <c r="Y553" s="6"/>
     </row>
-    <row r="554" ht="13.55" customHeight="1">
+    <row r="554" spans="1:25" ht="13.5" customHeight="1">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -17412,7 +17469,7 @@
       <c r="X554" s="7"/>
       <c r="Y554" s="6"/>
     </row>
-    <row r="555" ht="13.55" customHeight="1">
+    <row r="555" spans="1:25" ht="13.5" customHeight="1">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -17439,7 +17496,7 @@
       <c r="X555" s="7"/>
       <c r="Y555" s="6"/>
     </row>
-    <row r="556" ht="13.55" customHeight="1">
+    <row r="556" spans="1:25" ht="13.5" customHeight="1">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -17466,7 +17523,7 @@
       <c r="X556" s="7"/>
       <c r="Y556" s="6"/>
     </row>
-    <row r="557" ht="13.55" customHeight="1">
+    <row r="557" spans="1:25" ht="13.5" customHeight="1">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -17493,7 +17550,7 @@
       <c r="X557" s="7"/>
       <c r="Y557" s="6"/>
     </row>
-    <row r="558" ht="13.55" customHeight="1">
+    <row r="558" spans="1:25" ht="13.5" customHeight="1">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -17520,7 +17577,7 @@
       <c r="X558" s="7"/>
       <c r="Y558" s="6"/>
     </row>
-    <row r="559" ht="13.55" customHeight="1">
+    <row r="559" spans="1:25" ht="13.5" customHeight="1">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -17547,7 +17604,7 @@
       <c r="X559" s="7"/>
       <c r="Y559" s="6"/>
     </row>
-    <row r="560" ht="13.55" customHeight="1">
+    <row r="560" spans="1:25" ht="13.5" customHeight="1">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -17574,7 +17631,7 @@
       <c r="X560" s="7"/>
       <c r="Y560" s="6"/>
     </row>
-    <row r="561" ht="13.55" customHeight="1">
+    <row r="561" spans="1:25" ht="13.5" customHeight="1">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -17601,7 +17658,7 @@
       <c r="X561" s="7"/>
       <c r="Y561" s="6"/>
     </row>
-    <row r="562" ht="13.55" customHeight="1">
+    <row r="562" spans="1:25" ht="13.5" customHeight="1">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -17628,7 +17685,7 @@
       <c r="X562" s="7"/>
       <c r="Y562" s="6"/>
     </row>
-    <row r="563" ht="13.55" customHeight="1">
+    <row r="563" spans="1:25" ht="13.5" customHeight="1">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -17655,7 +17712,7 @@
       <c r="X563" s="7"/>
       <c r="Y563" s="6"/>
     </row>
-    <row r="564" ht="13.55" customHeight="1">
+    <row r="564" spans="1:25" ht="13.5" customHeight="1">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -17682,7 +17739,7 @@
       <c r="X564" s="7"/>
       <c r="Y564" s="6"/>
     </row>
-    <row r="565" ht="13.55" customHeight="1">
+    <row r="565" spans="1:25" ht="13.5" customHeight="1">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -17709,7 +17766,7 @@
       <c r="X565" s="7"/>
       <c r="Y565" s="6"/>
     </row>
-    <row r="566" ht="13.55" customHeight="1">
+    <row r="566" spans="1:25" ht="13.5" customHeight="1">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -17736,7 +17793,7 @@
       <c r="X566" s="7"/>
       <c r="Y566" s="6"/>
     </row>
-    <row r="567" ht="13.55" customHeight="1">
+    <row r="567" spans="1:25" ht="13.5" customHeight="1">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -17763,7 +17820,7 @@
       <c r="X567" s="7"/>
       <c r="Y567" s="6"/>
     </row>
-    <row r="568" ht="13.55" customHeight="1">
+    <row r="568" spans="1:25" ht="13.5" customHeight="1">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -17790,7 +17847,7 @@
       <c r="X568" s="7"/>
       <c r="Y568" s="6"/>
     </row>
-    <row r="569" ht="13.55" customHeight="1">
+    <row r="569" spans="1:25" ht="13.5" customHeight="1">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -17817,7 +17874,7 @@
       <c r="X569" s="7"/>
       <c r="Y569" s="6"/>
     </row>
-    <row r="570" ht="13.55" customHeight="1">
+    <row r="570" spans="1:25" ht="13.5" customHeight="1">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -17844,7 +17901,7 @@
       <c r="X570" s="7"/>
       <c r="Y570" s="6"/>
     </row>
-    <row r="571" ht="13.55" customHeight="1">
+    <row r="571" spans="1:25" ht="13.5" customHeight="1">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -17871,7 +17928,7 @@
       <c r="X571" s="7"/>
       <c r="Y571" s="6"/>
     </row>
-    <row r="572" ht="13.55" customHeight="1">
+    <row r="572" spans="1:25" ht="13.5" customHeight="1">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -17898,7 +17955,7 @@
       <c r="X572" s="7"/>
       <c r="Y572" s="6"/>
     </row>
-    <row r="573" ht="13.55" customHeight="1">
+    <row r="573" spans="1:25" ht="13.5" customHeight="1">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -17925,7 +17982,7 @@
       <c r="X573" s="7"/>
       <c r="Y573" s="6"/>
     </row>
-    <row r="574" ht="13.55" customHeight="1">
+    <row r="574" spans="1:25" ht="13.5" customHeight="1">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -17952,7 +18009,7 @@
       <c r="X574" s="7"/>
       <c r="Y574" s="6"/>
     </row>
-    <row r="575" ht="13.55" customHeight="1">
+    <row r="575" spans="1:25" ht="13.5" customHeight="1">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -17979,7 +18036,7 @@
       <c r="X575" s="7"/>
       <c r="Y575" s="6"/>
     </row>
-    <row r="576" ht="13.55" customHeight="1">
+    <row r="576" spans="1:25" ht="13.5" customHeight="1">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -18006,7 +18063,7 @@
       <c r="X576" s="7"/>
       <c r="Y576" s="6"/>
     </row>
-    <row r="577" ht="13.55" customHeight="1">
+    <row r="577" spans="1:25" ht="13.5" customHeight="1">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -18033,7 +18090,7 @@
       <c r="X577" s="7"/>
       <c r="Y577" s="6"/>
     </row>
-    <row r="578" ht="13.55" customHeight="1">
+    <row r="578" spans="1:25" ht="13.5" customHeight="1">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -18060,7 +18117,7 @@
       <c r="X578" s="7"/>
       <c r="Y578" s="6"/>
     </row>
-    <row r="579" ht="13.55" customHeight="1">
+    <row r="579" spans="1:25" ht="13.5" customHeight="1">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -18087,7 +18144,7 @@
       <c r="X579" s="7"/>
       <c r="Y579" s="6"/>
     </row>
-    <row r="580" ht="13.55" customHeight="1">
+    <row r="580" spans="1:25" ht="13.5" customHeight="1">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -18114,7 +18171,7 @@
       <c r="X580" s="7"/>
       <c r="Y580" s="6"/>
     </row>
-    <row r="581" ht="13.55" customHeight="1">
+    <row r="581" spans="1:25" ht="13.5" customHeight="1">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -18141,7 +18198,7 @@
       <c r="X581" s="7"/>
       <c r="Y581" s="6"/>
     </row>
-    <row r="582" ht="13.55" customHeight="1">
+    <row r="582" spans="1:25" ht="13.5" customHeight="1">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -18168,7 +18225,7 @@
       <c r="X582" s="7"/>
       <c r="Y582" s="6"/>
     </row>
-    <row r="583" ht="13.55" customHeight="1">
+    <row r="583" spans="1:25" ht="13.5" customHeight="1">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -18195,7 +18252,7 @@
       <c r="X583" s="7"/>
       <c r="Y583" s="6"/>
     </row>
-    <row r="584" ht="13.55" customHeight="1">
+    <row r="584" spans="1:25" ht="13.5" customHeight="1">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -18222,7 +18279,7 @@
       <c r="X584" s="7"/>
       <c r="Y584" s="6"/>
     </row>
-    <row r="585" ht="13.55" customHeight="1">
+    <row r="585" spans="1:25" ht="13.5" customHeight="1">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -18249,7 +18306,7 @@
       <c r="X585" s="7"/>
       <c r="Y585" s="6"/>
     </row>
-    <row r="586" ht="13.55" customHeight="1">
+    <row r="586" spans="1:25" ht="13.5" customHeight="1">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -18276,7 +18333,7 @@
       <c r="X586" s="7"/>
       <c r="Y586" s="6"/>
     </row>
-    <row r="587" ht="13.55" customHeight="1">
+    <row r="587" spans="1:25" ht="13.5" customHeight="1">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -18303,7 +18360,7 @@
       <c r="X587" s="7"/>
       <c r="Y587" s="6"/>
     </row>
-    <row r="588" ht="13.55" customHeight="1">
+    <row r="588" spans="1:25" ht="13.5" customHeight="1">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -18330,7 +18387,7 @@
       <c r="X588" s="7"/>
       <c r="Y588" s="6"/>
     </row>
-    <row r="589" ht="13.55" customHeight="1">
+    <row r="589" spans="1:25" ht="13.5" customHeight="1">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -18357,7 +18414,7 @@
       <c r="X589" s="7"/>
       <c r="Y589" s="6"/>
     </row>
-    <row r="590" ht="13.55" customHeight="1">
+    <row r="590" spans="1:25" ht="13.5" customHeight="1">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -18384,7 +18441,7 @@
       <c r="X590" s="7"/>
       <c r="Y590" s="6"/>
     </row>
-    <row r="591" ht="13.55" customHeight="1">
+    <row r="591" spans="1:25" ht="13.5" customHeight="1">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -18411,7 +18468,7 @@
       <c r="X591" s="7"/>
       <c r="Y591" s="6"/>
     </row>
-    <row r="592" ht="13.55" customHeight="1">
+    <row r="592" spans="1:25" ht="13.5" customHeight="1">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -18438,7 +18495,7 @@
       <c r="X592" s="7"/>
       <c r="Y592" s="6"/>
     </row>
-    <row r="593" ht="13.55" customHeight="1">
+    <row r="593" spans="1:25" ht="13.5" customHeight="1">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -18465,7 +18522,7 @@
       <c r="X593" s="7"/>
       <c r="Y593" s="6"/>
     </row>
-    <row r="594" ht="13.55" customHeight="1">
+    <row r="594" spans="1:25" ht="13.5" customHeight="1">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -18492,7 +18549,7 @@
       <c r="X594" s="7"/>
       <c r="Y594" s="6"/>
     </row>
-    <row r="595" ht="13.55" customHeight="1">
+    <row r="595" spans="1:25" ht="13.5" customHeight="1">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -18519,7 +18576,7 @@
       <c r="X595" s="7"/>
       <c r="Y595" s="6"/>
     </row>
-    <row r="596" ht="13.55" customHeight="1">
+    <row r="596" spans="1:25" ht="13.5" customHeight="1">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -18546,7 +18603,7 @@
       <c r="X596" s="7"/>
       <c r="Y596" s="6"/>
     </row>
-    <row r="597" ht="13.55" customHeight="1">
+    <row r="597" spans="1:25" ht="13.5" customHeight="1">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -18573,7 +18630,7 @@
       <c r="X597" s="7"/>
       <c r="Y597" s="6"/>
     </row>
-    <row r="598" ht="13.55" customHeight="1">
+    <row r="598" spans="1:25" ht="13.5" customHeight="1">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -18600,7 +18657,7 @@
       <c r="X598" s="7"/>
       <c r="Y598" s="6"/>
     </row>
-    <row r="599" ht="13.55" customHeight="1">
+    <row r="599" spans="1:25" ht="13.5" customHeight="1">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -18627,7 +18684,7 @@
       <c r="X599" s="7"/>
       <c r="Y599" s="6"/>
     </row>
-    <row r="600" ht="13.55" customHeight="1">
+    <row r="600" spans="1:25" ht="13.5" customHeight="1">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -18654,7 +18711,7 @@
       <c r="X600" s="7"/>
       <c r="Y600" s="6"/>
     </row>
-    <row r="601" ht="13.55" customHeight="1">
+    <row r="601" spans="1:25" ht="13.5" customHeight="1">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -18681,7 +18738,7 @@
       <c r="X601" s="7"/>
       <c r="Y601" s="6"/>
     </row>
-    <row r="602" ht="13.55" customHeight="1">
+    <row r="602" spans="1:25" ht="13.5" customHeight="1">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -18708,7 +18765,7 @@
       <c r="X602" s="7"/>
       <c r="Y602" s="6"/>
     </row>
-    <row r="603" ht="13.55" customHeight="1">
+    <row r="603" spans="1:25" ht="13.5" customHeight="1">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -18735,7 +18792,7 @@
       <c r="X603" s="7"/>
       <c r="Y603" s="6"/>
     </row>
-    <row r="604" ht="13.55" customHeight="1">
+    <row r="604" spans="1:25" ht="13.5" customHeight="1">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -18762,7 +18819,7 @@
       <c r="X604" s="7"/>
       <c r="Y604" s="6"/>
     </row>
-    <row r="605" ht="13.55" customHeight="1">
+    <row r="605" spans="1:25" ht="13.5" customHeight="1">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -18789,7 +18846,7 @@
       <c r="X605" s="7"/>
       <c r="Y605" s="6"/>
     </row>
-    <row r="606" ht="13.55" customHeight="1">
+    <row r="606" spans="1:25" ht="13.5" customHeight="1">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -18816,7 +18873,7 @@
       <c r="X606" s="7"/>
       <c r="Y606" s="6"/>
     </row>
-    <row r="607" ht="13.55" customHeight="1">
+    <row r="607" spans="1:25" ht="13.5" customHeight="1">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -18843,7 +18900,7 @@
       <c r="X607" s="7"/>
       <c r="Y607" s="6"/>
     </row>
-    <row r="608" ht="13.55" customHeight="1">
+    <row r="608" spans="1:25" ht="13.5" customHeight="1">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -18870,7 +18927,7 @@
       <c r="X608" s="7"/>
       <c r="Y608" s="6"/>
     </row>
-    <row r="609" ht="13.55" customHeight="1">
+    <row r="609" spans="1:25" ht="13.5" customHeight="1">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -18897,7 +18954,7 @@
       <c r="X609" s="7"/>
       <c r="Y609" s="6"/>
     </row>
-    <row r="610" ht="13.55" customHeight="1">
+    <row r="610" spans="1:25" ht="13.5" customHeight="1">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="8"/>
@@ -18924,7 +18981,7 @@
       <c r="X610" s="7"/>
       <c r="Y610" s="6"/>
     </row>
-    <row r="611" ht="13.55" customHeight="1">
+    <row r="611" spans="1:25" ht="13.5" customHeight="1">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -18951,7 +19008,7 @@
       <c r="X611" s="7"/>
       <c r="Y611" s="6"/>
     </row>
-    <row r="612" ht="13.55" customHeight="1">
+    <row r="612" spans="1:25" ht="13.5" customHeight="1">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -18978,7 +19035,7 @@
       <c r="X612" s="7"/>
       <c r="Y612" s="6"/>
     </row>
-    <row r="613" ht="13.55" customHeight="1">
+    <row r="613" spans="1:25" ht="13.5" customHeight="1">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -19005,7 +19062,7 @@
       <c r="X613" s="7"/>
       <c r="Y613" s="6"/>
     </row>
-    <row r="614" ht="13.55" customHeight="1">
+    <row r="614" spans="1:25" ht="13.5" customHeight="1">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -19032,7 +19089,7 @@
       <c r="X614" s="7"/>
       <c r="Y614" s="6"/>
     </row>
-    <row r="615" ht="13.55" customHeight="1">
+    <row r="615" spans="1:25" ht="13.5" customHeight="1">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -19059,7 +19116,7 @@
       <c r="X615" s="7"/>
       <c r="Y615" s="6"/>
     </row>
-    <row r="616" ht="13.55" customHeight="1">
+    <row r="616" spans="1:25" ht="13.5" customHeight="1">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -19086,7 +19143,7 @@
       <c r="X616" s="7"/>
       <c r="Y616" s="6"/>
     </row>
-    <row r="617" ht="13.55" customHeight="1">
+    <row r="617" spans="1:25" ht="13.5" customHeight="1">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -19113,7 +19170,7 @@
       <c r="X617" s="7"/>
       <c r="Y617" s="6"/>
     </row>
-    <row r="618" ht="13.55" customHeight="1">
+    <row r="618" spans="1:25" ht="13.5" customHeight="1">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -19140,7 +19197,7 @@
       <c r="X618" s="7"/>
       <c r="Y618" s="6"/>
     </row>
-    <row r="619" ht="13.55" customHeight="1">
+    <row r="619" spans="1:25" ht="13.5" customHeight="1">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -19167,7 +19224,7 @@
       <c r="X619" s="7"/>
       <c r="Y619" s="6"/>
     </row>
-    <row r="620" ht="13.55" customHeight="1">
+    <row r="620" spans="1:25" ht="13.5" customHeight="1">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -19194,7 +19251,7 @@
       <c r="X620" s="7"/>
       <c r="Y620" s="6"/>
     </row>
-    <row r="621" ht="13.55" customHeight="1">
+    <row r="621" spans="1:25" ht="13.5" customHeight="1">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -19221,7 +19278,7 @@
       <c r="X621" s="7"/>
       <c r="Y621" s="6"/>
     </row>
-    <row r="622" ht="13.55" customHeight="1">
+    <row r="622" spans="1:25" ht="13.5" customHeight="1">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -19248,7 +19305,7 @@
       <c r="X622" s="7"/>
       <c r="Y622" s="6"/>
     </row>
-    <row r="623" ht="13.55" customHeight="1">
+    <row r="623" spans="1:25" ht="13.5" customHeight="1">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -19275,7 +19332,7 @@
       <c r="X623" s="7"/>
       <c r="Y623" s="6"/>
     </row>
-    <row r="624" ht="13.55" customHeight="1">
+    <row r="624" spans="1:25" ht="13.5" customHeight="1">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -19302,7 +19359,7 @@
       <c r="X624" s="7"/>
       <c r="Y624" s="6"/>
     </row>
-    <row r="625" ht="13.55" customHeight="1">
+    <row r="625" spans="1:25" ht="13.5" customHeight="1">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="8"/>
@@ -19329,7 +19386,7 @@
       <c r="X625" s="7"/>
       <c r="Y625" s="6"/>
     </row>
-    <row r="626" ht="13.55" customHeight="1">
+    <row r="626" spans="1:25" ht="13.5" customHeight="1">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="8"/>
@@ -19356,7 +19413,7 @@
       <c r="X626" s="7"/>
       <c r="Y626" s="6"/>
     </row>
-    <row r="627" ht="13.55" customHeight="1">
+    <row r="627" spans="1:25" ht="13.5" customHeight="1">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="8"/>
@@ -19383,7 +19440,7 @@
       <c r="X627" s="7"/>
       <c r="Y627" s="6"/>
     </row>
-    <row r="628" ht="13.55" customHeight="1">
+    <row r="628" spans="1:25" ht="13.5" customHeight="1">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -19410,7 +19467,7 @@
       <c r="X628" s="7"/>
       <c r="Y628" s="6"/>
     </row>
-    <row r="629" ht="13.55" customHeight="1">
+    <row r="629" spans="1:25" ht="13.5" customHeight="1">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -19437,7 +19494,7 @@
       <c r="X629" s="7"/>
       <c r="Y629" s="6"/>
     </row>
-    <row r="630" ht="13.55" customHeight="1">
+    <row r="630" spans="1:25" ht="13.5" customHeight="1">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -19464,7 +19521,7 @@
       <c r="X630" s="7"/>
       <c r="Y630" s="6"/>
     </row>
-    <row r="631" ht="13.55" customHeight="1">
+    <row r="631" spans="1:25" ht="13.5" customHeight="1">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -19491,7 +19548,7 @@
       <c r="X631" s="7"/>
       <c r="Y631" s="6"/>
     </row>
-    <row r="632" ht="13.55" customHeight="1">
+    <row r="632" spans="1:25" ht="13.5" customHeight="1">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="8"/>
@@ -19518,7 +19575,7 @@
       <c r="X632" s="7"/>
       <c r="Y632" s="6"/>
     </row>
-    <row r="633" ht="13.55" customHeight="1">
+    <row r="633" spans="1:25" ht="13.5" customHeight="1">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -19545,7 +19602,7 @@
       <c r="X633" s="7"/>
       <c r="Y633" s="6"/>
     </row>
-    <row r="634" ht="13.55" customHeight="1">
+    <row r="634" spans="1:25" ht="13.5" customHeight="1">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -19572,7 +19629,7 @@
       <c r="X634" s="7"/>
       <c r="Y634" s="6"/>
     </row>
-    <row r="635" ht="13.55" customHeight="1">
+    <row r="635" spans="1:25" ht="13.5" customHeight="1">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="8"/>
@@ -19599,7 +19656,7 @@
       <c r="X635" s="7"/>
       <c r="Y635" s="6"/>
     </row>
-    <row r="636" ht="13.55" customHeight="1">
+    <row r="636" spans="1:25" ht="13.5" customHeight="1">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -19626,7 +19683,7 @@
       <c r="X636" s="7"/>
       <c r="Y636" s="6"/>
     </row>
-    <row r="637" ht="13.55" customHeight="1">
+    <row r="637" spans="1:25" ht="13.5" customHeight="1">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -19653,7 +19710,7 @@
       <c r="X637" s="7"/>
       <c r="Y637" s="6"/>
     </row>
-    <row r="638" ht="13.55" customHeight="1">
+    <row r="638" spans="1:25" ht="13.5" customHeight="1">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -19680,7 +19737,7 @@
       <c r="X638" s="7"/>
       <c r="Y638" s="6"/>
     </row>
-    <row r="639" ht="13.55" customHeight="1">
+    <row r="639" spans="1:25" ht="13.5" customHeight="1">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -19707,7 +19764,7 @@
       <c r="X639" s="7"/>
       <c r="Y639" s="6"/>
     </row>
-    <row r="640" ht="13.55" customHeight="1">
+    <row r="640" spans="1:25" ht="13.5" customHeight="1">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -19734,7 +19791,7 @@
       <c r="X640" s="7"/>
       <c r="Y640" s="6"/>
     </row>
-    <row r="641" ht="13.55" customHeight="1">
+    <row r="641" spans="1:25" ht="13.5" customHeight="1">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -19761,7 +19818,7 @@
       <c r="X641" s="7"/>
       <c r="Y641" s="6"/>
     </row>
-    <row r="642" ht="13.55" customHeight="1">
+    <row r="642" spans="1:25" ht="13.5" customHeight="1">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="8"/>
@@ -19788,7 +19845,7 @@
       <c r="X642" s="7"/>
       <c r="Y642" s="6"/>
     </row>
-    <row r="643" ht="13.55" customHeight="1">
+    <row r="643" spans="1:25" ht="13.5" customHeight="1">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="8"/>
@@ -19815,7 +19872,7 @@
       <c r="X643" s="7"/>
       <c r="Y643" s="6"/>
     </row>
-    <row r="644" ht="13.55" customHeight="1">
+    <row r="644" spans="1:25" ht="13.5" customHeight="1">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="8"/>
@@ -19842,7 +19899,7 @@
       <c r="X644" s="7"/>
       <c r="Y644" s="6"/>
     </row>
-    <row r="645" ht="13.55" customHeight="1">
+    <row r="645" spans="1:25" ht="13.5" customHeight="1">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -19869,7 +19926,7 @@
       <c r="X645" s="7"/>
       <c r="Y645" s="6"/>
     </row>
-    <row r="646" ht="13.55" customHeight="1">
+    <row r="646" spans="1:25" ht="13.5" customHeight="1">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="8"/>
@@ -19896,7 +19953,7 @@
       <c r="X646" s="7"/>
       <c r="Y646" s="6"/>
     </row>
-    <row r="647" ht="13.55" customHeight="1">
+    <row r="647" spans="1:25" ht="13.5" customHeight="1">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -19923,7 +19980,7 @@
       <c r="X647" s="7"/>
       <c r="Y647" s="6"/>
     </row>
-    <row r="648" ht="13.55" customHeight="1">
+    <row r="648" spans="1:25" ht="13.5" customHeight="1">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="8"/>
@@ -19950,7 +20007,7 @@
       <c r="X648" s="7"/>
       <c r="Y648" s="6"/>
     </row>
-    <row r="649" ht="13.55" customHeight="1">
+    <row r="649" spans="1:25" ht="13.5" customHeight="1">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -19977,7 +20034,7 @@
       <c r="X649" s="7"/>
       <c r="Y649" s="6"/>
     </row>
-    <row r="650" ht="13.55" customHeight="1">
+    <row r="650" spans="1:25" ht="13.5" customHeight="1">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="8"/>
@@ -20004,7 +20061,7 @@
       <c r="X650" s="7"/>
       <c r="Y650" s="6"/>
     </row>
-    <row r="651" ht="13.55" customHeight="1">
+    <row r="651" spans="1:25" ht="13.5" customHeight="1">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -20031,7 +20088,7 @@
       <c r="X651" s="7"/>
       <c r="Y651" s="6"/>
     </row>
-    <row r="652" ht="13.55" customHeight="1">
+    <row r="652" spans="1:25" ht="13.5" customHeight="1">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -20058,7 +20115,7 @@
       <c r="X652" s="7"/>
       <c r="Y652" s="6"/>
     </row>
-    <row r="653" ht="13.55" customHeight="1">
+    <row r="653" spans="1:25" ht="13.5" customHeight="1">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -20085,7 +20142,7 @@
       <c r="X653" s="7"/>
       <c r="Y653" s="6"/>
     </row>
-    <row r="654" ht="13.55" customHeight="1">
+    <row r="654" spans="1:25" ht="13.5" customHeight="1">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -20112,7 +20169,7 @@
       <c r="X654" s="7"/>
       <c r="Y654" s="6"/>
     </row>
-    <row r="655" ht="13.55" customHeight="1">
+    <row r="655" spans="1:25" ht="13.5" customHeight="1">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="8"/>
@@ -20139,7 +20196,7 @@
       <c r="X655" s="7"/>
       <c r="Y655" s="6"/>
     </row>
-    <row r="656" ht="13.55" customHeight="1">
+    <row r="656" spans="1:25" ht="13.5" customHeight="1">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="8"/>
@@ -20166,7 +20223,7 @@
       <c r="X656" s="7"/>
       <c r="Y656" s="6"/>
     </row>
-    <row r="657" ht="13.55" customHeight="1">
+    <row r="657" spans="1:25" ht="13.5" customHeight="1">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="8"/>
@@ -20193,7 +20250,7 @@
       <c r="X657" s="7"/>
       <c r="Y657" s="6"/>
     </row>
-    <row r="658" ht="13.55" customHeight="1">
+    <row r="658" spans="1:25" ht="13.5" customHeight="1">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="8"/>
@@ -20220,7 +20277,7 @@
       <c r="X658" s="7"/>
       <c r="Y658" s="6"/>
     </row>
-    <row r="659" ht="13.55" customHeight="1">
+    <row r="659" spans="1:25" ht="13.5" customHeight="1">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="8"/>
@@ -20247,7 +20304,7 @@
       <c r="X659" s="7"/>
       <c r="Y659" s="6"/>
     </row>
-    <row r="660" ht="13.55" customHeight="1">
+    <row r="660" spans="1:25" ht="13.5" customHeight="1">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="8"/>
@@ -20274,7 +20331,7 @@
       <c r="X660" s="7"/>
       <c r="Y660" s="6"/>
     </row>
-    <row r="661" ht="13.55" customHeight="1">
+    <row r="661" spans="1:25" ht="13.5" customHeight="1">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="8"/>
@@ -20301,7 +20358,7 @@
       <c r="X661" s="7"/>
       <c r="Y661" s="6"/>
     </row>
-    <row r="662" ht="13.55" customHeight="1">
+    <row r="662" spans="1:25" ht="13.5" customHeight="1">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="8"/>
@@ -20328,7 +20385,7 @@
       <c r="X662" s="7"/>
       <c r="Y662" s="6"/>
     </row>
-    <row r="663" ht="13.55" customHeight="1">
+    <row r="663" spans="1:25" ht="13.5" customHeight="1">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="8"/>
@@ -20355,7 +20412,7 @@
       <c r="X663" s="7"/>
       <c r="Y663" s="6"/>
     </row>
-    <row r="664" ht="13.55" customHeight="1">
+    <row r="664" spans="1:25" ht="13.5" customHeight="1">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="8"/>
@@ -20382,7 +20439,7 @@
       <c r="X664" s="7"/>
       <c r="Y664" s="6"/>
     </row>
-    <row r="665" ht="13.55" customHeight="1">
+    <row r="665" spans="1:25" ht="13.5" customHeight="1">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -20409,7 +20466,7 @@
       <c r="X665" s="7"/>
       <c r="Y665" s="6"/>
     </row>
-    <row r="666" ht="13.55" customHeight="1">
+    <row r="666" spans="1:25" ht="13.5" customHeight="1">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -20436,7 +20493,7 @@
       <c r="X666" s="7"/>
       <c r="Y666" s="6"/>
     </row>
-    <row r="667" ht="13.55" customHeight="1">
+    <row r="667" spans="1:25" ht="13.5" customHeight="1">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -20463,7 +20520,7 @@
       <c r="X667" s="7"/>
       <c r="Y667" s="6"/>
     </row>
-    <row r="668" ht="13.55" customHeight="1">
+    <row r="668" spans="1:25" ht="13.5" customHeight="1">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="8"/>
@@ -20490,7 +20547,7 @@
       <c r="X668" s="7"/>
       <c r="Y668" s="6"/>
     </row>
-    <row r="669" ht="13.55" customHeight="1">
+    <row r="669" spans="1:25" ht="13.5" customHeight="1">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="8"/>
@@ -20517,7 +20574,7 @@
       <c r="X669" s="7"/>
       <c r="Y669" s="6"/>
     </row>
-    <row r="670" ht="13.55" customHeight="1">
+    <row r="670" spans="1:25" ht="13.5" customHeight="1">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="8"/>
@@ -20544,7 +20601,7 @@
       <c r="X670" s="7"/>
       <c r="Y670" s="6"/>
     </row>
-    <row r="671" ht="13.55" customHeight="1">
+    <row r="671" spans="1:25" ht="13.5" customHeight="1">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="8"/>
@@ -20571,7 +20628,7 @@
       <c r="X671" s="7"/>
       <c r="Y671" s="6"/>
     </row>
-    <row r="672" ht="13.55" customHeight="1">
+    <row r="672" spans="1:25" ht="13.5" customHeight="1">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="8"/>
@@ -20598,7 +20655,7 @@
       <c r="X672" s="7"/>
       <c r="Y672" s="6"/>
     </row>
-    <row r="673" ht="13.55" customHeight="1">
+    <row r="673" spans="1:25" ht="13.5" customHeight="1">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="8"/>
@@ -20625,7 +20682,7 @@
       <c r="X673" s="7"/>
       <c r="Y673" s="6"/>
     </row>
-    <row r="674" ht="13.55" customHeight="1">
+    <row r="674" spans="1:25" ht="13.5" customHeight="1">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="8"/>
@@ -20652,7 +20709,7 @@
       <c r="X674" s="7"/>
       <c r="Y674" s="6"/>
     </row>
-    <row r="675" ht="13.55" customHeight="1">
+    <row r="675" spans="1:25" ht="13.5" customHeight="1">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="8"/>
@@ -20679,7 +20736,7 @@
       <c r="X675" s="7"/>
       <c r="Y675" s="6"/>
     </row>
-    <row r="676" ht="13.55" customHeight="1">
+    <row r="676" spans="1:25" ht="13.5" customHeight="1">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="8"/>
@@ -20706,7 +20763,7 @@
       <c r="X676" s="7"/>
       <c r="Y676" s="6"/>
     </row>
-    <row r="677" ht="13.55" customHeight="1">
+    <row r="677" spans="1:25" ht="13.5" customHeight="1">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="8"/>
@@ -20733,7 +20790,7 @@
       <c r="X677" s="7"/>
       <c r="Y677" s="6"/>
     </row>
-    <row r="678" ht="13.55" customHeight="1">
+    <row r="678" spans="1:25" ht="13.5" customHeight="1">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="8"/>
@@ -20760,7 +20817,7 @@
       <c r="X678" s="7"/>
       <c r="Y678" s="6"/>
     </row>
-    <row r="679" ht="13.55" customHeight="1">
+    <row r="679" spans="1:25" ht="13.5" customHeight="1">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="8"/>
@@ -20787,7 +20844,7 @@
       <c r="X679" s="7"/>
       <c r="Y679" s="6"/>
     </row>
-    <row r="680" ht="13.55" customHeight="1">
+    <row r="680" spans="1:25" ht="13.5" customHeight="1">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="8"/>
@@ -20814,7 +20871,7 @@
       <c r="X680" s="7"/>
       <c r="Y680" s="6"/>
     </row>
-    <row r="681" ht="13.55" customHeight="1">
+    <row r="681" spans="1:25" ht="13.5" customHeight="1">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="8"/>
@@ -20841,7 +20898,7 @@
       <c r="X681" s="7"/>
       <c r="Y681" s="6"/>
     </row>
-    <row r="682" ht="13.55" customHeight="1">
+    <row r="682" spans="1:25" ht="13.5" customHeight="1">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="8"/>
@@ -20868,7 +20925,7 @@
       <c r="X682" s="7"/>
       <c r="Y682" s="6"/>
     </row>
-    <row r="683" ht="13.55" customHeight="1">
+    <row r="683" spans="1:25" ht="13.5" customHeight="1">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="8"/>
@@ -20895,7 +20952,7 @@
       <c r="X683" s="7"/>
       <c r="Y683" s="6"/>
     </row>
-    <row r="684" ht="13.55" customHeight="1">
+    <row r="684" spans="1:25" ht="13.5" customHeight="1">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="8"/>
@@ -20922,7 +20979,7 @@
       <c r="X684" s="7"/>
       <c r="Y684" s="6"/>
     </row>
-    <row r="685" ht="13.55" customHeight="1">
+    <row r="685" spans="1:25" ht="13.5" customHeight="1">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="8"/>
@@ -20949,7 +21006,7 @@
       <c r="X685" s="7"/>
       <c r="Y685" s="6"/>
     </row>
-    <row r="686" ht="13.55" customHeight="1">
+    <row r="686" spans="1:25" ht="13.5" customHeight="1">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="8"/>
@@ -20976,7 +21033,7 @@
       <c r="X686" s="7"/>
       <c r="Y686" s="6"/>
     </row>
-    <row r="687" ht="13.55" customHeight="1">
+    <row r="687" spans="1:25" ht="13.5" customHeight="1">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="8"/>
@@ -21003,7 +21060,7 @@
       <c r="X687" s="7"/>
       <c r="Y687" s="6"/>
     </row>
-    <row r="688" ht="13.55" customHeight="1">
+    <row r="688" spans="1:25" ht="13.5" customHeight="1">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="8"/>
@@ -21030,7 +21087,7 @@
       <c r="X688" s="7"/>
       <c r="Y688" s="6"/>
     </row>
-    <row r="689" ht="13.55" customHeight="1">
+    <row r="689" spans="1:25" ht="13.5" customHeight="1">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="8"/>
@@ -21057,7 +21114,7 @@
       <c r="X689" s="7"/>
       <c r="Y689" s="6"/>
     </row>
-    <row r="690" ht="13.55" customHeight="1">
+    <row r="690" spans="1:25" ht="13.5" customHeight="1">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="8"/>
@@ -21084,7 +21141,7 @@
       <c r="X690" s="7"/>
       <c r="Y690" s="6"/>
     </row>
-    <row r="691" ht="13.55" customHeight="1">
+    <row r="691" spans="1:25" ht="13.5" customHeight="1">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="8"/>
@@ -21111,7 +21168,7 @@
       <c r="X691" s="7"/>
       <c r="Y691" s="6"/>
     </row>
-    <row r="692" ht="13.55" customHeight="1">
+    <row r="692" spans="1:25" ht="13.5" customHeight="1">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="8"/>
@@ -21138,7 +21195,7 @@
       <c r="X692" s="7"/>
       <c r="Y692" s="6"/>
     </row>
-    <row r="693" ht="13.55" customHeight="1">
+    <row r="693" spans="1:25" ht="13.5" customHeight="1">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -21165,7 +21222,7 @@
       <c r="X693" s="7"/>
       <c r="Y693" s="6"/>
     </row>
-    <row r="694" ht="13.55" customHeight="1">
+    <row r="694" spans="1:25" ht="13.5" customHeight="1">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="8"/>
@@ -21192,7 +21249,7 @@
       <c r="X694" s="7"/>
       <c r="Y694" s="6"/>
     </row>
-    <row r="695" ht="13.55" customHeight="1">
+    <row r="695" spans="1:25" ht="13.5" customHeight="1">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="8"/>
@@ -21219,7 +21276,7 @@
       <c r="X695" s="7"/>
       <c r="Y695" s="6"/>
     </row>
-    <row r="696" ht="13.55" customHeight="1">
+    <row r="696" spans="1:25" ht="13.5" customHeight="1">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -21246,7 +21303,7 @@
       <c r="X696" s="7"/>
       <c r="Y696" s="6"/>
     </row>
-    <row r="697" ht="13.55" customHeight="1">
+    <row r="697" spans="1:25" ht="13.5" customHeight="1">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -21273,7 +21330,7 @@
       <c r="X697" s="7"/>
       <c r="Y697" s="6"/>
     </row>
-    <row r="698" ht="13.55" customHeight="1">
+    <row r="698" spans="1:25" ht="13.5" customHeight="1">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -21300,7 +21357,7 @@
       <c r="X698" s="7"/>
       <c r="Y698" s="6"/>
     </row>
-    <row r="699" ht="13.55" customHeight="1">
+    <row r="699" spans="1:25" ht="13.5" customHeight="1">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -21327,7 +21384,7 @@
       <c r="X699" s="7"/>
       <c r="Y699" s="6"/>
     </row>
-    <row r="700" ht="13.55" customHeight="1">
+    <row r="700" spans="1:25" ht="13.5" customHeight="1">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -21354,7 +21411,7 @@
       <c r="X700" s="7"/>
       <c r="Y700" s="6"/>
     </row>
-    <row r="701" ht="13.55" customHeight="1">
+    <row r="701" spans="1:25" ht="13.5" customHeight="1">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -21381,7 +21438,7 @@
       <c r="X701" s="7"/>
       <c r="Y701" s="6"/>
     </row>
-    <row r="702" ht="13.55" customHeight="1">
+    <row r="702" spans="1:25" ht="13.5" customHeight="1">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -21408,7 +21465,7 @@
       <c r="X702" s="7"/>
       <c r="Y702" s="6"/>
     </row>
-    <row r="703" ht="13.55" customHeight="1">
+    <row r="703" spans="1:25" ht="13.5" customHeight="1">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -21435,7 +21492,7 @@
       <c r="X703" s="7"/>
       <c r="Y703" s="6"/>
     </row>
-    <row r="704" ht="13.55" customHeight="1">
+    <row r="704" spans="1:25" ht="13.5" customHeight="1">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -21462,7 +21519,7 @@
       <c r="X704" s="7"/>
       <c r="Y704" s="6"/>
     </row>
-    <row r="705" ht="13.55" customHeight="1">
+    <row r="705" spans="1:25" ht="13.5" customHeight="1">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -21489,7 +21546,7 @@
       <c r="X705" s="7"/>
       <c r="Y705" s="6"/>
     </row>
-    <row r="706" ht="13.55" customHeight="1">
+    <row r="706" spans="1:25" ht="13.5" customHeight="1">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -21516,7 +21573,7 @@
       <c r="X706" s="7"/>
       <c r="Y706" s="6"/>
     </row>
-    <row r="707" ht="13.55" customHeight="1">
+    <row r="707" spans="1:25" ht="13.5" customHeight="1">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -21543,7 +21600,7 @@
       <c r="X707" s="7"/>
       <c r="Y707" s="6"/>
     </row>
-    <row r="708" ht="13.55" customHeight="1">
+    <row r="708" spans="1:25" ht="13.5" customHeight="1">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -21570,7 +21627,7 @@
       <c r="X708" s="7"/>
       <c r="Y708" s="6"/>
     </row>
-    <row r="709" ht="13.55" customHeight="1">
+    <row r="709" spans="1:25" ht="13.5" customHeight="1">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -21597,7 +21654,7 @@
       <c r="X709" s="7"/>
       <c r="Y709" s="6"/>
     </row>
-    <row r="710" ht="13.55" customHeight="1">
+    <row r="710" spans="1:25" ht="13.5" customHeight="1">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -21624,7 +21681,7 @@
       <c r="X710" s="7"/>
       <c r="Y710" s="6"/>
     </row>
-    <row r="711" ht="13.55" customHeight="1">
+    <row r="711" spans="1:25" ht="13.5" customHeight="1">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -21651,7 +21708,7 @@
       <c r="X711" s="7"/>
       <c r="Y711" s="6"/>
     </row>
-    <row r="712" ht="13.55" customHeight="1">
+    <row r="712" spans="1:25" ht="13.5" customHeight="1">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -21678,7 +21735,7 @@
       <c r="X712" s="7"/>
       <c r="Y712" s="6"/>
     </row>
-    <row r="713" ht="13.55" customHeight="1">
+    <row r="713" spans="1:25" ht="13.5" customHeight="1">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -21705,7 +21762,7 @@
       <c r="X713" s="7"/>
       <c r="Y713" s="6"/>
     </row>
-    <row r="714" ht="13.55" customHeight="1">
+    <row r="714" spans="1:25" ht="13.5" customHeight="1">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -21732,7 +21789,7 @@
       <c r="X714" s="7"/>
       <c r="Y714" s="6"/>
     </row>
-    <row r="715" ht="13.55" customHeight="1">
+    <row r="715" spans="1:25" ht="13.5" customHeight="1">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -21759,7 +21816,7 @@
       <c r="X715" s="7"/>
       <c r="Y715" s="6"/>
     </row>
-    <row r="716" ht="13.55" customHeight="1">
+    <row r="716" spans="1:25" ht="13.5" customHeight="1">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -21786,7 +21843,7 @@
       <c r="X716" s="7"/>
       <c r="Y716" s="6"/>
     </row>
-    <row r="717" ht="13.55" customHeight="1">
+    <row r="717" spans="1:25" ht="13.5" customHeight="1">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -21813,7 +21870,7 @@
       <c r="X717" s="7"/>
       <c r="Y717" s="6"/>
     </row>
-    <row r="718" ht="13.55" customHeight="1">
+    <row r="718" spans="1:25" ht="13.5" customHeight="1">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -21840,7 +21897,7 @@
       <c r="X718" s="7"/>
       <c r="Y718" s="6"/>
     </row>
-    <row r="719" ht="13.55" customHeight="1">
+    <row r="719" spans="1:25" ht="13.5" customHeight="1">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -21867,7 +21924,7 @@
       <c r="X719" s="7"/>
       <c r="Y719" s="6"/>
     </row>
-    <row r="720" ht="13.55" customHeight="1">
+    <row r="720" spans="1:25" ht="13.5" customHeight="1">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -21894,7 +21951,7 @@
       <c r="X720" s="7"/>
       <c r="Y720" s="6"/>
     </row>
-    <row r="721" ht="13.55" customHeight="1">
+    <row r="721" spans="1:25" ht="13.5" customHeight="1">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -21921,7 +21978,7 @@
       <c r="X721" s="7"/>
       <c r="Y721" s="6"/>
     </row>
-    <row r="722" ht="13.55" customHeight="1">
+    <row r="722" spans="1:25" ht="13.5" customHeight="1">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -21948,7 +22005,7 @@
       <c r="X722" s="7"/>
       <c r="Y722" s="6"/>
     </row>
-    <row r="723" ht="13.55" customHeight="1">
+    <row r="723" spans="1:25" ht="13.5" customHeight="1">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -21975,7 +22032,7 @@
       <c r="X723" s="7"/>
       <c r="Y723" s="6"/>
     </row>
-    <row r="724" ht="13.55" customHeight="1">
+    <row r="724" spans="1:25" ht="13.5" customHeight="1">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -22002,7 +22059,7 @@
       <c r="X724" s="7"/>
       <c r="Y724" s="6"/>
     </row>
-    <row r="725" ht="13.55" customHeight="1">
+    <row r="725" spans="1:25" ht="13.5" customHeight="1">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -22029,7 +22086,7 @@
       <c r="X725" s="7"/>
       <c r="Y725" s="6"/>
     </row>
-    <row r="726" ht="13.55" customHeight="1">
+    <row r="726" spans="1:25" ht="13.5" customHeight="1">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -22056,7 +22113,7 @@
       <c r="X726" s="7"/>
       <c r="Y726" s="6"/>
     </row>
-    <row r="727" ht="13.55" customHeight="1">
+    <row r="727" spans="1:25" ht="13.5" customHeight="1">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -22083,7 +22140,7 @@
       <c r="X727" s="7"/>
       <c r="Y727" s="6"/>
     </row>
-    <row r="728" ht="13.55" customHeight="1">
+    <row r="728" spans="1:25" ht="13.5" customHeight="1">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -22110,7 +22167,7 @@
       <c r="X728" s="7"/>
       <c r="Y728" s="6"/>
     </row>
-    <row r="729" ht="13.55" customHeight="1">
+    <row r="729" spans="1:25" ht="13.5" customHeight="1">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -22137,7 +22194,7 @@
       <c r="X729" s="7"/>
       <c r="Y729" s="6"/>
     </row>
-    <row r="730" ht="13.55" customHeight="1">
+    <row r="730" spans="1:25" ht="13.5" customHeight="1">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -22164,7 +22221,7 @@
       <c r="X730" s="7"/>
       <c r="Y730" s="6"/>
     </row>
-    <row r="731" ht="13.55" customHeight="1">
+    <row r="731" spans="1:25" ht="13.5" customHeight="1">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -22191,7 +22248,7 @@
       <c r="X731" s="7"/>
       <c r="Y731" s="6"/>
     </row>
-    <row r="732" ht="13.55" customHeight="1">
+    <row r="732" spans="1:25" ht="13.5" customHeight="1">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -22218,7 +22275,7 @@
       <c r="X732" s="7"/>
       <c r="Y732" s="6"/>
     </row>
-    <row r="733" ht="13.55" customHeight="1">
+    <row r="733" spans="1:25" ht="13.5" customHeight="1">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -22245,7 +22302,7 @@
       <c r="X733" s="7"/>
       <c r="Y733" s="6"/>
     </row>
-    <row r="734" ht="13.55" customHeight="1">
+    <row r="734" spans="1:25" ht="13.5" customHeight="1">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -22272,7 +22329,7 @@
       <c r="X734" s="7"/>
       <c r="Y734" s="6"/>
     </row>
-    <row r="735" ht="13.55" customHeight="1">
+    <row r="735" spans="1:25" ht="13.5" customHeight="1">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -22299,7 +22356,7 @@
       <c r="X735" s="7"/>
       <c r="Y735" s="6"/>
     </row>
-    <row r="736" ht="13.55" customHeight="1">
+    <row r="736" spans="1:25" ht="13.5" customHeight="1">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -22326,7 +22383,7 @@
       <c r="X736" s="7"/>
       <c r="Y736" s="6"/>
     </row>
-    <row r="737" ht="13.55" customHeight="1">
+    <row r="737" spans="1:25" ht="13.5" customHeight="1">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -22353,7 +22410,7 @@
       <c r="X737" s="7"/>
       <c r="Y737" s="6"/>
     </row>
-    <row r="738" ht="13.55" customHeight="1">
+    <row r="738" spans="1:25" ht="13.5" customHeight="1">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -22380,7 +22437,7 @@
       <c r="X738" s="7"/>
       <c r="Y738" s="6"/>
     </row>
-    <row r="739" ht="13.55" customHeight="1">
+    <row r="739" spans="1:25" ht="13.5" customHeight="1">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -22407,7 +22464,7 @@
       <c r="X739" s="7"/>
       <c r="Y739" s="6"/>
     </row>
-    <row r="740" ht="13.55" customHeight="1">
+    <row r="740" spans="1:25" ht="13.5" customHeight="1">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -22434,7 +22491,7 @@
       <c r="X740" s="7"/>
       <c r="Y740" s="6"/>
     </row>
-    <row r="741" ht="13.55" customHeight="1">
+    <row r="741" spans="1:25" ht="13.5" customHeight="1">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -22461,7 +22518,7 @@
       <c r="X741" s="7"/>
       <c r="Y741" s="6"/>
     </row>
-    <row r="742" ht="13.55" customHeight="1">
+    <row r="742" spans="1:25" ht="13.5" customHeight="1">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -22488,7 +22545,7 @@
       <c r="X742" s="7"/>
       <c r="Y742" s="6"/>
     </row>
-    <row r="743" ht="13.55" customHeight="1">
+    <row r="743" spans="1:25" ht="13.5" customHeight="1">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -22515,7 +22572,7 @@
       <c r="X743" s="7"/>
       <c r="Y743" s="6"/>
     </row>
-    <row r="744" ht="13.55" customHeight="1">
+    <row r="744" spans="1:25" ht="13.5" customHeight="1">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -22542,7 +22599,7 @@
       <c r="X744" s="7"/>
       <c r="Y744" s="6"/>
     </row>
-    <row r="745" ht="13.55" customHeight="1">
+    <row r="745" spans="1:25" ht="13.5" customHeight="1">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -22569,7 +22626,7 @@
       <c r="X745" s="7"/>
       <c r="Y745" s="6"/>
     </row>
-    <row r="746" ht="13.55" customHeight="1">
+    <row r="746" spans="1:25" ht="13.5" customHeight="1">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -22596,7 +22653,7 @@
       <c r="X746" s="7"/>
       <c r="Y746" s="6"/>
     </row>
-    <row r="747" ht="13.55" customHeight="1">
+    <row r="747" spans="1:25" ht="13.5" customHeight="1">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -22623,7 +22680,7 @@
       <c r="X747" s="7"/>
       <c r="Y747" s="6"/>
     </row>
-    <row r="748" ht="13.55" customHeight="1">
+    <row r="748" spans="1:25" ht="13.5" customHeight="1">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -22650,7 +22707,7 @@
       <c r="X748" s="7"/>
       <c r="Y748" s="6"/>
     </row>
-    <row r="749" ht="13.55" customHeight="1">
+    <row r="749" spans="1:25" ht="13.5" customHeight="1">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -22677,7 +22734,7 @@
       <c r="X749" s="7"/>
       <c r="Y749" s="6"/>
     </row>
-    <row r="750" ht="13.55" customHeight="1">
+    <row r="750" spans="1:25" ht="13.5" customHeight="1">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -22704,7 +22761,7 @@
       <c r="X750" s="7"/>
       <c r="Y750" s="6"/>
     </row>
-    <row r="751" ht="13.55" customHeight="1">
+    <row r="751" spans="1:25" ht="13.5" customHeight="1">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -22731,7 +22788,7 @@
       <c r="X751" s="7"/>
       <c r="Y751" s="6"/>
     </row>
-    <row r="752" ht="13.55" customHeight="1">
+    <row r="752" spans="1:25" ht="13.5" customHeight="1">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -22758,7 +22815,7 @@
       <c r="X752" s="7"/>
       <c r="Y752" s="6"/>
     </row>
-    <row r="753" ht="13.55" customHeight="1">
+    <row r="753" spans="1:25" ht="13.5" customHeight="1">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -22785,7 +22842,7 @@
       <c r="X753" s="7"/>
       <c r="Y753" s="6"/>
     </row>
-    <row r="754" ht="13.55" customHeight="1">
+    <row r="754" spans="1:25" ht="13.5" customHeight="1">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -22812,7 +22869,7 @@
       <c r="X754" s="7"/>
       <c r="Y754" s="6"/>
     </row>
-    <row r="755" ht="13.55" customHeight="1">
+    <row r="755" spans="1:25" ht="13.5" customHeight="1">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -22839,7 +22896,7 @@
       <c r="X755" s="7"/>
       <c r="Y755" s="6"/>
     </row>
-    <row r="756" ht="13.55" customHeight="1">
+    <row r="756" spans="1:25" ht="13.5" customHeight="1">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -22866,7 +22923,7 @@
       <c r="X756" s="7"/>
       <c r="Y756" s="6"/>
     </row>
-    <row r="757" ht="13.55" customHeight="1">
+    <row r="757" spans="1:25" ht="13.5" customHeight="1">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -22893,7 +22950,7 @@
       <c r="X757" s="7"/>
       <c r="Y757" s="6"/>
     </row>
-    <row r="758" ht="13.55" customHeight="1">
+    <row r="758" spans="1:25" ht="13.5" customHeight="1">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -22920,7 +22977,7 @@
       <c r="X758" s="7"/>
       <c r="Y758" s="6"/>
     </row>
-    <row r="759" ht="13.55" customHeight="1">
+    <row r="759" spans="1:25" ht="13.5" customHeight="1">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -22947,7 +23004,7 @@
       <c r="X759" s="7"/>
       <c r="Y759" s="6"/>
     </row>
-    <row r="760" ht="13.55" customHeight="1">
+    <row r="760" spans="1:25" ht="13.5" customHeight="1">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="8"/>
@@ -22974,7 +23031,7 @@
       <c r="X760" s="7"/>
       <c r="Y760" s="6"/>
     </row>
-    <row r="761" ht="13.55" customHeight="1">
+    <row r="761" spans="1:25" ht="13.5" customHeight="1">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="8"/>
@@ -23001,7 +23058,7 @@
       <c r="X761" s="7"/>
       <c r="Y761" s="6"/>
     </row>
-    <row r="762" ht="13.55" customHeight="1">
+    <row r="762" spans="1:25" ht="13.5" customHeight="1">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="8"/>
@@ -23028,7 +23085,7 @@
       <c r="X762" s="7"/>
       <c r="Y762" s="6"/>
     </row>
-    <row r="763" ht="13.55" customHeight="1">
+    <row r="763" spans="1:25" ht="13.5" customHeight="1">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="8"/>
@@ -23055,7 +23112,7 @@
       <c r="X763" s="7"/>
       <c r="Y763" s="6"/>
     </row>
-    <row r="764" ht="13.55" customHeight="1">
+    <row r="764" spans="1:25" ht="13.5" customHeight="1">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="8"/>
@@ -23082,7 +23139,7 @@
       <c r="X764" s="7"/>
       <c r="Y764" s="6"/>
     </row>
-    <row r="765" ht="13.55" customHeight="1">
+    <row r="765" spans="1:25" ht="13.5" customHeight="1">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="8"/>
@@ -23109,7 +23166,7 @@
       <c r="X765" s="7"/>
       <c r="Y765" s="6"/>
     </row>
-    <row r="766" ht="13.55" customHeight="1">
+    <row r="766" spans="1:25" ht="13.5" customHeight="1">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="8"/>
@@ -23136,7 +23193,7 @@
       <c r="X766" s="7"/>
       <c r="Y766" s="6"/>
     </row>
-    <row r="767" ht="13.55" customHeight="1">
+    <row r="767" spans="1:25" ht="13.5" customHeight="1">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="8"/>
@@ -23163,7 +23220,7 @@
       <c r="X767" s="7"/>
       <c r="Y767" s="6"/>
     </row>
-    <row r="768" ht="13.55" customHeight="1">
+    <row r="768" spans="1:25" ht="13.5" customHeight="1">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="8"/>
@@ -23190,7 +23247,7 @@
       <c r="X768" s="7"/>
       <c r="Y768" s="6"/>
     </row>
-    <row r="769" ht="13.55" customHeight="1">
+    <row r="769" spans="1:25" ht="13.5" customHeight="1">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="8"/>
@@ -23217,7 +23274,7 @@
       <c r="X769" s="7"/>
       <c r="Y769" s="6"/>
     </row>
-    <row r="770" ht="13.55" customHeight="1">
+    <row r="770" spans="1:25" ht="13.5" customHeight="1">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="8"/>
@@ -23244,7 +23301,7 @@
       <c r="X770" s="7"/>
       <c r="Y770" s="6"/>
     </row>
-    <row r="771" ht="13.55" customHeight="1">
+    <row r="771" spans="1:25" ht="13.5" customHeight="1">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="8"/>
@@ -23271,7 +23328,7 @@
       <c r="X771" s="7"/>
       <c r="Y771" s="6"/>
     </row>
-    <row r="772" ht="13.55" customHeight="1">
+    <row r="772" spans="1:25" ht="13.5" customHeight="1">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="8"/>
@@ -23298,7 +23355,7 @@
       <c r="X772" s="7"/>
       <c r="Y772" s="6"/>
     </row>
-    <row r="773" ht="13.55" customHeight="1">
+    <row r="773" spans="1:25" ht="13.5" customHeight="1">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="8"/>
@@ -23325,7 +23382,7 @@
       <c r="X773" s="7"/>
       <c r="Y773" s="6"/>
     </row>
-    <row r="774" ht="13.55" customHeight="1">
+    <row r="774" spans="1:25" ht="13.5" customHeight="1">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="8"/>
@@ -23352,7 +23409,7 @@
       <c r="X774" s="7"/>
       <c r="Y774" s="6"/>
     </row>
-    <row r="775" ht="13.55" customHeight="1">
+    <row r="775" spans="1:25" ht="13.5" customHeight="1">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="8"/>
@@ -23379,7 +23436,7 @@
       <c r="X775" s="7"/>
       <c r="Y775" s="6"/>
     </row>
-    <row r="776" ht="13.55" customHeight="1">
+    <row r="776" spans="1:25" ht="13.5" customHeight="1">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="8"/>
@@ -23406,7 +23463,7 @@
       <c r="X776" s="7"/>
       <c r="Y776" s="6"/>
     </row>
-    <row r="777" ht="13.55" customHeight="1">
+    <row r="777" spans="1:25" ht="13.5" customHeight="1">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="8"/>
@@ -23433,7 +23490,7 @@
       <c r="X777" s="7"/>
       <c r="Y777" s="6"/>
     </row>
-    <row r="778" ht="13.55" customHeight="1">
+    <row r="778" spans="1:25" ht="13.5" customHeight="1">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="8"/>
@@ -23460,7 +23517,7 @@
       <c r="X778" s="7"/>
       <c r="Y778" s="6"/>
     </row>
-    <row r="779" ht="13.55" customHeight="1">
+    <row r="779" spans="1:25" ht="13.5" customHeight="1">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="8"/>
@@ -23487,7 +23544,7 @@
       <c r="X779" s="7"/>
       <c r="Y779" s="6"/>
     </row>
-    <row r="780" ht="13.55" customHeight="1">
+    <row r="780" spans="1:25" ht="13.5" customHeight="1">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="8"/>
@@ -23514,7 +23571,7 @@
       <c r="X780" s="7"/>
       <c r="Y780" s="6"/>
     </row>
-    <row r="781" ht="13.55" customHeight="1">
+    <row r="781" spans="1:25" ht="13.5" customHeight="1">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="8"/>
@@ -23541,7 +23598,7 @@
       <c r="X781" s="7"/>
       <c r="Y781" s="6"/>
     </row>
-    <row r="782" ht="13.55" customHeight="1">
+    <row r="782" spans="1:25" ht="13.5" customHeight="1">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="8"/>
@@ -23568,7 +23625,7 @@
       <c r="X782" s="7"/>
       <c r="Y782" s="6"/>
     </row>
-    <row r="783" ht="13.55" customHeight="1">
+    <row r="783" spans="1:25" ht="13.5" customHeight="1">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="8"/>
@@ -23595,7 +23652,7 @@
       <c r="X783" s="7"/>
       <c r="Y783" s="6"/>
     </row>
-    <row r="784" ht="13.55" customHeight="1">
+    <row r="784" spans="1:25" ht="13.5" customHeight="1">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="8"/>
@@ -23622,7 +23679,7 @@
       <c r="X784" s="7"/>
       <c r="Y784" s="6"/>
     </row>
-    <row r="785" ht="13.55" customHeight="1">
+    <row r="785" spans="1:25" ht="13.5" customHeight="1">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="8"/>
@@ -23649,7 +23706,7 @@
       <c r="X785" s="7"/>
       <c r="Y785" s="6"/>
     </row>
-    <row r="786" ht="13.55" customHeight="1">
+    <row r="786" spans="1:25" ht="13.5" customHeight="1">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="8"/>
@@ -23676,7 +23733,7 @@
       <c r="X786" s="7"/>
       <c r="Y786" s="6"/>
     </row>
-    <row r="787" ht="13.55" customHeight="1">
+    <row r="787" spans="1:25" ht="13.5" customHeight="1">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="8"/>
@@ -23703,7 +23760,7 @@
       <c r="X787" s="7"/>
       <c r="Y787" s="6"/>
     </row>
-    <row r="788" ht="13.55" customHeight="1">
+    <row r="788" spans="1:25" ht="13.5" customHeight="1">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="8"/>
@@ -23730,7 +23787,7 @@
       <c r="X788" s="7"/>
       <c r="Y788" s="6"/>
     </row>
-    <row r="789" ht="13.55" customHeight="1">
+    <row r="789" spans="1:25" ht="13.5" customHeight="1">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="8"/>
@@ -23757,7 +23814,7 @@
       <c r="X789" s="7"/>
       <c r="Y789" s="6"/>
     </row>
-    <row r="790" ht="13.55" customHeight="1">
+    <row r="790" spans="1:25" ht="13.5" customHeight="1">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="8"/>
@@ -23784,7 +23841,7 @@
       <c r="X790" s="7"/>
       <c r="Y790" s="6"/>
     </row>
-    <row r="791" ht="13.55" customHeight="1">
+    <row r="791" spans="1:25" ht="13.5" customHeight="1">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="8"/>
@@ -23811,7 +23868,7 @@
       <c r="X791" s="7"/>
       <c r="Y791" s="6"/>
     </row>
-    <row r="792" ht="13.55" customHeight="1">
+    <row r="792" spans="1:25" ht="13.5" customHeight="1">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="8"/>
@@ -23838,7 +23895,7 @@
       <c r="X792" s="7"/>
       <c r="Y792" s="6"/>
     </row>
-    <row r="793" ht="13.55" customHeight="1">
+    <row r="793" spans="1:25" ht="13.5" customHeight="1">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="8"/>
@@ -23865,7 +23922,7 @@
       <c r="X793" s="7"/>
       <c r="Y793" s="6"/>
     </row>
-    <row r="794" ht="13.55" customHeight="1">
+    <row r="794" spans="1:25" ht="13.5" customHeight="1">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="8"/>
@@ -23892,7 +23949,7 @@
       <c r="X794" s="7"/>
       <c r="Y794" s="6"/>
     </row>
-    <row r="795" ht="13.55" customHeight="1">
+    <row r="795" spans="1:25" ht="13.5" customHeight="1">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="8"/>
@@ -23919,7 +23976,7 @@
       <c r="X795" s="7"/>
       <c r="Y795" s="6"/>
     </row>
-    <row r="796" ht="13.55" customHeight="1">
+    <row r="796" spans="1:25" ht="13.5" customHeight="1">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="8"/>
@@ -23946,7 +24003,7 @@
       <c r="X796" s="7"/>
       <c r="Y796" s="6"/>
     </row>
-    <row r="797" ht="13.55" customHeight="1">
+    <row r="797" spans="1:25" ht="13.5" customHeight="1">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="8"/>
@@ -23973,7 +24030,7 @@
       <c r="X797" s="7"/>
       <c r="Y797" s="6"/>
     </row>
-    <row r="798" ht="13.55" customHeight="1">
+    <row r="798" spans="1:25" ht="13.5" customHeight="1">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="8"/>
@@ -24000,7 +24057,7 @@
       <c r="X798" s="7"/>
       <c r="Y798" s="6"/>
     </row>
-    <row r="799" ht="13.55" customHeight="1">
+    <row r="799" spans="1:25" ht="13.5" customHeight="1">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="8"/>
@@ -24027,7 +24084,7 @@
       <c r="X799" s="7"/>
       <c r="Y799" s="6"/>
     </row>
-    <row r="800" ht="13.55" customHeight="1">
+    <row r="800" spans="1:25" ht="13.5" customHeight="1">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="8"/>
@@ -24056,7 +24113,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Data_file/import_product.xlsx
+++ b/Data_file/import_product.xlsx
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>vat</t>
-  </si>
-  <si>
-    <t>Image</t>
   </si>
   <si>
     <t>All / 0-FG SET / ชุดโปรโมชั่น / ชุดขายปกติ</t>
@@ -336,85 +333,88 @@
     <t>LF10070KS8</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF4052F.jpg</t>
+    <t>LF4052F.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF6070K8(R).jpg</t>
+    <t>LF6070K8(R).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF6180S (SP2).jpg</t>
+    <t>LF6180S (SP2).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF9052K8(L2).jpg</t>
+    <t>LF9052K8(L2).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF15070F (SP2).jpg</t>
+    <t>LF15070F (SP2).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF15070C (SP2).jpg</t>
+    <t>LF15070C (SP2).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF18A60L4 (JF23).jpg</t>
+    <t>LF18A60L4 (JF23).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF1060B-N.jpg</t>
+    <t>LF1060B-N.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF34045K-N (SP).jpg</t>
+    <t>LF34045K-N (SP).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF34075P (L).jpg</t>
+    <t>LF34075P (L).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF35225Y (SP1).jpg</t>
+    <t>LF35225Y (SP1).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF4052K.jpg</t>
+    <t>LF4052K.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF4060L4 (JF15).jpg</t>
+    <t>LF4060L4 (JF15).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF43076KV (L).jpg</t>
+    <t>LF43076KV (L).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF45075#B.jpg</t>
+    <t>LF45075#B.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF48140Y (SP1).jpg</t>
+    <t>LF48140Y (SP1).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF5053L4.jpg</t>
+    <t>LF5053L4.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF52130DW.jpg</t>
+    <t>LF52130DW.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF5360L4.jpg</t>
+    <t>LF5360L4.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF5047L2.jpg</t>
+    <t>LF5047L2.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF5047L4 (SP).jpg</t>
+    <t>LF5047L4 (SP).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF5047L4.jpg</t>
+    <t>LF5047L4.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF6060L4 (JF15).jpg</t>
+    <t>LF6060L4 (JF15).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF6060L4 (JF15-1).jpg</t>
+    <t>LF6060L4 (JF15-1).jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF6060L4 (JF15)-SP.jpg</t>
+    <t>LF6060L4 (JF15)-SP.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF6060#C.jpg</t>
+    <t>LF6060#C.jpg</t>
   </si>
   <si>
-    <t>C:\Users\Ball\Pictures\imageLF10070KS8.jpg</t>
+    <t>LF10070KS8.jpg</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y800"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1"/>
@@ -1723,39 +1723,43 @@
         <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I2" s="5">
         <v>7800</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1770,41 +1774,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8">
         <v>8858417053162</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="5">
         <v>12900</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="5">
         <v>700</v>
@@ -1827,39 +1835,43 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I4" s="5">
         <v>56000</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="5">
         <v>1800</v>
@@ -1880,41 +1892,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8">
         <v>8858417053186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I5" s="5">
         <v>11600</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="5">
         <v>520</v>
@@ -1937,41 +1953,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8">
         <v>8858417019618</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="5">
         <v>19000</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="5">
         <v>700</v>
@@ -1994,41 +2014,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8">
         <v>8858417019625</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I7" s="5">
         <v>15700</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="5">
         <v>700</v>
@@ -2051,41 +2075,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8">
         <v>8858417030446</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I8" s="5">
         <v>13400</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="5">
         <v>600</v>
@@ -2108,41 +2136,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8">
         <v>8858417009947</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I9" s="5">
         <v>12000</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="5">
         <v>600</v>
@@ -2163,41 +2195,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8">
         <v>8858417001347</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="5">
         <v>10600</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="5">
         <v>460</v>
@@ -2220,41 +2256,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8">
         <v>8858417019526</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="5">
         <v>14600</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="5">
         <v>750</v>
@@ -2277,41 +2317,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="8">
         <v>8858417060436</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I12" s="5">
         <v>13300</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="5">
         <v>800</v>
@@ -2337,36 +2381,40 @@
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8">
         <v>8858417027569</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I13" s="5">
         <v>84600</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="5">
         <v>2250</v>
@@ -2389,39 +2437,43 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I14" s="5">
         <v>7800</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2436,41 +2488,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="8">
         <v>8858417030460</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I15" s="5">
         <v>13700</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="5">
         <v>600</v>
@@ -2493,41 +2549,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8">
         <v>8858417019533</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I16" s="5">
         <v>16700</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="5">
         <v>760</v>
@@ -2550,41 +2610,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="8">
         <v>8858417051168</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I17" s="5">
         <v>26600</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="5">
         <v>750</v>
@@ -2605,39 +2669,43 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I18" s="5">
         <v>40000</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="5">
         <v>2100</v>
@@ -2661,36 +2729,40 @@
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8">
         <v>8858417025817</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I19" s="5">
         <v>34000</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="5">
         <v>1400</v>
@@ -2713,41 +2785,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8">
         <v>8858417053445</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I20" s="5">
         <v>7290</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="5">
         <v>530</v>
@@ -2768,41 +2844,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="8">
         <v>8858417030637</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I21" s="5">
         <v>76000</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="5">
         <v>1306</v>
@@ -2823,41 +2903,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="8">
         <v>8858417053452</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I22" s="5">
         <v>12600</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="5">
         <v>600</v>
@@ -2880,41 +2964,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="8">
         <v>8858417025077</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I23" s="5">
         <v>9600</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="5">
         <v>600</v>
@@ -2937,39 +3025,43 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8">
         <v>8858417025091</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="5">
         <v>600</v>
@@ -2992,41 +3084,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8">
         <v>8858417025084</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I25" s="5">
         <v>9600</v>
       </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="5">
         <v>600</v>
@@ -3049,41 +3145,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8">
         <v>8858417030453</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I26" s="5">
         <v>8900</v>
       </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="5">
         <v>600</v>
@@ -3106,41 +3206,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8">
         <v>8858417030989</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I27" s="5">
         <v>14000</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="K27" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="5">
         <v>600</v>
@@ -3163,39 +3267,43 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I28" s="5">
         <v>14000</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="5">
         <v>600</v>
@@ -3218,41 +3326,45 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="8">
         <v>8858417067589</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I29" s="5">
         <v>5290</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -3267,37 +3379,41 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="N30" s="6"/>
       <c r="O30" s="5">
         <v>700</v>
@@ -3318,7 +3434,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -24113,7 +24229,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
